--- a/Banco de Dados de PADS/CALCULOS DE LEADTIME.xlsx
+++ b/Banco de Dados de PADS/CALCULOS DE LEADTIME.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e054420\Documents\PrivateDocs\TCC\Puc_Lean2016\Banco de Dados de PADS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruhan\Documents\TCC\Banco de Dados de PADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392" tabRatio="819" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7395" tabRatio="819" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PREMISSAS" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="71">
   <si>
     <t>DT/HR INI</t>
   </si>
@@ -1121,6 +1121,16 @@
   <si>
     <t>HORAS NÃO PRODUTIAS DIA UTIL</t>
   </si>
+  <si>
+    <t>CENARIOS E D1-D4 -FERIADO</t>
+  </si>
+  <si>
+    <t>CENARIOS F -D1-D4 FDS</t>
+  </si>
+  <si>
+    <t>VA
+CICLO/DESPERDICIO</t>
+  </si>
 </sst>
 </file>
 
@@ -1134,7 +1144,7 @@
     <numFmt numFmtId="168" formatCode="[hh]&quot; h&quot;\ mm&quot; m&quot;\ "/>
     <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1293,6 +1303,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1374,7 +1391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1588,11 +1605,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2082,12 +2111,12 @@
     <xf numFmtId="164" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2097,9 +2126,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2115,9 +2147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2155,7 +2187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2227,7 +2259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2386,13 +2418,13 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="21" width="9.109375" style="127"/>
+    <col min="16" max="21" width="9.140625" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="168" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2441,7 @@
       <c r="M2" s="169"/>
       <c r="N2" s="170"/>
     </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="159" t="s">
         <v>18</v>
       </c>
@@ -2426,7 +2458,7 @@
       <c r="M3" s="160"/>
       <c r="N3" s="161"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="162"/>
       <c r="C4" s="163"/>
       <c r="D4" s="163"/>
@@ -2441,7 +2473,7 @@
       <c r="M4" s="163"/>
       <c r="N4" s="164"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="162"/>
       <c r="C5" s="163"/>
       <c r="D5" s="163"/>
@@ -2456,7 +2488,7 @@
       <c r="M5" s="163"/>
       <c r="N5" s="164"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="162"/>
       <c r="C6" s="163"/>
       <c r="D6" s="163"/>
@@ -2471,7 +2503,7 @@
       <c r="M6" s="163"/>
       <c r="N6" s="164"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="162"/>
       <c r="C7" s="163"/>
       <c r="D7" s="163"/>
@@ -2486,7 +2518,7 @@
       <c r="M7" s="163"/>
       <c r="N7" s="164"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="162"/>
       <c r="C8" s="163"/>
       <c r="D8" s="163"/>
@@ -2501,7 +2533,7 @@
       <c r="M8" s="163"/>
       <c r="N8" s="164"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="162"/>
       <c r="C9" s="163"/>
       <c r="D9" s="163"/>
@@ -2516,7 +2548,7 @@
       <c r="M9" s="163"/>
       <c r="N9" s="164"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="162"/>
       <c r="C10" s="163"/>
       <c r="D10" s="163"/>
@@ -2531,7 +2563,7 @@
       <c r="M10" s="163"/>
       <c r="N10" s="164"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="162"/>
       <c r="C11" s="163"/>
       <c r="D11" s="163"/>
@@ -2546,7 +2578,7 @@
       <c r="M11" s="163"/>
       <c r="N11" s="164"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="162"/>
       <c r="C12" s="163"/>
       <c r="D12" s="163"/>
@@ -2561,7 +2593,7 @@
       <c r="M12" s="163"/>
       <c r="N12" s="164"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="162"/>
       <c r="C13" s="163"/>
       <c r="D13" s="163"/>
@@ -2576,7 +2608,7 @@
       <c r="M13" s="163"/>
       <c r="N13" s="164"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="162"/>
       <c r="C14" s="163"/>
       <c r="D14" s="163"/>
@@ -2591,7 +2623,7 @@
       <c r="M14" s="163"/>
       <c r="N14" s="164"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="162"/>
       <c r="C15" s="163"/>
       <c r="D15" s="163"/>
@@ -2606,7 +2638,7 @@
       <c r="M15" s="163"/>
       <c r="N15" s="164"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="162"/>
       <c r="C16" s="163"/>
       <c r="D16" s="163"/>
@@ -2621,7 +2653,7 @@
       <c r="M16" s="163"/>
       <c r="N16" s="164"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="162"/>
       <c r="C17" s="163"/>
       <c r="D17" s="163"/>
@@ -2636,7 +2668,7 @@
       <c r="M17" s="163"/>
       <c r="N17" s="164"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="162"/>
       <c r="C18" s="163"/>
       <c r="D18" s="163"/>
@@ -2651,7 +2683,7 @@
       <c r="M18" s="163"/>
       <c r="N18" s="164"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="162"/>
       <c r="C19" s="163"/>
       <c r="D19" s="163"/>
@@ -2666,7 +2698,7 @@
       <c r="M19" s="163"/>
       <c r="N19" s="164"/>
     </row>
-    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="165"/>
       <c r="C20" s="166"/>
       <c r="D20" s="166"/>
@@ -2703,20 +2735,20 @@
       <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="18"/>
-    <col min="5" max="6" width="9.109375" style="19"/>
-    <col min="7" max="7" width="9.109375" style="20"/>
-    <col min="8" max="11" width="9.109375" style="18"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="18"/>
+    <col min="5" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="9.140625" style="20"/>
+    <col min="8" max="11" width="9.140625" style="18"/>
     <col min="12" max="12" width="10" style="24" customWidth="1"/>
     <col min="13" max="13" width="10" style="25" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="18"/>
-    <col min="16" max="16" width="9.109375" style="21"/>
+    <col min="14" max="15" width="9.140625" style="18"/>
+    <col min="16" max="16" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -2735,7 +2767,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="13"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>0.5</v>
       </c>
@@ -2749,7 +2781,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100">
         <v>0.79166666666666663</v>
       </c>
@@ -2763,7 +2795,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71"/>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -2797,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="29" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="29" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
@@ -2823,7 +2855,7 @@
       <c r="O5" s="66"/>
       <c r="P5" s="70"/>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
@@ -2838,7 +2870,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -2855,7 +2887,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -2869,7 +2901,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -2885,7 +2917,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -2901,7 +2933,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="13"/>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -2917,7 +2949,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="13"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="178" t="s">
         <v>24</v>
       </c>
@@ -2937,7 +2969,7 @@
       <c r="O12" s="34"/>
       <c r="P12" s="38"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="179"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
@@ -2985,7 +3017,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="179"/>
       <c r="B14" s="87"/>
       <c r="C14" s="48"/>
@@ -3003,7 +3035,7 @@
       <c r="O14" s="41"/>
       <c r="P14" s="53"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="179"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
@@ -3048,7 +3080,7 @@
         <v>0.20833333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="179"/>
       <c r="B16" s="86"/>
       <c r="C16" s="40"/>
@@ -3066,7 +3098,7 @@
       <c r="O16" s="41"/>
       <c r="P16" s="53"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="179"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
@@ -3114,7 +3146,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="180"/>
       <c r="B18" s="61"/>
       <c r="C18" s="62"/>
@@ -3132,7 +3164,7 @@
       <c r="O18" s="55"/>
       <c r="P18" s="59"/>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
@@ -3147,7 +3179,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="13"/>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
@@ -3164,7 +3196,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="13"/>
     </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -3178,7 +3210,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -3194,7 +3226,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -3210,7 +3242,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="13"/>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -3226,7 +3258,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="178" t="s">
         <v>23</v>
       </c>
@@ -3246,7 +3278,7 @@
       <c r="O25" s="34"/>
       <c r="P25" s="38"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="179"/>
       <c r="B26" s="39" t="s">
         <v>2</v>
@@ -3295,7 +3327,7 @@
         <v>0.29166666666666674</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="179"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
@@ -3313,7 +3345,7 @@
       <c r="O27" s="41"/>
       <c r="P27" s="53"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="179"/>
       <c r="B28" s="39" t="s">
         <v>2</v>
@@ -3359,7 +3391,7 @@
         <v>0.54166666666666674</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="179"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
@@ -3377,7 +3409,7 @@
       <c r="O29" s="41"/>
       <c r="P29" s="53"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="179"/>
       <c r="B30" s="39" t="s">
         <v>2</v>
@@ -3426,7 +3458,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="180"/>
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
@@ -3444,7 +3476,7 @@
       <c r="O31" s="55"/>
       <c r="P31" s="59"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="81"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
@@ -3487,21 +3519,21 @@
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="18"/>
-    <col min="5" max="6" width="9.109375" style="19"/>
-    <col min="7" max="7" width="9.109375" style="20"/>
-    <col min="8" max="11" width="9.109375" style="18"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="18"/>
+    <col min="5" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="9.140625" style="20"/>
+    <col min="8" max="11" width="9.140625" style="18"/>
     <col min="12" max="12" width="10" style="24" customWidth="1"/>
     <col min="13" max="13" width="10" style="25" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="18"/>
-    <col min="16" max="16" width="9.109375" style="21"/>
-    <col min="17" max="17" width="9.109375" style="97"/>
+    <col min="14" max="15" width="9.140625" style="18"/>
+    <col min="16" max="16" width="9.140625" style="21"/>
+    <col min="17" max="17" width="9.140625" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3522,7 +3554,7 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="91"/>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>0.5</v>
       </c>
@@ -3546,7 +3578,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="91"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100">
         <v>0.79166666666666663</v>
       </c>
@@ -3570,7 +3602,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="91"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71"/>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -3607,7 +3639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="29" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="29" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
@@ -3634,7 +3666,7 @@
       <c r="P5" s="70"/>
       <c r="Q5" s="89"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
@@ -3650,7 +3682,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="91"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -3668,7 +3700,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="91"/>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -3683,7 +3715,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="91"/>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -3700,7 +3732,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -3717,7 +3749,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="91"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -3734,7 +3766,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="91"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="178" t="s">
         <v>25</v>
       </c>
@@ -3755,7 +3787,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="93"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="179"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
@@ -3809,7 +3841,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="179"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
@@ -3853,7 +3885,7 @@
       </c>
       <c r="Q14" s="186"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="179"/>
       <c r="B15" s="87"/>
       <c r="C15" s="48"/>
@@ -3872,7 +3904,7 @@
       <c r="P15" s="53"/>
       <c r="Q15" s="94"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="179"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
@@ -3926,7 +3958,7 @@
         <v>1.2083333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="179"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
@@ -3970,7 +4002,7 @@
       </c>
       <c r="Q17" s="186"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="179"/>
       <c r="B18" s="87"/>
       <c r="C18" s="48"/>
@@ -3989,7 +4021,7 @@
       <c r="P18" s="53"/>
       <c r="Q18" s="94"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="179"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
@@ -4043,7 +4075,7 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="179"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
@@ -4087,7 +4119,7 @@
       </c>
       <c r="Q20" s="186"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="180"/>
       <c r="B21" s="61"/>
       <c r="C21" s="62"/>
@@ -4106,7 +4138,7 @@
       <c r="P21" s="59"/>
       <c r="Q21" s="95"/>
     </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
@@ -4122,7 +4154,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="91"/>
     </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
@@ -4140,7 +4172,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="91"/>
     </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -4155,7 +4187,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="91"/>
     </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -4172,7 +4204,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="23"/>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -4189,7 +4221,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="91"/>
     </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -4206,7 +4238,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="91"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="178" t="s">
         <v>26</v>
       </c>
@@ -4227,7 +4259,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="93"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="179"/>
       <c r="B29" s="86" t="s">
         <v>2</v>
@@ -4281,7 +4313,7 @@
         <v>1.2916666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="179"/>
       <c r="B30" s="86" t="s">
         <v>2</v>
@@ -4326,7 +4358,7 @@
       </c>
       <c r="Q30" s="186"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="179"/>
       <c r="B31" s="87"/>
       <c r="C31" s="48"/>
@@ -4345,7 +4377,7 @@
       <c r="P31" s="53"/>
       <c r="Q31" s="94"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="179"/>
       <c r="B32" s="86" t="s">
         <v>2</v>
@@ -4399,7 +4431,7 @@
         <v>1.5416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="179"/>
       <c r="B33" s="86" t="s">
         <v>2</v>
@@ -4444,7 +4476,7 @@
       </c>
       <c r="Q33" s="186"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="179"/>
       <c r="B34" s="87"/>
       <c r="C34" s="48"/>
@@ -4463,7 +4495,7 @@
       <c r="P34" s="53"/>
       <c r="Q34" s="94"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="179"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
@@ -4517,7 +4549,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="179"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
@@ -4562,7 +4594,7 @@
       </c>
       <c r="Q36" s="186"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="180"/>
       <c r="B37" s="62"/>
       <c r="C37" s="62"/>
@@ -4581,7 +4613,7 @@
       <c r="P37" s="59"/>
       <c r="Q37" s="95"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="81"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -4602,29 +4634,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="F7:L11"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="F23:L27"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4643,21 +4675,21 @@
       <selection pane="bottomLeft" activeCell="J32" sqref="J32:J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="18"/>
-    <col min="5" max="6" width="9.109375" style="19"/>
-    <col min="7" max="7" width="9.109375" style="20"/>
-    <col min="8" max="11" width="9.109375" style="18"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="18"/>
+    <col min="5" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="9.140625" style="20"/>
+    <col min="8" max="11" width="9.140625" style="18"/>
     <col min="12" max="12" width="10" style="116" customWidth="1"/>
     <col min="13" max="13" width="10" style="117" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="18"/>
-    <col min="16" max="16" width="9.109375" style="21"/>
-    <col min="17" max="17" width="9.109375" style="97"/>
+    <col min="14" max="15" width="9.140625" style="18"/>
+    <col min="16" max="16" width="9.140625" style="21"/>
+    <col min="17" max="17" width="9.140625" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4678,7 +4710,7 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="91"/>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>0.5</v>
       </c>
@@ -4703,7 +4735,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="91"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100">
         <v>0.79166666666666663</v>
       </c>
@@ -4728,7 +4760,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="91"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71"/>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -4765,7 +4797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="29" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="29" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
@@ -4792,7 +4824,7 @@
       <c r="P5" s="70"/>
       <c r="Q5" s="89"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
@@ -4809,7 +4841,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="91"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -4828,7 +4860,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="91"/>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -4844,7 +4876,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="91"/>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -4861,7 +4893,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -4878,7 +4910,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="91"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -4895,7 +4927,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="91"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="178" t="s">
         <v>30</v>
       </c>
@@ -4916,7 +4948,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="93"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="179"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
@@ -4947,11 +4979,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="188">
+      <c r="L13" s="187">
         <f>I13+I14+I15</f>
         <v>0.52083333333333326</v>
       </c>
-      <c r="M13" s="187">
+      <c r="M13" s="188">
         <f>J13+J14+J15</f>
         <v>1.4166666666666667</v>
       </c>
@@ -4969,7 +5001,7 @@
         <v>1.9375</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="179"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
@@ -5001,8 +5033,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -5014,7 +5046,7 @@
       </c>
       <c r="Q14" s="186"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="179"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
@@ -5045,8 +5077,8 @@
         <v>0.5</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="188"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -5058,7 +5090,7 @@
       </c>
       <c r="Q15" s="186"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="179"/>
       <c r="B16" s="87"/>
       <c r="C16" s="48"/>
@@ -5077,7 +5109,7 @@
       <c r="P16" s="53"/>
       <c r="Q16" s="94"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="179"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
@@ -5108,11 +5140,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K17" s="41"/>
-      <c r="L17" s="188">
+      <c r="L17" s="187">
         <f>I17+I18+I19</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M17" s="187">
+      <c r="M17" s="188">
         <f>J17+J18+J19</f>
         <v>1.4166666666666667</v>
       </c>
@@ -5130,7 +5162,7 @@
         <v>2.208333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="179"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
@@ -5162,8 +5194,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K18" s="41"/>
-      <c r="L18" s="188"/>
-      <c r="M18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="188"/>
       <c r="N18" s="41" t="e">
         <f>L18/M18</f>
         <v>#DIV/0!</v>
@@ -5175,7 +5207,7 @@
       </c>
       <c r="Q18" s="186"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="179"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
@@ -5206,8 +5238,8 @@
         <v>0.5</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="188"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -5219,7 +5251,7 @@
       </c>
       <c r="Q19" s="186"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="179"/>
       <c r="B20" s="87"/>
       <c r="C20" s="48"/>
@@ -5238,7 +5270,7 @@
       <c r="P20" s="53"/>
       <c r="Q20" s="94"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
@@ -5269,11 +5301,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K21" s="41"/>
-      <c r="L21" s="188">
+      <c r="L21" s="187">
         <f>I21+I22+I23</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M21" s="187">
+      <c r="M21" s="188">
         <f>J21+J22+J23</f>
         <v>1.4166666666666667</v>
       </c>
@@ -5291,7 +5323,7 @@
         <v>2.333333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="179"/>
       <c r="B22" s="86" t="s">
         <v>2</v>
@@ -5323,8 +5355,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K22" s="41"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="188"/>
       <c r="N22" s="41" t="e">
         <f>L22/M22</f>
         <v>#DIV/0!</v>
@@ -5336,7 +5368,7 @@
       </c>
       <c r="Q22" s="186"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="179"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
@@ -5367,8 +5399,8 @@
         <v>0.5</v>
       </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="188"/>
       <c r="N23" s="41" t="e">
         <f>L23/M23</f>
         <v>#DIV/0!</v>
@@ -5380,7 +5412,7 @@
       </c>
       <c r="Q23" s="186"/>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="180"/>
       <c r="B24" s="61"/>
       <c r="C24" s="62"/>
@@ -5399,7 +5431,7 @@
       <c r="P24" s="59"/>
       <c r="Q24" s="95"/>
     </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
       <c r="D25" s="28"/>
@@ -5416,7 +5448,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="91"/>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
@@ -5435,7 +5467,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="91"/>
     </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -5451,7 +5483,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="91"/>
     </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -5468,7 +5500,7 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="23"/>
     </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -5485,7 +5517,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="91"/>
     </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -5502,7 +5534,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="91"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="178" t="s">
         <v>35</v>
       </c>
@@ -5523,7 +5555,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="93"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="179"/>
       <c r="B32" s="86" t="s">
         <v>2</v>
@@ -5554,11 +5586,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K32" s="41"/>
-      <c r="L32" s="188">
+      <c r="L32" s="187">
         <f>I32+I33+I34</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M32" s="187">
+      <c r="M32" s="188">
         <f>J32+J33+J34</f>
         <v>1.4583333333333335</v>
       </c>
@@ -5576,7 +5608,7 @@
         <v>2.291666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="179"/>
       <c r="B33" s="86" t="s">
         <v>2</v>
@@ -5608,8 +5640,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K33" s="41"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="188"/>
       <c r="N33" s="41" t="e">
         <f>L33/M33</f>
         <v>#DIV/0!</v>
@@ -5621,7 +5653,7 @@
       </c>
       <c r="Q33" s="186"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="179"/>
       <c r="B34" s="86" t="s">
         <v>2</v>
@@ -5653,8 +5685,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K34" s="41"/>
-      <c r="L34" s="188"/>
-      <c r="M34" s="187"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="188"/>
       <c r="N34" s="41" t="e">
         <f>L34/M34</f>
         <v>#DIV/0!</v>
@@ -5666,7 +5698,7 @@
       </c>
       <c r="Q34" s="186"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="179"/>
       <c r="B35" s="87"/>
       <c r="C35" s="48"/>
@@ -5685,7 +5717,7 @@
       <c r="P35" s="53"/>
       <c r="Q35" s="94"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="179"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
@@ -5716,11 +5748,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="188">
+      <c r="L36" s="187">
         <f>I36+I37+I38</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M36" s="187">
+      <c r="M36" s="188">
         <f>J36+J37+J38</f>
         <v>1.5</v>
       </c>
@@ -5738,7 +5770,7 @@
         <v>2.5416666666666665</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="179"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
@@ -5770,8 +5802,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K37" s="41"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="188"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -5783,7 +5815,7 @@
       </c>
       <c r="Q37" s="186"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="179"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
@@ -5815,8 +5847,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K38" s="41"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="187"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="188"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -5828,7 +5860,7 @@
       </c>
       <c r="Q38" s="186"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="179"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
@@ -5847,7 +5879,7 @@
       <c r="P39" s="53"/>
       <c r="Q39" s="94"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="179"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
@@ -5878,11 +5910,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K40" s="41"/>
-      <c r="L40" s="188">
+      <c r="L40" s="187">
         <f>I40+I41+I42</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M40" s="187">
+      <c r="M40" s="188">
         <f>J40+J41+J42</f>
         <v>1.6041666666666667</v>
       </c>
@@ -5900,7 +5932,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="179"/>
       <c r="B41" s="86" t="s">
         <v>2</v>
@@ -5932,8 +5964,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K41" s="41"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="187"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="188"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -5945,7 +5977,7 @@
       </c>
       <c r="Q41" s="186"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="179"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
@@ -5977,8 +6009,8 @@
         <v>0.6875</v>
       </c>
       <c r="K42" s="41"/>
-      <c r="L42" s="188"/>
-      <c r="M42" s="187"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="188"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -5990,7 +6022,7 @@
       </c>
       <c r="Q42" s="186"/>
     </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="180"/>
       <c r="B43" s="62"/>
       <c r="C43" s="62"/>
@@ -6009,7 +6041,7 @@
       <c r="P43" s="59"/>
       <c r="Q43" s="95"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="81"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -6030,6 +6062,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="Q36:Q38"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="F26:L30"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="Q17:Q19"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="F7:L11"/>
     <mergeCell ref="A12:A24"/>
@@ -6037,22 +6085,6 @@
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="L40:L42"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="F26:L30"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="M36:M38"/>
-    <mergeCell ref="Q36:Q38"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6071,21 +6103,21 @@
       <selection pane="bottomLeft" activeCell="L13" sqref="L13:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="18"/>
-    <col min="5" max="6" width="9.109375" style="19"/>
-    <col min="7" max="7" width="9.109375" style="20"/>
-    <col min="8" max="11" width="9.109375" style="18"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="18"/>
+    <col min="5" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="9.140625" style="20"/>
+    <col min="8" max="11" width="9.140625" style="18"/>
     <col min="12" max="12" width="10" style="116" customWidth="1"/>
     <col min="13" max="13" width="10" style="117" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="18"/>
-    <col min="16" max="16" width="9.109375" style="21"/>
-    <col min="17" max="17" width="9.109375" style="97"/>
+    <col min="14" max="15" width="9.140625" style="18"/>
+    <col min="16" max="16" width="9.140625" style="21"/>
+    <col min="17" max="17" width="9.140625" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -6106,7 +6138,7 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="91"/>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>0.5</v>
       </c>
@@ -6131,7 +6163,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="91"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100">
         <v>0.79166666666666663</v>
       </c>
@@ -6156,7 +6188,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="91"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71"/>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -6193,7 +6225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="29" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="29" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
@@ -6220,7 +6252,7 @@
       <c r="P5" s="70"/>
       <c r="Q5" s="89"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
@@ -6237,7 +6269,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="91"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -6256,7 +6288,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="91"/>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -6272,7 +6304,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="91"/>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -6289,7 +6321,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -6306,7 +6338,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="91"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -6323,7 +6355,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="91"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="178" t="s">
         <v>36</v>
       </c>
@@ -6344,7 +6376,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="93"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="179"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
@@ -6375,11 +6407,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="188">
+      <c r="L13" s="187">
         <f>I13+I14+I15+I16</f>
         <v>0.89583333333333315</v>
       </c>
-      <c r="M13" s="187">
+      <c r="M13" s="188">
         <f>J13+J14+J15+J16</f>
         <v>2.125</v>
       </c>
@@ -6397,7 +6429,7 @@
         <v>3.020833333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="179"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
@@ -6429,8 +6461,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -6442,7 +6474,7 @@
       </c>
       <c r="Q14" s="186"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="179"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
@@ -6474,8 +6506,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="188"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -6487,7 +6519,7 @@
       </c>
       <c r="Q15" s="186"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="179"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
@@ -6518,8 +6550,8 @@
         <v>0.5</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="188"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -6531,7 +6563,7 @@
       </c>
       <c r="Q16" s="186"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="179"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
@@ -6550,7 +6582,7 @@
       <c r="P17" s="53"/>
       <c r="Q17" s="94"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="179"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
@@ -6581,11 +6613,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K18" s="41"/>
-      <c r="L18" s="188">
+      <c r="L18" s="187">
         <f>I18+I19+I20+I21</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="M18" s="187">
+      <c r="M18" s="188">
         <f>J18+J19+J20+J21</f>
         <v>2.125</v>
       </c>
@@ -6603,7 +6635,7 @@
         <v>3.208333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="179"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
@@ -6635,8 +6667,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="188"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -6648,7 +6680,7 @@
       </c>
       <c r="Q19" s="186"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="179"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
@@ -6680,8 +6712,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="188"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -6693,7 +6725,7 @@
       </c>
       <c r="Q20" s="186"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
@@ -6724,8 +6756,8 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="41"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="188"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -6737,7 +6769,7 @@
       </c>
       <c r="Q21" s="186"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="179"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
@@ -6756,7 +6788,7 @@
       <c r="P22" s="53"/>
       <c r="Q22" s="94"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="179"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
@@ -6787,11 +6819,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="188">
+      <c r="L23" s="187">
         <f>I23+I24+I25+I26</f>
         <v>1.208333333333333</v>
       </c>
-      <c r="M23" s="187">
+      <c r="M23" s="188">
         <f>J23+J24+J25+J26</f>
         <v>2.125</v>
       </c>
@@ -6809,7 +6841,7 @@
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="179"/>
       <c r="B24" s="86" t="s">
         <v>2</v>
@@ -6841,8 +6873,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K24" s="41"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="188"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -6854,7 +6886,7 @@
       </c>
       <c r="Q24" s="186"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="179"/>
       <c r="B25" s="86" t="s">
         <v>2</v>
@@ -6886,8 +6918,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K25" s="41"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="188"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -6899,7 +6931,7 @@
       </c>
       <c r="Q25" s="186"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="179"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
@@ -6930,8 +6962,8 @@
         <v>0.5</v>
       </c>
       <c r="K26" s="41"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="188"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -6943,7 +6975,7 @@
       </c>
       <c r="Q26" s="186"/>
     </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="180"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
@@ -6962,7 +6994,7 @@
       <c r="P27" s="59"/>
       <c r="Q27" s="95"/>
     </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -6979,7 +7011,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="91"/>
     </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
@@ -6998,7 +7030,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="91"/>
     </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -7014,7 +7046,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="91"/>
     </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -7031,7 +7063,7 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="23"/>
     </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -7048,7 +7080,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="91"/>
     </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -7065,7 +7097,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="91"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="178" t="s">
         <v>39</v>
       </c>
@@ -7086,7 +7118,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="93"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="179"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
@@ -7117,11 +7149,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K35" s="41"/>
-      <c r="L35" s="188">
+      <c r="L35" s="187">
         <f>I35+I36+I37+I38</f>
         <v>1.125</v>
       </c>
-      <c r="M35" s="187">
+      <c r="M35" s="188">
         <f>J35+J36+J37+J38</f>
         <v>2.166666666666667</v>
       </c>
@@ -7139,7 +7171,7 @@
         <v>3.291666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="179"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
@@ -7171,8 +7203,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="188"/>
-      <c r="M36" s="187"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="188"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -7184,7 +7216,7 @@
       </c>
       <c r="Q36" s="186"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="179"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
@@ -7216,8 +7248,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K37" s="41"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="188"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -7229,7 +7261,7 @@
       </c>
       <c r="Q37" s="186"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="179"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
@@ -7261,8 +7293,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K38" s="41"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="187"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="188"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -7274,7 +7306,7 @@
       </c>
       <c r="Q38" s="186"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="179"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
@@ -7293,7 +7325,7 @@
       <c r="P39" s="53"/>
       <c r="Q39" s="94"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="179"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
@@ -7324,11 +7356,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K40" s="41"/>
-      <c r="L40" s="188">
+      <c r="L40" s="187">
         <f>I40+I41+I42+I43</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="M40" s="187">
+      <c r="M40" s="188">
         <f>J40+J41+J42+J43</f>
         <v>2.2083333333333335</v>
       </c>
@@ -7346,7 +7378,7 @@
         <v>3.5416666666666665</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="179"/>
       <c r="B41" s="86" t="s">
         <v>2</v>
@@ -7378,8 +7410,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K41" s="41"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="187"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="188"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -7391,7 +7423,7 @@
       </c>
       <c r="Q41" s="186"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="179"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
@@ -7423,8 +7455,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K42" s="41"/>
-      <c r="L42" s="188"/>
-      <c r="M42" s="187"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="188"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -7436,7 +7468,7 @@
       </c>
       <c r="Q42" s="186"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="179"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
@@ -7468,8 +7500,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K43" s="41"/>
-      <c r="L43" s="188"/>
-      <c r="M43" s="187"/>
+      <c r="L43" s="187"/>
+      <c r="M43" s="188"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -7481,7 +7513,7 @@
       </c>
       <c r="Q43" s="186"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="179"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
@@ -7500,7 +7532,7 @@
       <c r="P44" s="53"/>
       <c r="Q44" s="94"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="179"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
@@ -7531,11 +7563,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K45" s="41"/>
-      <c r="L45" s="188">
+      <c r="L45" s="187">
         <f>I45+I46+I47+I48</f>
         <v>1.4374999999999998</v>
       </c>
-      <c r="M45" s="187">
+      <c r="M45" s="188">
         <f>J45+J46+J47+J48</f>
         <v>2.3125</v>
       </c>
@@ -7553,7 +7585,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="179"/>
       <c r="B46" s="86" t="s">
         <v>2</v>
@@ -7585,8 +7617,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K46" s="41"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="187"/>
+      <c r="L46" s="187"/>
+      <c r="M46" s="188"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -7598,7 +7630,7 @@
       </c>
       <c r="Q46" s="186"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="179"/>
       <c r="B47" s="86" t="s">
         <v>2</v>
@@ -7630,8 +7662,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K47" s="41"/>
-      <c r="L47" s="188"/>
-      <c r="M47" s="187"/>
+      <c r="L47" s="187"/>
+      <c r="M47" s="188"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -7643,7 +7675,7 @@
       </c>
       <c r="Q47" s="186"/>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="179"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
@@ -7675,8 +7707,8 @@
         <v>0.6875</v>
       </c>
       <c r="K48" s="41"/>
-      <c r="L48" s="188"/>
-      <c r="M48" s="187"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="188"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -7688,7 +7720,7 @@
       </c>
       <c r="Q48" s="186"/>
     </row>
-    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="180"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
@@ -7707,7 +7739,7 @@
       <c r="P49" s="59"/>
       <c r="Q49" s="95"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="81"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -7728,18 +7760,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="Q23:Q26"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="F7:L11"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="M23:M26"/>
     <mergeCell ref="F29:L33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="L35:L38"/>
@@ -7751,6 +7771,18 @@
     <mergeCell ref="L45:L48"/>
     <mergeCell ref="M45:M48"/>
     <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F7:L11"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="Q23:Q26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7766,26 +7798,26 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="18"/>
-    <col min="5" max="6" width="9.109375" style="19"/>
-    <col min="7" max="7" width="9.109375" style="20"/>
-    <col min="8" max="8" width="9.109375" style="18"/>
-    <col min="9" max="10" width="9.109375" style="22"/>
-    <col min="11" max="11" width="9.109375" style="18"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="18"/>
+    <col min="5" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="9.140625" style="20"/>
+    <col min="8" max="8" width="9.140625" style="18"/>
+    <col min="9" max="10" width="9.140625" style="22"/>
+    <col min="11" max="11" width="9.140625" style="18"/>
     <col min="12" max="12" width="10" style="116" customWidth="1"/>
     <col min="13" max="13" width="10" style="117" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="18"/>
-    <col min="16" max="16" width="9.109375" style="21"/>
-    <col min="17" max="17" width="9.109375" style="97"/>
+    <col min="14" max="15" width="9.140625" style="18"/>
+    <col min="16" max="16" width="9.140625" style="21"/>
+    <col min="17" max="17" width="9.140625" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -7806,7 +7838,7 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="91"/>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>0.5</v>
       </c>
@@ -7833,7 +7865,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="91"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100">
         <v>0.79166666666666663</v>
       </c>
@@ -7860,7 +7892,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="91"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71"/>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -7897,7 +7929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="29" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="29" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
@@ -7924,7 +7956,7 @@
       <c r="P5" s="70"/>
       <c r="Q5" s="89"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
@@ -7941,7 +7973,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="91"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -7960,7 +7992,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="91"/>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -7976,7 +8008,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="91"/>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -7993,7 +8025,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -8010,7 +8042,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="91"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -8027,7 +8059,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="91"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="178" t="s">
         <v>40</v>
       </c>
@@ -8048,7 +8080,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="93"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="179"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
@@ -8079,11 +8111,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="188">
+      <c r="L13" s="187">
         <f>I13+I14+I15+I16</f>
         <v>0.60416666666666652</v>
       </c>
-      <c r="M13" s="187">
+      <c r="M13" s="188">
         <f>J13+J14+J15+J16</f>
         <v>2.416666666666667</v>
       </c>
@@ -8101,7 +8133,7 @@
         <v>3.0208333333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="179"/>
       <c r="B14" s="118" t="s">
         <v>2</v>
@@ -8133,8 +8165,8 @@
         <v>1</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -8146,7 +8178,7 @@
       </c>
       <c r="Q14" s="186"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="179"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
@@ -8178,8 +8210,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="188"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -8191,7 +8223,7 @@
       </c>
       <c r="Q15" s="186"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="179"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
@@ -8222,8 +8254,8 @@
         <v>0.5</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="188"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -8235,7 +8267,7 @@
       </c>
       <c r="Q16" s="186"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="179"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
@@ -8254,7 +8286,7 @@
       <c r="P17" s="53"/>
       <c r="Q17" s="94"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="179"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
@@ -8285,11 +8317,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K18" s="41"/>
-      <c r="L18" s="188">
+      <c r="L18" s="187">
         <f>I18+I19+I20+I21</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M18" s="187">
+      <c r="M18" s="188">
         <f>J18+J19+J20+J21</f>
         <v>2.416666666666667</v>
       </c>
@@ -8307,7 +8339,7 @@
         <v>3.2083333333333335</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="179"/>
       <c r="B19" s="118" t="s">
         <v>2</v>
@@ -8339,8 +8371,8 @@
         <v>1</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="188"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -8352,7 +8384,7 @@
       </c>
       <c r="Q19" s="186"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="179"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
@@ -8384,8 +8416,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="188"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -8397,7 +8429,7 @@
       </c>
       <c r="Q20" s="186"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
@@ -8428,8 +8460,8 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="41"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="188"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -8441,7 +8473,7 @@
       </c>
       <c r="Q21" s="186"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="179"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
@@ -8460,7 +8492,7 @@
       <c r="P22" s="53"/>
       <c r="Q22" s="94"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="179"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
@@ -8491,11 +8523,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="188">
+      <c r="L23" s="187">
         <f>I23+I24+I25+I26</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M23" s="187">
+      <c r="M23" s="188">
         <f>J23+J24+J25+J26</f>
         <v>2.416666666666667</v>
       </c>
@@ -8513,7 +8545,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="179"/>
       <c r="B24" s="118" t="s">
         <v>2</v>
@@ -8545,8 +8577,8 @@
         <v>1</v>
       </c>
       <c r="K24" s="41"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="188"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -8558,7 +8590,7 @@
       </c>
       <c r="Q24" s="186"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="179"/>
       <c r="B25" s="86" t="s">
         <v>2</v>
@@ -8590,8 +8622,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K25" s="41"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="188"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -8603,7 +8635,7 @@
       </c>
       <c r="Q25" s="186"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="179"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
@@ -8634,8 +8666,8 @@
         <v>0.5</v>
       </c>
       <c r="K26" s="41"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="188"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -8647,7 +8679,7 @@
       </c>
       <c r="Q26" s="186"/>
     </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="180"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
@@ -8666,7 +8698,7 @@
       <c r="P27" s="59"/>
       <c r="Q27" s="95"/>
     </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -8683,7 +8715,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="91"/>
     </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
@@ -8702,7 +8734,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="91"/>
     </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -8718,7 +8750,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="91"/>
     </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -8735,7 +8767,7 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="23"/>
     </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -8752,7 +8784,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="91"/>
     </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -8769,7 +8801,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="91"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="178" t="s">
         <v>42</v>
       </c>
@@ -8790,7 +8822,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="93"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="179"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
@@ -8821,11 +8853,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K35" s="41"/>
-      <c r="L35" s="188">
+      <c r="L35" s="187">
         <f>I35+I36+I37+I38</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M35" s="187">
+      <c r="M35" s="188">
         <f>J35+J36+J37+J38</f>
         <v>2.4583333333333339</v>
       </c>
@@ -8843,7 +8875,7 @@
         <v>3.291666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="179"/>
       <c r="B36" s="118" t="s">
         <v>2</v>
@@ -8875,8 +8907,8 @@
         <v>1</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="188"/>
-      <c r="M36" s="187"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="188"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -8888,7 +8920,7 @@
       </c>
       <c r="Q36" s="186"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="179"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
@@ -8920,8 +8952,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K37" s="41"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="188"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -8933,7 +8965,7 @@
       </c>
       <c r="Q37" s="186"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="179"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
@@ -8965,8 +8997,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K38" s="41"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="187"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="188"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -8978,7 +9010,7 @@
       </c>
       <c r="Q38" s="186"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="179"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
@@ -8997,7 +9029,7 @@
       <c r="P39" s="53"/>
       <c r="Q39" s="94"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="179"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
@@ -9028,11 +9060,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K40" s="41"/>
-      <c r="L40" s="188">
+      <c r="L40" s="187">
         <f>I40+I41+I42+I43</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M40" s="187">
+      <c r="M40" s="188">
         <f>J40+J41+J42+J43</f>
         <v>2.5000000000000004</v>
       </c>
@@ -9050,7 +9082,7 @@
         <v>3.541666666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="179"/>
       <c r="B41" s="118" t="s">
         <v>2</v>
@@ -9082,8 +9114,8 @@
         <v>1</v>
       </c>
       <c r="K41" s="41"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="187"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="188"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -9095,7 +9127,7 @@
       </c>
       <c r="Q41" s="186"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="179"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
@@ -9127,8 +9159,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K42" s="41"/>
-      <c r="L42" s="188"/>
-      <c r="M42" s="187"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="188"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -9140,7 +9172,7 @@
       </c>
       <c r="Q42" s="186"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="179"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
@@ -9172,8 +9204,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K43" s="41"/>
-      <c r="L43" s="188"/>
-      <c r="M43" s="187"/>
+      <c r="L43" s="187"/>
+      <c r="M43" s="188"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -9185,7 +9217,7 @@
       </c>
       <c r="Q43" s="186"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="179"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
@@ -9204,7 +9236,7 @@
       <c r="P44" s="53"/>
       <c r="Q44" s="94"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="179"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
@@ -9235,11 +9267,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K45" s="41"/>
-      <c r="L45" s="188">
+      <c r="L45" s="187">
         <f>I45+I46+I47+I48</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M45" s="187">
+      <c r="M45" s="188">
         <f>J45+J46+J47+J48</f>
         <v>2.604166666666667</v>
       </c>
@@ -9257,7 +9289,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="179"/>
       <c r="B46" s="118" t="s">
         <v>2</v>
@@ -9289,8 +9321,8 @@
         <v>1</v>
       </c>
       <c r="K46" s="41"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="187"/>
+      <c r="L46" s="187"/>
+      <c r="M46" s="188"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -9302,7 +9334,7 @@
       </c>
       <c r="Q46" s="186"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="179"/>
       <c r="B47" s="86" t="s">
         <v>2</v>
@@ -9334,8 +9366,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K47" s="41"/>
-      <c r="L47" s="188"/>
-      <c r="M47" s="187"/>
+      <c r="L47" s="187"/>
+      <c r="M47" s="188"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -9347,7 +9379,7 @@
       </c>
       <c r="Q47" s="186"/>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="179"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
@@ -9379,8 +9411,8 @@
         <v>0.6875</v>
       </c>
       <c r="K48" s="41"/>
-      <c r="L48" s="188"/>
-      <c r="M48" s="187"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="188"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -9392,7 +9424,7 @@
       </c>
       <c r="Q48" s="186"/>
     </row>
-    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="180"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
@@ -9411,7 +9443,7 @@
       <c r="P49" s="59"/>
       <c r="Q49" s="95"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="81"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -9432,6 +9464,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F29:L33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="Q35:Q38"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="M45:M48"/>
+    <mergeCell ref="Q45:Q48"/>
     <mergeCell ref="Q13:Q16"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="F7:L11"/>
@@ -9444,17 +9487,6 @@
     <mergeCell ref="L23:L26"/>
     <mergeCell ref="M23:M26"/>
     <mergeCell ref="Q23:Q26"/>
-    <mergeCell ref="F29:L33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="Q35:Q38"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="M45:M48"/>
-    <mergeCell ref="Q45:Q48"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9469,31 +9501,31 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="18"/>
-    <col min="5" max="6" width="9.109375" style="19"/>
-    <col min="7" max="7" width="9.109375" style="20"/>
-    <col min="8" max="8" width="9.109375" style="18"/>
-    <col min="9" max="10" width="9.109375" style="22"/>
-    <col min="11" max="11" width="9.109375" style="18"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="18"/>
+    <col min="5" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="9.140625" style="20"/>
+    <col min="8" max="8" width="9.140625" style="18"/>
+    <col min="9" max="10" width="9.140625" style="22"/>
+    <col min="11" max="11" width="9.140625" style="18"/>
     <col min="12" max="12" width="10" style="116" customWidth="1"/>
     <col min="13" max="13" width="10" style="117" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="18"/>
-    <col min="16" max="16" width="9.109375" style="21"/>
-    <col min="17" max="17" width="9.109375" style="97"/>
-    <col min="20" max="20" width="20.33203125" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="18"/>
+    <col min="16" max="16" width="9.140625" style="21"/>
+    <col min="17" max="17" width="9.140625" style="97"/>
+    <col min="20" max="20" width="20.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.7109375" customWidth="1"/>
+    <col min="24" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -9514,7 +9546,7 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="91"/>
     </row>
-    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>0.5</v>
       </c>
@@ -9541,7 +9573,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="91"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100">
         <v>0.79166666666666663</v>
       </c>
@@ -9568,7 +9600,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="91"/>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71"/>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -9605,7 +9637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="29" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" s="29" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
@@ -9632,7 +9664,7 @@
       <c r="P5" s="70"/>
       <c r="Q5" s="89"/>
     </row>
-    <row r="6" spans="1:25" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
@@ -9649,7 +9681,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="91"/>
     </row>
-    <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -9668,7 +9700,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="91"/>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -9684,7 +9716,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="91"/>
     </row>
-    <row r="9" spans="1:25" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -9701,7 +9733,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:25" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -9718,7 +9750,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="91"/>
     </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -9735,7 +9767,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="91"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="178" t="s">
         <v>43</v>
       </c>
@@ -9756,7 +9788,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="93"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="179"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
@@ -9787,11 +9819,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="188">
+      <c r="L13" s="187">
         <f>I13+I14+I15+I16</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="M13" s="187">
+      <c r="M13" s="188">
         <f>J13+J14+J15+J16</f>
         <v>2.7083333333333335</v>
       </c>
@@ -9815,7 +9847,7 @@
       <c r="X13" s="129"/>
       <c r="Y13" s="131"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="179"/>
       <c r="B14" s="118" t="s">
         <v>2</v>
@@ -9847,8 +9879,8 @@
         <v>1</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -9860,7 +9892,7 @@
       </c>
       <c r="Q14" s="186"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="179"/>
       <c r="B15" s="118" t="s">
         <v>2</v>
@@ -9892,8 +9924,8 @@
         <v>1</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="188"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -9905,7 +9937,7 @@
       </c>
       <c r="Q15" s="186"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="179"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
@@ -9936,8 +9968,8 @@
         <v>0.5</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="188"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -9949,7 +9981,7 @@
       </c>
       <c r="Q16" s="186"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="179"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
@@ -9968,7 +10000,7 @@
       <c r="P17" s="53"/>
       <c r="Q17" s="94"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="179"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
@@ -9999,11 +10031,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K18" s="41"/>
-      <c r="L18" s="188">
+      <c r="L18" s="187">
         <f>I18+I19+I20+I21</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M18" s="187">
+      <c r="M18" s="188">
         <f>J18+J19+J20+J21</f>
         <v>2.416666666666667</v>
       </c>
@@ -10021,7 +10053,7 @@
         <v>3.2083333333333335</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="179"/>
       <c r="B19" s="118" t="s">
         <v>2</v>
@@ -10053,8 +10085,8 @@
         <v>1</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="188"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -10066,7 +10098,7 @@
       </c>
       <c r="Q19" s="186"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="179"/>
       <c r="B20" s="118" t="s">
         <v>2</v>
@@ -10098,8 +10130,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="188"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -10111,7 +10143,7 @@
       </c>
       <c r="Q20" s="186"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
@@ -10142,8 +10174,8 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="41"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="188"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -10155,7 +10187,7 @@
       </c>
       <c r="Q21" s="186"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="179"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
@@ -10174,7 +10206,7 @@
       <c r="P22" s="53"/>
       <c r="Q22" s="94"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="179"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
@@ -10205,11 +10237,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="188">
+      <c r="L23" s="187">
         <f>I23+I24+I25+I26</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M23" s="187">
+      <c r="M23" s="188">
         <f>J23+J24+J25+J26</f>
         <v>2.416666666666667</v>
       </c>
@@ -10227,7 +10259,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="179"/>
       <c r="B24" s="118" t="s">
         <v>2</v>
@@ -10259,8 +10291,8 @@
         <v>1</v>
       </c>
       <c r="K24" s="41"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="188"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -10272,7 +10304,7 @@
       </c>
       <c r="Q24" s="186"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="179"/>
       <c r="B25" s="118" t="s">
         <v>2</v>
@@ -10304,8 +10336,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K25" s="41"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="188"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -10317,7 +10349,7 @@
       </c>
       <c r="Q25" s="186"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="179"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
@@ -10348,8 +10380,8 @@
         <v>0.5</v>
       </c>
       <c r="K26" s="41"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="188"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -10361,7 +10393,7 @@
       </c>
       <c r="Q26" s="186"/>
     </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="180"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
@@ -10380,7 +10412,7 @@
       <c r="P27" s="59"/>
       <c r="Q27" s="95"/>
     </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -10397,7 +10429,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="91"/>
     </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
@@ -10416,7 +10448,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="91"/>
     </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -10432,7 +10464,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="91"/>
     </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -10449,7 +10481,7 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="23"/>
     </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -10466,7 +10498,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="91"/>
     </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -10483,7 +10515,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="91"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="178" t="s">
         <v>45</v>
       </c>
@@ -10504,7 +10536,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="93"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="179"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
@@ -10535,11 +10567,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K35" s="41"/>
-      <c r="L35" s="188">
+      <c r="L35" s="187">
         <f>I35+I36+I37+I38</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M35" s="187">
+      <c r="M35" s="188">
         <f>J35+J36+J37+J38</f>
         <v>2.4583333333333339</v>
       </c>
@@ -10557,7 +10589,7 @@
         <v>3.291666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="179"/>
       <c r="B36" s="118" t="s">
         <v>2</v>
@@ -10589,8 +10621,8 @@
         <v>1</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="188"/>
-      <c r="M36" s="187"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="188"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -10602,7 +10634,7 @@
       </c>
       <c r="Q36" s="186"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="179"/>
       <c r="B37" s="118" t="s">
         <v>2</v>
@@ -10634,8 +10666,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K37" s="41"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="188"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -10647,7 +10679,7 @@
       </c>
       <c r="Q37" s="186"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="179"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
@@ -10679,8 +10711,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K38" s="41"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="187"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="188"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -10692,7 +10724,7 @@
       </c>
       <c r="Q38" s="186"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="179"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
@@ -10711,7 +10743,7 @@
       <c r="P39" s="53"/>
       <c r="Q39" s="94"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="179"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
@@ -10742,11 +10774,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K40" s="41"/>
-      <c r="L40" s="188">
+      <c r="L40" s="187">
         <f>I40+I41+I42+I43</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M40" s="187">
+      <c r="M40" s="188">
         <f>J40+J41+J42+J43</f>
         <v>2.5000000000000004</v>
       </c>
@@ -10764,7 +10796,7 @@
         <v>3.541666666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="179"/>
       <c r="B41" s="118" t="s">
         <v>2</v>
@@ -10796,8 +10828,8 @@
         <v>1</v>
       </c>
       <c r="K41" s="41"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="187"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="188"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -10809,7 +10841,7 @@
       </c>
       <c r="Q41" s="186"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="179"/>
       <c r="B42" s="118" t="s">
         <v>2</v>
@@ -10841,8 +10873,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K42" s="41"/>
-      <c r="L42" s="188"/>
-      <c r="M42" s="187"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="188"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -10854,7 +10886,7 @@
       </c>
       <c r="Q42" s="186"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="179"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
@@ -10886,8 +10918,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K43" s="41"/>
-      <c r="L43" s="188"/>
-      <c r="M43" s="187"/>
+      <c r="L43" s="187"/>
+      <c r="M43" s="188"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -10899,7 +10931,7 @@
       </c>
       <c r="Q43" s="186"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="179"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
@@ -10918,7 +10950,7 @@
       <c r="P44" s="53"/>
       <c r="Q44" s="94"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="179"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
@@ -10949,11 +10981,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K45" s="41"/>
-      <c r="L45" s="188">
+      <c r="L45" s="187">
         <f>I45+I46+I47+I48</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M45" s="187">
+      <c r="M45" s="188">
         <f>J45+J46+J47+J48</f>
         <v>2.604166666666667</v>
       </c>
@@ -10971,7 +11003,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="179"/>
       <c r="B46" s="118" t="s">
         <v>2</v>
@@ -11003,8 +11035,8 @@
         <v>1</v>
       </c>
       <c r="K46" s="41"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="187"/>
+      <c r="L46" s="187"/>
+      <c r="M46" s="188"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -11016,7 +11048,7 @@
       </c>
       <c r="Q46" s="186"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="179"/>
       <c r="B47" s="118" t="s">
         <v>2</v>
@@ -11048,8 +11080,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K47" s="41"/>
-      <c r="L47" s="188"/>
-      <c r="M47" s="187"/>
+      <c r="L47" s="187"/>
+      <c r="M47" s="188"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -11061,7 +11093,7 @@
       </c>
       <c r="Q47" s="186"/>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="179"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
@@ -11093,8 +11125,8 @@
         <v>0.6875</v>
       </c>
       <c r="K48" s="41"/>
-      <c r="L48" s="188"/>
-      <c r="M48" s="187"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="188"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -11106,7 +11138,7 @@
       </c>
       <c r="Q48" s="186"/>
     </row>
-    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="180"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
@@ -11125,7 +11157,7 @@
       <c r="P49" s="59"/>
       <c r="Q49" s="95"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="81"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -11146,18 +11178,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="Q23:Q26"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="F7:L11"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="M23:M26"/>
     <mergeCell ref="F29:L33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="L35:L38"/>
@@ -11169,6 +11189,18 @@
     <mergeCell ref="L45:L48"/>
     <mergeCell ref="M45:M48"/>
     <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F7:L11"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="Q23:Q26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11177,36 +11209,37 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5546875" customWidth="1"/>
-    <col min="18" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -11228,7 +11261,7 @@
       <c r="O1" s="13"/>
       <c r="P1" s="91"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>0.5</v>
       </c>
@@ -11258,7 +11291,7 @@
       <c r="P2" s="91"/>
       <c r="V2" s="130"/>
     </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100">
         <v>0.79166666666666663</v>
       </c>
@@ -11287,7 +11320,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="91"/>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="100">
         <v>0.29166666666666669</v>
       </c>
@@ -11309,7 +11342,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="91"/>
     </row>
-    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="100">
         <v>0.70833333333333337</v>
       </c>
@@ -11331,7 +11364,7 @@
       <c r="O5" s="13"/>
       <c r="P5" s="91"/>
     </row>
-    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="157" t="s">
         <v>63</v>
       </c>
@@ -11353,7 +11386,7 @@
       <c r="O6" s="13"/>
       <c r="P6" s="91"/>
     </row>
-    <row r="7" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="154"/>
       <c r="B7" s="154"/>
       <c r="C7" s="154"/>
@@ -11380,7 +11413,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="77" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="O7" s="90" t="s">
         <v>22</v>
@@ -11389,7 +11422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="151"/>
       <c r="B8" s="152"/>
       <c r="C8" s="153" t="s">
@@ -11408,8 +11441,8 @@
       <c r="H8" s="148"/>
       <c r="I8" s="148"/>
     </row>
-    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G11" s="172" t="s">
         <v>50</v>
       </c>
@@ -11420,7 +11453,7 @@
       <c r="L11" s="173"/>
       <c r="M11" s="174"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G12" s="175"/>
       <c r="H12" s="176"/>
       <c r="I12" s="176"/>
@@ -11429,7 +11462,7 @@
       <c r="L12" s="176"/>
       <c r="M12" s="177"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G13" s="175"/>
       <c r="H13" s="176"/>
       <c r="I13" s="176"/>
@@ -11438,7 +11471,7 @@
       <c r="L13" s="176"/>
       <c r="M13" s="177"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G14" s="175"/>
       <c r="H14" s="176"/>
       <c r="I14" s="176"/>
@@ -11447,7 +11480,7 @@
       <c r="L14" s="176"/>
       <c r="M14" s="177"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G15" s="175"/>
       <c r="H15" s="176"/>
       <c r="I15" s="176"/>
@@ -11456,7 +11489,7 @@
       <c r="L15" s="176"/>
       <c r="M15" s="177"/>
     </row>
-    <row r="16" spans="1:25" s="133" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="133" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="134"/>
       <c r="H16" s="134" t="s">
         <v>58</v>
@@ -11488,7 +11521,7 @@
       </c>
       <c r="Y16" s="135"/>
     </row>
-    <row r="17" spans="1:24" s="133" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" s="133" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="189" t="s">
         <v>64</v>
       </c>
@@ -11521,20 +11554,20 @@
         <v>4.1666666664241292E-2</v>
       </c>
       <c r="K17" s="143">
-        <f>IF(U17&lt;&gt;V17,(D17)+((Q17-2)*$A$5)+(IF(I17&gt;$A$3,I17-$A$3,0))+(G17),0)</f>
+        <f t="shared" ref="K17:K19" si="1">IF(U17&lt;&gt;V17,(D17)+((Q17-2)*$A$5)+(IF(I17&gt;$A$3,I17-$A$3,0))+(G17)+(T17),0)</f>
         <v>0</v>
       </c>
       <c r="L17" s="146">
-        <f t="shared" ref="L17:M19" si="1">J17</f>
+        <f t="shared" ref="L17:M19" si="2">J17</f>
         <v>4.1666666664241292E-2</v>
       </c>
       <c r="M17" s="145">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="147" t="e">
-        <f>(L17/M17)*100</f>
-        <v>#DIV/0!</v>
+      <c r="N17" s="147" t="str">
+        <f>IF(M17&lt;&gt;0,(L17/M17)*100,"100%")</f>
+        <v>100%</v>
       </c>
       <c r="O17" s="144">
         <f>F17-E17</f>
@@ -11553,25 +11586,25 @@
         <v>1</v>
       </c>
       <c r="S17" s="139">
-        <f>Q17</f>
-        <v>1</v>
+        <f t="shared" ref="S17:S20" si="3">((_xlfn.DAYS(V17,U17)+1)-Q17)</f>
+        <v>0</v>
       </c>
       <c r="T17" s="144">
         <f>S17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="140">
-        <f t="shared" ref="U17:V19" si="2">DATE(YEAR(E17),MONTH(E17),DAY(E17))</f>
+        <f t="shared" ref="U17:V19" si="4">DATE(YEAR(E17),MONTH(E17),DAY(E17))</f>
         <v>42975</v>
       </c>
       <c r="V17" s="140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42975</v>
       </c>
       <c r="W17" s="140"/>
       <c r="X17" s="140"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="189" t="s">
         <v>65</v>
       </c>
@@ -11603,20 +11636,20 @@
         <v>0.83333333333333326</v>
       </c>
       <c r="K18" s="143">
-        <f>IF(U18&lt;&gt;V18,(D18)+((Q18-2)*$A$5)+(IF(I18&gt;$A$3,I18-$A$3,0))+(G18),0)</f>
-        <v>1.4583333333357591</v>
-      </c>
-      <c r="L18" s="146">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="M18" s="145">
         <f t="shared" si="1"/>
         <v>1.4583333333357591</v>
       </c>
-      <c r="N18" s="147">
-        <f>(L18/M18)*100</f>
-        <v>57.142857142762082</v>
+      <c r="L18" s="146">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="M18" s="145">
+        <f t="shared" si="2"/>
+        <v>1.4583333333357591</v>
+      </c>
+      <c r="N18" s="193">
+        <f>(L18/M18)</f>
+        <v>0.57142857142762082</v>
       </c>
       <c r="O18" s="144">
         <f>F18-E18</f>
@@ -11635,24 +11668,24 @@
         <v>3</v>
       </c>
       <c r="S18" s="139">
-        <f>Q18</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="T18" s="144">
         <f>S18</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U18" s="140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42975</v>
       </c>
       <c r="V18" s="140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42977</v>
       </c>
       <c r="W18" s="132"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="189" t="s">
         <v>66</v>
       </c>
@@ -11684,20 +11717,20 @@
         <v>1.0833333333357587</v>
       </c>
       <c r="K19" s="143">
-        <f>IF(U19&lt;&gt;V19,(D19)+((Q19-2)*$A$5)+(IF(I19&gt;$A$3,I19-$A$3,0))+(G19),0)</f>
-        <v>2.125</v>
-      </c>
-      <c r="L19" s="146">
-        <f t="shared" si="1"/>
-        <v>1.0833333333357587</v>
-      </c>
-      <c r="M19" s="145">
         <f t="shared" si="1"/>
         <v>2.125</v>
       </c>
-      <c r="N19" s="147">
-        <f>(L19/M19)*100</f>
-        <v>50.980392156976876</v>
+      <c r="L19" s="146">
+        <f t="shared" si="2"/>
+        <v>1.0833333333357587</v>
+      </c>
+      <c r="M19" s="145">
+        <f t="shared" si="2"/>
+        <v>2.125</v>
+      </c>
+      <c r="N19" s="193">
+        <f t="shared" ref="N19:N21" si="5">(L19/M19)</f>
+        <v>0.50980392156976873</v>
       </c>
       <c r="O19" s="144">
         <f>F19-E19</f>
@@ -11716,24 +11749,184 @@
         <v>4</v>
       </c>
       <c r="S19" s="139">
-        <f>Q19</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="T19" s="144">
         <f>S19</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U19" s="140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42975</v>
       </c>
       <c r="V19" s="140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42978</v>
       </c>
     </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="189" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="190"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="158">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="128">
+        <v>42982.645833333336</v>
+      </c>
+      <c r="F20" s="128">
+        <v>42985.666666666664</v>
+      </c>
+      <c r="G20" s="158">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H20" s="149">
+        <f t="shared" ref="H20:H21" si="6">MOD(E20,1)</f>
+        <v>0.64583333333575865</v>
+      </c>
+      <c r="I20" s="149">
+        <f t="shared" ref="I20:I21" si="7">MOD(F20,1)</f>
+        <v>0.66666666666424135</v>
+      </c>
+      <c r="J20" s="143">
+        <f>IF(($A$3-H20)+(I20-$A$2)&gt;$A$4,((Q20-2)*$A$4)+(($A$3-H20)+(I20-$A$2)),($A$3-H20)+(I20-$A$2))</f>
+        <v>0.60416666666181595</v>
+      </c>
+      <c r="K20" s="143">
+        <f>IF(U20&lt;&gt;V20,(D20)+((Q20-2)*$A$5)+(IF(I20&gt;$A$3,I20-$A$3,0))+(G20)+(T20),0)</f>
+        <v>2.416666666666667</v>
+      </c>
+      <c r="L20" s="146">
+        <f t="shared" ref="L20" si="8">J20</f>
+        <v>0.60416666666181595</v>
+      </c>
+      <c r="M20" s="145">
+        <f t="shared" ref="M20" si="9">K20</f>
+        <v>2.416666666666667</v>
+      </c>
+      <c r="N20" s="193">
+        <f t="shared" si="5"/>
+        <v>0.24999999999799277</v>
+      </c>
+      <c r="O20" s="144">
+        <f>F20-E20</f>
+        <v>3.0208333333284827</v>
+      </c>
+      <c r="P20" s="142">
+        <f>F20-E20</f>
+        <v>3.0208333333284827</v>
+      </c>
+      <c r="Q20" s="141">
+        <f>(NETWORKDAYS.INTL(E20,F20,"0000011",Plan2!A2))</f>
+        <v>3</v>
+      </c>
+      <c r="R20" s="145">
+        <f>Q20</f>
+        <v>3</v>
+      </c>
+      <c r="S20" s="139">
+        <f>((_xlfn.DAYS(V20,U20)+1)-Q20)</f>
+        <v>1</v>
+      </c>
+      <c r="T20" s="144">
+        <f>S20</f>
+        <v>1</v>
+      </c>
+      <c r="U20" s="140">
+        <f t="shared" ref="U20:U21" si="10">DATE(YEAR(E20),MONTH(E20),DAY(E20))</f>
+        <v>42982</v>
+      </c>
+      <c r="V20" s="140">
+        <f t="shared" ref="V20:V21" si="11">DATE(YEAR(F20),MONTH(F20),DAY(F20))</f>
+        <v>42985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="189" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="190"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="158">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="128">
+        <v>42986.666666666664</v>
+      </c>
+      <c r="F21" s="128">
+        <v>42989.583333333336</v>
+      </c>
+      <c r="G21" s="158">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H21" s="192">
+        <f t="shared" si="6"/>
+        <v>0.66666666666424135</v>
+      </c>
+      <c r="I21" s="192">
+        <f t="shared" si="7"/>
+        <v>0.58333333333575865</v>
+      </c>
+      <c r="J21" s="143">
+        <f>IF(($A$3-H21)+(I21-$A$2)&gt;$A$4,((Q21-2)*$A$4)+(($A$3-H21)+(I21-$A$2)),($A$3-H21)+(I21-$A$2))</f>
+        <v>0.20833333333818393</v>
+      </c>
+      <c r="K21" s="143">
+        <f>IF(U21&lt;&gt;V21,(D21)+((Q21-2)*$A$5)+(IF(I21&gt;$A$3,I21-$A$3,0))+(G21)+(T21),0)</f>
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="L21" s="146">
+        <f t="shared" ref="L21" si="12">J21</f>
+        <v>0.20833333333818393</v>
+      </c>
+      <c r="M21" s="145">
+        <f t="shared" ref="M21" si="13">K21</f>
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="N21" s="193">
+        <f t="shared" si="5"/>
+        <v>7.6923076924867911E-2</v>
+      </c>
+      <c r="O21" s="144">
+        <f>F21-E21</f>
+        <v>2.9166666666715173</v>
+      </c>
+      <c r="P21" s="142">
+        <f>F21-E21</f>
+        <v>2.9166666666715173</v>
+      </c>
+      <c r="Q21" s="141">
+        <f>(NETWORKDAYS.INTL(E21,F21,"0000011",Plan2!A3))</f>
+        <v>2</v>
+      </c>
+      <c r="R21" s="145">
+        <f>Q21</f>
+        <v>2</v>
+      </c>
+      <c r="S21" s="139">
+        <f>((_xlfn.DAYS(V21,U21)+1)-Q21)</f>
+        <v>2</v>
+      </c>
+      <c r="T21" s="144">
+        <f>S21</f>
+        <v>2</v>
+      </c>
+      <c r="U21" s="140">
+        <f t="shared" ref="U21" si="14">DATE(YEAR(E21),MONTH(E21),DAY(E21))</f>
+        <v>42986</v>
+      </c>
+      <c r="V21" s="140">
+        <f t="shared" ref="V21" si="15">DATE(YEAR(F21),MONTH(F21),DAY(F21))</f>
+        <v>42989</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="G11:M15"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="A17:C17"/>
@@ -11753,19 +11946,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="130">
-        <v>42976</v>
+        <v>42983</v>
       </c>
     </row>
   </sheetData>

--- a/Banco de Dados de PADS/CALCULOS DE LEADTIME.xlsx
+++ b/Banco de Dados de PADS/CALCULOS DE LEADTIME.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7395" tabRatio="819" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7395" tabRatio="819" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PREMISSAS" sheetId="5" r:id="rId1"/>
@@ -31,8 +31,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ruhan Pablo Acosta Sanabria</author>
+  </authors>
+  <commentList>
+    <comment ref="J17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruhan Pablo Acosta Sanabria:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ANALISAR</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="72">
   <si>
     <t>DT/HR INI</t>
   </si>
@@ -1110,9 +1144,6 @@
     <t xml:space="preserve"> 24:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">CENARIO D1-D1 </t>
-  </si>
-  <si>
     <t>CENARIO C D1-D3(C2)</t>
   </si>
   <si>
@@ -1131,6 +1162,12 @@
     <t>VA
 CICLO/DESPERDICIO</t>
   </si>
+  <si>
+    <t>CENARIO D1-D1 (C1)</t>
+  </si>
+  <si>
+    <t>CEN´RIO D1-D1 (C2)</t>
+  </si>
 </sst>
 </file>
 
@@ -1144,7 +1181,7 @@
     <numFmt numFmtId="168" formatCode="[hh]&quot; h&quot;\ mm&quot; m&quot;\ "/>
     <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1309,6 +1346,34 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1621,7 +1686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1999,7 +2064,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2027,6 +2091,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2126,8 +2194,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2425,293 +2491,293 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="170"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="173"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="161"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="167"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="167"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="164"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="167"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="164"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="167"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="164"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="167"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="162"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="164"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="167"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="162"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="164"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="167"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="162"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="164"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="167"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="162"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="164"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="167"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="164"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="166"/>
+      <c r="N14" s="167"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="164"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="167"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="164"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="167"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="164"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="167"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="164"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="167"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="167"/>
     </row>
     <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="165"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2731,8 +2797,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,10 +2904,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="171"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -2875,15 +2941,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="172" t="s">
+      <c r="F7" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="174"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
     </row>
@@ -2891,13 +2957,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
     </row>
@@ -2905,13 +2971,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -2921,13 +2987,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -2937,20 +3003,20 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="181" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="85"/>
@@ -2970,7 +3036,7 @@
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -3018,7 +3084,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="87"/>
       <c r="C14" s="48"/>
       <c r="D14" s="41"/>
@@ -3036,7 +3102,7 @@
       <c r="P14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -3081,7 +3147,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="86"/>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
@@ -3099,7 +3165,7 @@
       <c r="P16" s="53"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
       </c>
@@ -3147,7 +3213,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="180"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="61"/>
       <c r="C18" s="62"/>
       <c r="D18" s="55"/>
@@ -3184,15 +3250,15 @@
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="172" t="s">
+      <c r="F20" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="174"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="177"/>
       <c r="O20" s="12"/>
       <c r="P20" s="13"/>
     </row>
@@ -3200,13 +3266,13 @@
       <c r="B21" s="3"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="177"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="180"/>
       <c r="O21" s="12"/>
       <c r="P21" s="13"/>
     </row>
@@ -3214,13 +3280,13 @@
       <c r="B22" s="3"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="177"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="180"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="12"/>
@@ -3230,13 +3296,13 @@
       <c r="B23" s="3"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="177"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="180"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="12"/>
@@ -3246,20 +3312,20 @@
       <c r="B24" s="3"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="183"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="186"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="12"/>
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="178" t="s">
+      <c r="A25" s="181" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="30"/>
@@ -3279,7 +3345,7 @@
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="179"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="39" t="s">
         <v>2</v>
       </c>
@@ -3328,7 +3394,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="179"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="41"/>
@@ -3346,7 +3412,7 @@
       <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="179"/>
+      <c r="A28" s="182"/>
       <c r="B28" s="39" t="s">
         <v>2</v>
       </c>
@@ -3392,7 +3458,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="179"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41"/>
@@ -3410,7 +3476,7 @@
       <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="179"/>
+      <c r="A30" s="182"/>
       <c r="B30" s="39" t="s">
         <v>2</v>
       </c>
@@ -3459,7 +3525,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="180"/>
+      <c r="A31" s="183"/>
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
       <c r="D31" s="55"/>
@@ -3515,7 +3581,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -3648,10 +3714,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="171"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -3687,15 +3753,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="172" t="s">
+      <c r="F7" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="174"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="91"/>
@@ -3704,13 +3770,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="91"/>
@@ -3719,13 +3785,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -3736,13 +3802,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -3753,13 +3819,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -3767,7 +3833,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="181" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="85"/>
@@ -3788,7 +3854,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -3801,7 +3867,7 @@
       <c r="E13" s="42">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F13" s="156">
+      <c r="F13" s="155">
         <f>$A$3</f>
         <v>0.79166666666666663</v>
       </c>
@@ -3819,11 +3885,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="184">
+      <c r="L13" s="187">
         <f>I13+I14</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="M13" s="185">
+      <c r="M13" s="188">
         <f>J13+J14</f>
         <v>0.70833333333333337</v>
       </c>
@@ -3836,13 +3902,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="186">
+      <c r="Q13" s="189">
         <f>L13+M13</f>
         <v>0.9375</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
       </c>
@@ -3872,8 +3938,8 @@
         <v>0.5</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="185"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -3883,10 +3949,10 @@
         <f>I14+J14</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q14" s="186"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="87"/>
       <c r="C15" s="48"/>
       <c r="D15" s="41"/>
@@ -3905,7 +3971,7 @@
       <c r="Q15" s="94"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -3936,11 +4002,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="184">
+      <c r="L16" s="187">
         <f>I16+I17</f>
         <v>0.49999999999999994</v>
       </c>
-      <c r="M16" s="185">
+      <c r="M16" s="188">
         <f>J16+J17</f>
         <v>0.70833333333333337</v>
       </c>
@@ -3953,13 +4019,13 @@
         <f>I16+J16</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q16" s="186">
+      <c r="Q16" s="189">
         <f>L16+M16</f>
         <v>1.2083333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
       </c>
@@ -3989,8 +4055,8 @@
         <v>0.5</v>
       </c>
       <c r="K17" s="41"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="185"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="188"/>
       <c r="N17" s="41" t="e">
         <f>L17/M17</f>
         <v>#DIV/0!</v>
@@ -4000,10 +4066,10 @@
         <f>I17+J17</f>
         <v>0.625</v>
       </c>
-      <c r="Q17" s="186"/>
+      <c r="Q17" s="189"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="87"/>
       <c r="C18" s="48"/>
       <c r="D18" s="41"/>
@@ -4022,7 +4088,7 @@
       <c r="Q18" s="94"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
       </c>
@@ -4053,11 +4119,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="184">
+      <c r="L19" s="187">
         <f>I19+I20</f>
         <v>0.625</v>
       </c>
-      <c r="M19" s="185">
+      <c r="M19" s="188">
         <f>J19+J20</f>
         <v>0.70833333333333337</v>
       </c>
@@ -4070,13 +4136,13 @@
         <f>I19+J19</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q19" s="186">
+      <c r="Q19" s="189">
         <f>L19+M19</f>
         <v>1.3333333333333335</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
       </c>
@@ -4106,8 +4172,8 @@
         <v>0.5</v>
       </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="185"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="188"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -4117,10 +4183,10 @@
         <f>I20+J20</f>
         <v>0.75</v>
       </c>
-      <c r="Q20" s="186"/>
+      <c r="Q20" s="189"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="180"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="61"/>
       <c r="C21" s="62"/>
       <c r="D21" s="55"/>
@@ -4159,15 +4225,15 @@
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="172" t="s">
+      <c r="F23" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="174"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="176"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
       <c r="O23" s="12"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="91"/>
@@ -4176,13 +4242,13 @@
       <c r="B24" s="3"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="177"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="180"/>
       <c r="O24" s="12"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="91"/>
@@ -4191,13 +4257,13 @@
       <c r="B25" s="3"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="176"/>
-      <c r="K25" s="176"/>
-      <c r="L25" s="177"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="180"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="12"/>
@@ -4208,13 +4274,13 @@
       <c r="B26" s="3"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="177"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="180"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="12"/>
@@ -4225,13 +4291,13 @@
       <c r="B27" s="3"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="183"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="186"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="12"/>
@@ -4239,7 +4305,7 @@
       <c r="Q27" s="91"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="181" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="30"/>
@@ -4260,7 +4326,7 @@
       <c r="Q28" s="93"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="179"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="86" t="s">
         <v>2</v>
       </c>
@@ -4291,11 +4357,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K29" s="41"/>
-      <c r="L29" s="184">
+      <c r="L29" s="187">
         <f>I29+I30</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M29" s="185">
+      <c r="M29" s="188">
         <f>J29+J30</f>
         <v>0.75000000000000011</v>
       </c>
@@ -4308,13 +4374,13 @@
         <f>I29+J29</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q29" s="186">
+      <c r="Q29" s="189">
         <f>L29+M29</f>
         <v>1.2916666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="179"/>
+      <c r="A30" s="182"/>
       <c r="B30" s="86" t="s">
         <v>2</v>
       </c>
@@ -4345,8 +4411,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K30" s="41"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="185"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="188"/>
       <c r="N30" s="41" t="e">
         <f>L30/M30</f>
         <v>#DIV/0!</v>
@@ -4356,10 +4422,10 @@
         <f>I30+J30</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q30" s="186"/>
+      <c r="Q30" s="189"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
+      <c r="A31" s="182"/>
       <c r="B31" s="87"/>
       <c r="C31" s="48"/>
       <c r="D31" s="41"/>
@@ -4378,7 +4444,7 @@
       <c r="Q31" s="94"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="179"/>
+      <c r="A32" s="182"/>
       <c r="B32" s="86" t="s">
         <v>2</v>
       </c>
@@ -4409,11 +4475,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K32" s="41"/>
-      <c r="L32" s="184">
+      <c r="L32" s="187">
         <f>I32+I33</f>
         <v>0.75</v>
       </c>
-      <c r="M32" s="185">
+      <c r="M32" s="188">
         <f>J32+J33</f>
         <v>0.79166666666666674</v>
       </c>
@@ -4426,13 +4492,13 @@
         <f>I32+J32</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q32" s="186">
+      <c r="Q32" s="189">
         <f>L32+M32</f>
         <v>1.5416666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="179"/>
+      <c r="A33" s="182"/>
       <c r="B33" s="86" t="s">
         <v>2</v>
       </c>
@@ -4463,8 +4529,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K33" s="41"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="185"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="188"/>
       <c r="N33" s="41" t="e">
         <f>L33/M33</f>
         <v>#DIV/0!</v>
@@ -4474,10 +4540,10 @@
         <f>I33+J33</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q33" s="186"/>
+      <c r="Q33" s="189"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="179"/>
+      <c r="A34" s="182"/>
       <c r="B34" s="87"/>
       <c r="C34" s="48"/>
       <c r="D34" s="41"/>
@@ -4496,7 +4562,7 @@
       <c r="Q34" s="94"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -4527,11 +4593,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K35" s="41"/>
-      <c r="L35" s="184">
+      <c r="L35" s="187">
         <f>I35+I36</f>
         <v>0.85416666666666652</v>
       </c>
-      <c r="M35" s="185">
+      <c r="M35" s="188">
         <f>J35+J36</f>
         <v>0.89583333333333337</v>
       </c>
@@ -4544,13 +4610,13 @@
         <f>I35+J35</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q35" s="186">
+      <c r="Q35" s="189">
         <f>L35+M35</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
       </c>
@@ -4581,8 +4647,8 @@
         <v>0.6875</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="185"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="188"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -4592,10 +4658,10 @@
         <f>I36+J36</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q36" s="186"/>
+      <c r="Q36" s="189"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="180"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="62"/>
       <c r="C37" s="62"/>
       <c r="D37" s="55"/>
@@ -4806,10 +4872,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="171"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -4846,15 +4912,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="172" t="s">
+      <c r="F7" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="174"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -4864,13 +4930,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -4880,13 +4946,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -4897,13 +4963,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -4914,13 +4980,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -4928,7 +4994,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="181" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="85"/>
@@ -4949,7 +5015,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -4979,11 +5045,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="187">
+      <c r="L13" s="190">
         <f>I13+I14+I15</f>
         <v>0.52083333333333326</v>
       </c>
-      <c r="M13" s="188">
+      <c r="M13" s="191">
         <f>J13+J14+J15</f>
         <v>1.4166666666666667</v>
       </c>
@@ -4996,13 +5062,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="186">
+      <c r="Q13" s="189">
         <f>L13+M13</f>
         <v>1.9375</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
       </c>
@@ -5033,8 +5099,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="191"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -5044,10 +5110,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="186"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -5077,8 +5143,8 @@
         <v>0.5</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="188"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="191"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -5088,10 +5154,10 @@
         <f>I15+J15</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q15" s="186"/>
+      <c r="Q15" s="189"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="87"/>
       <c r="C16" s="48"/>
       <c r="D16" s="41"/>
@@ -5110,7 +5176,7 @@
       <c r="Q16" s="94"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
       </c>
@@ -5140,11 +5206,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K17" s="41"/>
-      <c r="L17" s="187">
+      <c r="L17" s="190">
         <f>I17+I18+I19</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M17" s="188">
+      <c r="M17" s="191">
         <f>J17+J18+J19</f>
         <v>1.4166666666666667</v>
       </c>
@@ -5157,13 +5223,13 @@
         <f>I17+J17</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q17" s="186">
+      <c r="Q17" s="189">
         <f>L17+M17</f>
         <v>2.208333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -5194,8 +5260,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K18" s="41"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="188"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="191"/>
       <c r="N18" s="41" t="e">
         <f>L18/M18</f>
         <v>#DIV/0!</v>
@@ -5205,10 +5271,10 @@
         <f>I18+J18</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="186"/>
+      <c r="Q18" s="189"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
       </c>
@@ -5238,8 +5304,8 @@
         <v>0.5</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="188"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="191"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -5249,10 +5315,10 @@
         <f>I19+J19</f>
         <v>0.625</v>
       </c>
-      <c r="Q19" s="186"/>
+      <c r="Q19" s="189"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="87"/>
       <c r="C20" s="48"/>
       <c r="D20" s="41"/>
@@ -5271,7 +5337,7 @@
       <c r="Q20" s="94"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="179"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -5301,11 +5367,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K21" s="41"/>
-      <c r="L21" s="187">
+      <c r="L21" s="190">
         <f>I21+I22+I23</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M21" s="188">
+      <c r="M21" s="191">
         <f>J21+J22+J23</f>
         <v>1.4166666666666667</v>
       </c>
@@ -5318,13 +5384,13 @@
         <f>I21+J21</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q21" s="186">
+      <c r="Q21" s="189">
         <f>L21+M21</f>
         <v>2.333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="179"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="86" t="s">
         <v>2</v>
       </c>
@@ -5355,8 +5421,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K22" s="41"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="188"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="191"/>
       <c r="N22" s="41" t="e">
         <f>L22/M22</f>
         <v>#DIV/0!</v>
@@ -5366,10 +5432,10 @@
         <f>I22+J22</f>
         <v>1</v>
       </c>
-      <c r="Q22" s="186"/>
+      <c r="Q22" s="189"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="179"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -5399,8 +5465,8 @@
         <v>0.5</v>
       </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="187"/>
-      <c r="M23" s="188"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="191"/>
       <c r="N23" s="41" t="e">
         <f>L23/M23</f>
         <v>#DIV/0!</v>
@@ -5410,10 +5476,10 @@
         <f>I23+J23</f>
         <v>0.75</v>
       </c>
-      <c r="Q23" s="186"/>
+      <c r="Q23" s="189"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="180"/>
+      <c r="A24" s="183"/>
       <c r="B24" s="61"/>
       <c r="C24" s="62"/>
       <c r="D24" s="55"/>
@@ -5453,15 +5519,15 @@
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="172" t="s">
+      <c r="F26" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="174"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="177"/>
       <c r="M26" s="104"/>
       <c r="O26" s="12"/>
       <c r="P26" s="13"/>
@@ -5471,13 +5537,13 @@
       <c r="B27" s="3"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="177"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="180"/>
       <c r="M27" s="104"/>
       <c r="O27" s="12"/>
       <c r="P27" s="13"/>
@@ -5487,13 +5553,13 @@
       <c r="B28" s="3"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="177"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="180"/>
       <c r="M28" s="109"/>
       <c r="N28" s="8"/>
       <c r="O28" s="12"/>
@@ -5504,13 +5570,13 @@
       <c r="B29" s="3"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="177"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="180"/>
       <c r="M29" s="109"/>
       <c r="N29" s="8"/>
       <c r="O29" s="12"/>
@@ -5521,13 +5587,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="183"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="186"/>
       <c r="M30" s="109"/>
       <c r="N30" s="8"/>
       <c r="O30" s="12"/>
@@ -5535,7 +5601,7 @@
       <c r="Q30" s="91"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="178" t="s">
+      <c r="A31" s="181" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="30"/>
@@ -5556,7 +5622,7 @@
       <c r="Q31" s="93"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="179"/>
+      <c r="A32" s="182"/>
       <c r="B32" s="86" t="s">
         <v>2</v>
       </c>
@@ -5586,11 +5652,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K32" s="41"/>
-      <c r="L32" s="187">
+      <c r="L32" s="190">
         <f>I32+I33+I34</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M32" s="188">
+      <c r="M32" s="191">
         <f>J32+J33+J34</f>
         <v>1.4583333333333335</v>
       </c>
@@ -5603,13 +5669,13 @@
         <f>I32+J32</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q32" s="186">
+      <c r="Q32" s="189">
         <f>L32+M32</f>
         <v>2.291666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="179"/>
+      <c r="A33" s="182"/>
       <c r="B33" s="86" t="s">
         <v>2</v>
       </c>
@@ -5640,8 +5706,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K33" s="41"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="188"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="191"/>
       <c r="N33" s="41" t="e">
         <f>L33/M33</f>
         <v>#DIV/0!</v>
@@ -5651,10 +5717,10 @@
         <f>I33+J33</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="186"/>
+      <c r="Q33" s="189"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="179"/>
+      <c r="A34" s="182"/>
       <c r="B34" s="86" t="s">
         <v>2</v>
       </c>
@@ -5685,8 +5751,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K34" s="41"/>
-      <c r="L34" s="187"/>
-      <c r="M34" s="188"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="191"/>
       <c r="N34" s="41" t="e">
         <f>L34/M34</f>
         <v>#DIV/0!</v>
@@ -5696,10 +5762,10 @@
         <f>I34+J34</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q34" s="186"/>
+      <c r="Q34" s="189"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="87"/>
       <c r="C35" s="48"/>
       <c r="D35" s="41"/>
@@ -5718,7 +5784,7 @@
       <c r="Q35" s="94"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
       </c>
@@ -5748,11 +5814,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="187">
+      <c r="L36" s="190">
         <f>I36+I37+I38</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M36" s="188">
+      <c r="M36" s="191">
         <f>J36+J37+J38</f>
         <v>1.5</v>
       </c>
@@ -5765,13 +5831,13 @@
         <f>I36+J36</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q36" s="186">
+      <c r="Q36" s="189">
         <f>L36+M36</f>
         <v>2.5416666666666665</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="179"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
       </c>
@@ -5802,8 +5868,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K37" s="41"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="188"/>
+      <c r="L37" s="190"/>
+      <c r="M37" s="191"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -5813,10 +5879,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="186"/>
+      <c r="Q37" s="189"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="179"/>
+      <c r="A38" s="182"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -5847,8 +5913,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K38" s="41"/>
-      <c r="L38" s="187"/>
-      <c r="M38" s="188"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="191"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -5858,10 +5924,10 @@
         <f>I38+J38</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q38" s="186"/>
+      <c r="Q38" s="189"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
+      <c r="A39" s="182"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -5880,7 +5946,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="179"/>
+      <c r="A40" s="182"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -5910,11 +5976,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K40" s="41"/>
-      <c r="L40" s="187">
+      <c r="L40" s="190">
         <f>I40+I41+I42</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M40" s="188">
+      <c r="M40" s="191">
         <f>J40+J41+J42</f>
         <v>1.6041666666666667</v>
       </c>
@@ -5927,13 +5993,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="186">
+      <c r="Q40" s="189">
         <f>L40+M40</f>
         <v>2.75</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="179"/>
+      <c r="A41" s="182"/>
       <c r="B41" s="86" t="s">
         <v>2</v>
       </c>
@@ -5964,8 +6030,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K41" s="41"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="188"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="191"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -5975,10 +6041,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="186"/>
+      <c r="Q41" s="189"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="179"/>
+      <c r="A42" s="182"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
       </c>
@@ -6009,8 +6075,8 @@
         <v>0.6875</v>
       </c>
       <c r="K42" s="41"/>
-      <c r="L42" s="187"/>
-      <c r="M42" s="188"/>
+      <c r="L42" s="190"/>
+      <c r="M42" s="191"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -6020,10 +6086,10 @@
         <f>I42+J42</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q42" s="186"/>
+      <c r="Q42" s="189"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="180"/>
+      <c r="A43" s="183"/>
       <c r="B43" s="62"/>
       <c r="C43" s="62"/>
       <c r="D43" s="55"/>
@@ -6234,10 +6300,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="171"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -6274,15 +6340,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="172" t="s">
+      <c r="F7" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="174"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -6292,13 +6358,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -6308,13 +6374,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -6325,13 +6391,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -6342,13 +6408,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -6356,7 +6422,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="181" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="85"/>
@@ -6377,7 +6443,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -6407,11 +6473,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="187">
+      <c r="L13" s="190">
         <f>I13+I14+I15+I16</f>
         <v>0.89583333333333315</v>
       </c>
-      <c r="M13" s="188">
+      <c r="M13" s="191">
         <f>J13+J14+J15+J16</f>
         <v>2.125</v>
       </c>
@@ -6424,13 +6490,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="186">
+      <c r="Q13" s="189">
         <f>L13+M13</f>
         <v>3.020833333333333</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
       </c>
@@ -6461,8 +6527,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="191"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -6472,10 +6538,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="186"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -6506,8 +6572,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="188"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="191"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -6517,10 +6583,10 @@
         <f>I15+J15</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="186"/>
+      <c r="Q15" s="189"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -6550,8 +6616,8 @@
         <v>0.5</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="188"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="191"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -6561,10 +6627,10 @@
         <f>I16+J16</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q16" s="186"/>
+      <c r="Q16" s="189"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
       <c r="D17" s="41"/>
@@ -6583,7 +6649,7 @@
       <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -6613,11 +6679,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K18" s="41"/>
-      <c r="L18" s="187">
+      <c r="L18" s="190">
         <f>I18+I19+I20+I21</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="M18" s="188">
+      <c r="M18" s="191">
         <f>J18+J19+J20+J21</f>
         <v>2.125</v>
       </c>
@@ -6630,13 +6696,13 @@
         <f>I18+J18</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q18" s="186">
+      <c r="Q18" s="189">
         <f>L18+M18</f>
         <v>3.208333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
       </c>
@@ -6667,8 +6733,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="188"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="191"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -6678,10 +6744,10 @@
         <f>I19+J19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="186"/>
+      <c r="Q19" s="189"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
       </c>
@@ -6712,8 +6778,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="188"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="191"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -6723,10 +6789,10 @@
         <f>I20+J20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="186"/>
+      <c r="Q20" s="189"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="179"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -6756,8 +6822,8 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="41"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="188"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="191"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -6767,10 +6833,10 @@
         <f>I21+J21</f>
         <v>0.625</v>
       </c>
-      <c r="Q21" s="186"/>
+      <c r="Q21" s="189"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="179"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
       <c r="D22" s="41"/>
@@ -6789,7 +6855,7 @@
       <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="179"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -6819,11 +6885,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="187">
+      <c r="L23" s="190">
         <f>I23+I24+I25+I26</f>
         <v>1.208333333333333</v>
       </c>
-      <c r="M23" s="188">
+      <c r="M23" s="191">
         <f>J23+J24+J25+J26</f>
         <v>2.125</v>
       </c>
@@ -6836,13 +6902,13 @@
         <f>I23+J23</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q23" s="186">
+      <c r="Q23" s="189">
         <f>L23+M23</f>
         <v>3.333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="179"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="86" t="s">
         <v>2</v>
       </c>
@@ -6873,8 +6939,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K24" s="41"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="188"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="191"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -6884,10 +6950,10 @@
         <f>I24+J24</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="186"/>
+      <c r="Q24" s="189"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="179"/>
+      <c r="A25" s="182"/>
       <c r="B25" s="86" t="s">
         <v>2</v>
       </c>
@@ -6918,8 +6984,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K25" s="41"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="188"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="191"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -6929,10 +6995,10 @@
         <f>I25+J25</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="186"/>
+      <c r="Q25" s="189"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="179"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
       </c>
@@ -6962,8 +7028,8 @@
         <v>0.5</v>
       </c>
       <c r="K26" s="41"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="188"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="191"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -6973,10 +7039,10 @@
         <f>I26+J26</f>
         <v>0.75</v>
       </c>
-      <c r="Q26" s="186"/>
+      <c r="Q26" s="189"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="180"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
       <c r="D27" s="55"/>
@@ -7016,15 +7082,15 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="172" t="s">
+      <c r="F29" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="174"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="177"/>
       <c r="M29" s="104"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
@@ -7034,13 +7100,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="177"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
       <c r="M30" s="104"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
@@ -7050,13 +7116,13 @@
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="177"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="180"/>
       <c r="M31" s="109"/>
       <c r="N31" s="8"/>
       <c r="O31" s="12"/>
@@ -7067,13 +7133,13 @@
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="177"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
       <c r="M32" s="109"/>
       <c r="N32" s="8"/>
       <c r="O32" s="12"/>
@@ -7084,13 +7150,13 @@
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="183"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="186"/>
       <c r="M33" s="109"/>
       <c r="N33" s="8"/>
       <c r="O33" s="12"/>
@@ -7098,7 +7164,7 @@
       <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="181" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="30"/>
@@ -7119,7 +7185,7 @@
       <c r="Q34" s="93"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -7149,11 +7215,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K35" s="41"/>
-      <c r="L35" s="187">
+      <c r="L35" s="190">
         <f>I35+I36+I37+I38</f>
         <v>1.125</v>
       </c>
-      <c r="M35" s="188">
+      <c r="M35" s="191">
         <f>J35+J36+J37+J38</f>
         <v>2.166666666666667</v>
       </c>
@@ -7166,13 +7232,13 @@
         <f>I35+J35</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q35" s="186">
+      <c r="Q35" s="189">
         <f>L35+M35</f>
         <v>3.291666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
       </c>
@@ -7203,8 +7269,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="188"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -7214,10 +7280,10 @@
         <f>I36+J36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="186"/>
+      <c r="Q36" s="189"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="179"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
       </c>
@@ -7248,8 +7314,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K37" s="41"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="188"/>
+      <c r="L37" s="190"/>
+      <c r="M37" s="191"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -7259,10 +7325,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="186"/>
+      <c r="Q37" s="189"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="179"/>
+      <c r="A38" s="182"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -7293,8 +7359,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K38" s="41"/>
-      <c r="L38" s="187"/>
-      <c r="M38" s="188"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="191"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -7304,10 +7370,10 @@
         <f>I38+J38</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q38" s="186"/>
+      <c r="Q38" s="189"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
+      <c r="A39" s="182"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -7326,7 +7392,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="179"/>
+      <c r="A40" s="182"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -7356,11 +7422,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K40" s="41"/>
-      <c r="L40" s="187">
+      <c r="L40" s="190">
         <f>I40+I41+I42+I43</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="M40" s="188">
+      <c r="M40" s="191">
         <f>J40+J41+J42+J43</f>
         <v>2.2083333333333335</v>
       </c>
@@ -7373,13 +7439,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="186">
+      <c r="Q40" s="189">
         <f>L40+M40</f>
         <v>3.5416666666666665</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="179"/>
+      <c r="A41" s="182"/>
       <c r="B41" s="86" t="s">
         <v>2</v>
       </c>
@@ -7410,8 +7476,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K41" s="41"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="188"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="191"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -7421,10 +7487,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="186"/>
+      <c r="Q41" s="189"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="179"/>
+      <c r="A42" s="182"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
       </c>
@@ -7455,8 +7521,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K42" s="41"/>
-      <c r="L42" s="187"/>
-      <c r="M42" s="188"/>
+      <c r="L42" s="190"/>
+      <c r="M42" s="191"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -7466,10 +7532,10 @@
         <f>I42+J42</f>
         <v>1</v>
       </c>
-      <c r="Q42" s="186"/>
+      <c r="Q42" s="189"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="179"/>
+      <c r="A43" s="182"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
       </c>
@@ -7500,8 +7566,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K43" s="41"/>
-      <c r="L43" s="187"/>
-      <c r="M43" s="188"/>
+      <c r="L43" s="190"/>
+      <c r="M43" s="191"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -7511,10 +7577,10 @@
         <f>I43+J43</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q43" s="186"/>
+      <c r="Q43" s="189"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
+      <c r="A44" s="182"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
       <c r="D44" s="41"/>
@@ -7533,7 +7599,7 @@
       <c r="Q44" s="94"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="179"/>
+      <c r="A45" s="182"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
       </c>
@@ -7563,11 +7629,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K45" s="41"/>
-      <c r="L45" s="187">
+      <c r="L45" s="190">
         <f>I45+I46+I47+I48</f>
         <v>1.4374999999999998</v>
       </c>
-      <c r="M45" s="188">
+      <c r="M45" s="191">
         <f>J45+J46+J47+J48</f>
         <v>2.3125</v>
       </c>
@@ -7580,13 +7646,13 @@
         <f>I45+J45</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q45" s="186">
+      <c r="Q45" s="189">
         <f>L45+M45</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="179"/>
+      <c r="A46" s="182"/>
       <c r="B46" s="86" t="s">
         <v>2</v>
       </c>
@@ -7617,8 +7683,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K46" s="41"/>
-      <c r="L46" s="187"/>
-      <c r="M46" s="188"/>
+      <c r="L46" s="190"/>
+      <c r="M46" s="191"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -7628,10 +7694,10 @@
         <f>I46+J46</f>
         <v>1</v>
       </c>
-      <c r="Q46" s="186"/>
+      <c r="Q46" s="189"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="179"/>
+      <c r="A47" s="182"/>
       <c r="B47" s="86" t="s">
         <v>2</v>
       </c>
@@ -7662,8 +7728,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K47" s="41"/>
-      <c r="L47" s="187"/>
-      <c r="M47" s="188"/>
+      <c r="L47" s="190"/>
+      <c r="M47" s="191"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -7673,10 +7739,10 @@
         <f>I47+J47</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="186"/>
+      <c r="Q47" s="189"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
+      <c r="A48" s="182"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
       </c>
@@ -7707,8 +7773,8 @@
         <v>0.6875</v>
       </c>
       <c r="K48" s="41"/>
-      <c r="L48" s="187"/>
-      <c r="M48" s="188"/>
+      <c r="L48" s="190"/>
+      <c r="M48" s="191"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -7718,10 +7784,10 @@
         <f>I48+J48</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q48" s="186"/>
+      <c r="Q48" s="189"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="180"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="55"/>
@@ -7797,7 +7863,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -7938,10 +8004,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="171"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -7978,15 +8044,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="172" t="s">
+      <c r="F7" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="174"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -7996,13 +8062,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -8012,13 +8078,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -8029,13 +8095,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -8046,13 +8112,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -8060,7 +8126,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="181" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="85"/>
@@ -8081,7 +8147,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -8111,11 +8177,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="187">
+      <c r="L13" s="190">
         <f>I13+I14+I15+I16</f>
         <v>0.60416666666666652</v>
       </c>
-      <c r="M13" s="188">
+      <c r="M13" s="191">
         <f>J13+J14+J15+J16</f>
         <v>2.416666666666667</v>
       </c>
@@ -8128,13 +8194,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="186">
+      <c r="Q13" s="189">
         <f>L13+M13</f>
         <v>3.0208333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="118" t="s">
         <v>2</v>
       </c>
@@ -8165,8 +8231,8 @@
         <v>1</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="191"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -8176,10 +8242,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="186"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -8210,8 +8276,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="188"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="191"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -8221,10 +8287,10 @@
         <f>I15+J15</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="186"/>
+      <c r="Q15" s="189"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -8254,8 +8320,8 @@
         <v>0.5</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="188"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="191"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -8265,10 +8331,10 @@
         <f>I16+J16</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q16" s="186"/>
+      <c r="Q16" s="189"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
       <c r="D17" s="41"/>
@@ -8287,7 +8353,7 @@
       <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -8317,11 +8383,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K18" s="41"/>
-      <c r="L18" s="187">
+      <c r="L18" s="190">
         <f>I18+I19+I20+I21</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M18" s="188">
+      <c r="M18" s="191">
         <f>J18+J19+J20+J21</f>
         <v>2.416666666666667</v>
       </c>
@@ -8334,13 +8400,13 @@
         <f>I18+J18</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q18" s="186">
+      <c r="Q18" s="189">
         <f>L18+M18</f>
         <v>3.2083333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="118" t="s">
         <v>2</v>
       </c>
@@ -8371,8 +8437,8 @@
         <v>1</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="188"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="191"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -8382,10 +8448,10 @@
         <f>I19+J19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="186"/>
+      <c r="Q19" s="189"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
       </c>
@@ -8416,8 +8482,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="188"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="191"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -8427,10 +8493,10 @@
         <f>I20+J20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="186"/>
+      <c r="Q20" s="189"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="179"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -8460,8 +8526,8 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="41"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="188"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="191"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -8471,10 +8537,10 @@
         <f>I21+J21</f>
         <v>0.625</v>
       </c>
-      <c r="Q21" s="186"/>
+      <c r="Q21" s="189"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="179"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
       <c r="D22" s="41"/>
@@ -8493,7 +8559,7 @@
       <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="179"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -8523,11 +8589,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="187">
+      <c r="L23" s="190">
         <f>I23+I24+I25+I26</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M23" s="188">
+      <c r="M23" s="191">
         <f>J23+J24+J25+J26</f>
         <v>2.416666666666667</v>
       </c>
@@ -8540,13 +8606,13 @@
         <f>I23+J23</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q23" s="186">
+      <c r="Q23" s="189">
         <f>L23+M23</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="179"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="118" t="s">
         <v>2</v>
       </c>
@@ -8577,8 +8643,8 @@
         <v>1</v>
       </c>
       <c r="K24" s="41"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="188"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="191"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -8588,10 +8654,10 @@
         <f>I24+J24</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="186"/>
+      <c r="Q24" s="189"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="179"/>
+      <c r="A25" s="182"/>
       <c r="B25" s="86" t="s">
         <v>2</v>
       </c>
@@ -8622,8 +8688,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K25" s="41"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="188"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="191"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -8633,10 +8699,10 @@
         <f>I25+J25</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="186"/>
+      <c r="Q25" s="189"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="179"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
       </c>
@@ -8666,8 +8732,8 @@
         <v>0.5</v>
       </c>
       <c r="K26" s="41"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="188"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="191"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -8677,10 +8743,10 @@
         <f>I26+J26</f>
         <v>0.75</v>
       </c>
-      <c r="Q26" s="186"/>
+      <c r="Q26" s="189"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="180"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
       <c r="D27" s="55"/>
@@ -8720,15 +8786,15 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="172" t="s">
+      <c r="F29" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="174"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="177"/>
       <c r="M29" s="104"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
@@ -8738,13 +8804,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="177"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
       <c r="M30" s="104"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
@@ -8754,13 +8820,13 @@
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="177"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="180"/>
       <c r="M31" s="109"/>
       <c r="N31" s="8"/>
       <c r="O31" s="12"/>
@@ -8771,13 +8837,13 @@
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="177"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
       <c r="M32" s="109"/>
       <c r="N32" s="8"/>
       <c r="O32" s="12"/>
@@ -8788,13 +8854,13 @@
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="183"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="186"/>
       <c r="M33" s="109"/>
       <c r="N33" s="8"/>
       <c r="O33" s="12"/>
@@ -8802,7 +8868,7 @@
       <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="181" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="30"/>
@@ -8823,7 +8889,7 @@
       <c r="Q34" s="93"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -8853,11 +8919,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K35" s="41"/>
-      <c r="L35" s="187">
+      <c r="L35" s="190">
         <f>I35+I36+I37+I38</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M35" s="188">
+      <c r="M35" s="191">
         <f>J35+J36+J37+J38</f>
         <v>2.4583333333333339</v>
       </c>
@@ -8870,13 +8936,13 @@
         <f>I35+J35</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q35" s="186">
+      <c r="Q35" s="189">
         <f>L35+M35</f>
         <v>3.291666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="118" t="s">
         <v>2</v>
       </c>
@@ -8907,8 +8973,8 @@
         <v>1</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="188"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -8918,10 +8984,10 @@
         <f>I36+J36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="186"/>
+      <c r="Q36" s="189"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="179"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
       </c>
@@ -8952,8 +9018,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K37" s="41"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="188"/>
+      <c r="L37" s="190"/>
+      <c r="M37" s="191"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -8963,10 +9029,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="186"/>
+      <c r="Q37" s="189"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="179"/>
+      <c r="A38" s="182"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -8997,8 +9063,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K38" s="41"/>
-      <c r="L38" s="187"/>
-      <c r="M38" s="188"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="191"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -9008,10 +9074,10 @@
         <f>I38+J38</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q38" s="186"/>
+      <c r="Q38" s="189"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
+      <c r="A39" s="182"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -9030,7 +9096,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="179"/>
+      <c r="A40" s="182"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -9060,11 +9126,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K40" s="41"/>
-      <c r="L40" s="187">
+      <c r="L40" s="190">
         <f>I40+I41+I42+I43</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M40" s="188">
+      <c r="M40" s="191">
         <f>J40+J41+J42+J43</f>
         <v>2.5000000000000004</v>
       </c>
@@ -9077,13 +9143,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="186">
+      <c r="Q40" s="189">
         <f>L40+M40</f>
         <v>3.541666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="179"/>
+      <c r="A41" s="182"/>
       <c r="B41" s="118" t="s">
         <v>2</v>
       </c>
@@ -9114,8 +9180,8 @@
         <v>1</v>
       </c>
       <c r="K41" s="41"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="188"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="191"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -9125,10 +9191,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="186"/>
+      <c r="Q41" s="189"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="179"/>
+      <c r="A42" s="182"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
       </c>
@@ -9159,8 +9225,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K42" s="41"/>
-      <c r="L42" s="187"/>
-      <c r="M42" s="188"/>
+      <c r="L42" s="190"/>
+      <c r="M42" s="191"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -9170,10 +9236,10 @@
         <f>I42+J42</f>
         <v>1</v>
       </c>
-      <c r="Q42" s="186"/>
+      <c r="Q42" s="189"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="179"/>
+      <c r="A43" s="182"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
       </c>
@@ -9204,8 +9270,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K43" s="41"/>
-      <c r="L43" s="187"/>
-      <c r="M43" s="188"/>
+      <c r="L43" s="190"/>
+      <c r="M43" s="191"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -9215,10 +9281,10 @@
         <f>I43+J43</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q43" s="186"/>
+      <c r="Q43" s="189"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
+      <c r="A44" s="182"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
       <c r="D44" s="41"/>
@@ -9237,7 +9303,7 @@
       <c r="Q44" s="94"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="179"/>
+      <c r="A45" s="182"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
       </c>
@@ -9267,11 +9333,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K45" s="41"/>
-      <c r="L45" s="187">
+      <c r="L45" s="190">
         <f>I45+I46+I47+I48</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M45" s="188">
+      <c r="M45" s="191">
         <f>J45+J46+J47+J48</f>
         <v>2.604166666666667</v>
       </c>
@@ -9284,13 +9350,13 @@
         <f>I45+J45</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q45" s="186">
+      <c r="Q45" s="189">
         <f>L45+M45</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="179"/>
+      <c r="A46" s="182"/>
       <c r="B46" s="118" t="s">
         <v>2</v>
       </c>
@@ -9321,8 +9387,8 @@
         <v>1</v>
       </c>
       <c r="K46" s="41"/>
-      <c r="L46" s="187"/>
-      <c r="M46" s="188"/>
+      <c r="L46" s="190"/>
+      <c r="M46" s="191"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -9332,10 +9398,10 @@
         <f>I46+J46</f>
         <v>1</v>
       </c>
-      <c r="Q46" s="186"/>
+      <c r="Q46" s="189"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="179"/>
+      <c r="A47" s="182"/>
       <c r="B47" s="86" t="s">
         <v>2</v>
       </c>
@@ -9366,8 +9432,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K47" s="41"/>
-      <c r="L47" s="187"/>
-      <c r="M47" s="188"/>
+      <c r="L47" s="190"/>
+      <c r="M47" s="191"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -9377,10 +9443,10 @@
         <f>I47+J47</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="186"/>
+      <c r="Q47" s="189"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
+      <c r="A48" s="182"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
       </c>
@@ -9411,8 +9477,8 @@
         <v>0.6875</v>
       </c>
       <c r="K48" s="41"/>
-      <c r="L48" s="187"/>
-      <c r="M48" s="188"/>
+      <c r="L48" s="190"/>
+      <c r="M48" s="191"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -9422,10 +9488,10 @@
         <f>I48+J48</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q48" s="186"/>
+      <c r="Q48" s="189"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="180"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="55"/>
@@ -9646,10 +9712,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="171"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -9686,15 +9752,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="172" t="s">
+      <c r="F7" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="174"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -9704,13 +9770,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -9720,13 +9786,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -9737,13 +9803,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -9754,13 +9820,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -9768,7 +9834,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="181" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="85"/>
@@ -9789,7 +9855,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -9819,11 +9885,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="187">
+      <c r="L13" s="190">
         <f>I13+I14+I15+I16</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="M13" s="188">
+      <c r="M13" s="191">
         <f>J13+J14+J15+J16</f>
         <v>2.7083333333333335</v>
       </c>
@@ -9836,7 +9902,7 @@
         <f>I13+J13</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="Q13" s="186">
+      <c r="Q13" s="189">
         <f>L13+M13</f>
         <v>2.916666666666667</v>
       </c>
@@ -9848,7 +9914,7 @@
       <c r="Y13" s="131"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="118" t="s">
         <v>2</v>
       </c>
@@ -9879,8 +9945,8 @@
         <v>1</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="191"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -9890,10 +9956,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="186"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="118" t="s">
         <v>2</v>
       </c>
@@ -9924,8 +9990,8 @@
         <v>1</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="188"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="191"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -9935,10 +10001,10 @@
         <f>I15+J15</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="186"/>
+      <c r="Q15" s="189"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -9968,8 +10034,8 @@
         <v>0.5</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="188"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="191"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -9979,10 +10045,10 @@
         <f>I16+J16</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q16" s="186"/>
+      <c r="Q16" s="189"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
       <c r="D17" s="41"/>
@@ -10001,7 +10067,7 @@
       <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -10031,11 +10097,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K18" s="41"/>
-      <c r="L18" s="187">
+      <c r="L18" s="190">
         <f>I18+I19+I20+I21</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M18" s="188">
+      <c r="M18" s="191">
         <f>J18+J19+J20+J21</f>
         <v>2.416666666666667</v>
       </c>
@@ -10048,13 +10114,13 @@
         <f>I18+J18</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q18" s="186">
+      <c r="Q18" s="189">
         <f>L18+M18</f>
         <v>3.2083333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="118" t="s">
         <v>2</v>
       </c>
@@ -10085,8 +10151,8 @@
         <v>1</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="188"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="191"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -10096,10 +10162,10 @@
         <f>I19+J19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="186"/>
+      <c r="Q19" s="189"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="118" t="s">
         <v>2</v>
       </c>
@@ -10130,8 +10196,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="188"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="191"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -10141,10 +10207,10 @@
         <f>I20+J20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="186"/>
+      <c r="Q20" s="189"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="179"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -10174,8 +10240,8 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="41"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="188"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="191"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -10185,10 +10251,10 @@
         <f>I21+J21</f>
         <v>0.625</v>
       </c>
-      <c r="Q21" s="186"/>
+      <c r="Q21" s="189"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="179"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
       <c r="D22" s="41"/>
@@ -10207,7 +10273,7 @@
       <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="179"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -10237,11 +10303,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="187">
+      <c r="L23" s="190">
         <f>I23+I24+I25+I26</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M23" s="188">
+      <c r="M23" s="191">
         <f>J23+J24+J25+J26</f>
         <v>2.416666666666667</v>
       </c>
@@ -10254,13 +10320,13 @@
         <f>I23+J23</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q23" s="186">
+      <c r="Q23" s="189">
         <f>L23+M23</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="179"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="118" t="s">
         <v>2</v>
       </c>
@@ -10291,8 +10357,8 @@
         <v>1</v>
       </c>
       <c r="K24" s="41"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="188"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="191"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -10302,10 +10368,10 @@
         <f>I24+J24</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="186"/>
+      <c r="Q24" s="189"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="179"/>
+      <c r="A25" s="182"/>
       <c r="B25" s="118" t="s">
         <v>2</v>
       </c>
@@ -10336,8 +10402,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K25" s="41"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="188"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="191"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -10347,10 +10413,10 @@
         <f>I25+J25</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="186"/>
+      <c r="Q25" s="189"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="179"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
       </c>
@@ -10380,8 +10446,8 @@
         <v>0.5</v>
       </c>
       <c r="K26" s="41"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="188"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="191"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -10391,10 +10457,10 @@
         <f>I26+J26</f>
         <v>0.75</v>
       </c>
-      <c r="Q26" s="186"/>
+      <c r="Q26" s="189"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="180"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
       <c r="D27" s="55"/>
@@ -10434,15 +10500,15 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="172" t="s">
+      <c r="F29" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="174"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="177"/>
       <c r="M29" s="104"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
@@ -10452,13 +10518,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="177"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
       <c r="M30" s="104"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
@@ -10468,13 +10534,13 @@
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="177"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="180"/>
       <c r="M31" s="109"/>
       <c r="N31" s="8"/>
       <c r="O31" s="12"/>
@@ -10485,13 +10551,13 @@
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="177"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
       <c r="M32" s="109"/>
       <c r="N32" s="8"/>
       <c r="O32" s="12"/>
@@ -10502,13 +10568,13 @@
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="183"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="186"/>
       <c r="M33" s="109"/>
       <c r="N33" s="8"/>
       <c r="O33" s="12"/>
@@ -10516,7 +10582,7 @@
       <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="181" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="30"/>
@@ -10537,7 +10603,7 @@
       <c r="Q34" s="93"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -10567,11 +10633,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K35" s="41"/>
-      <c r="L35" s="187">
+      <c r="L35" s="190">
         <f>I35+I36+I37+I38</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M35" s="188">
+      <c r="M35" s="191">
         <f>J35+J36+J37+J38</f>
         <v>2.4583333333333339</v>
       </c>
@@ -10584,13 +10650,13 @@
         <f>I35+J35</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q35" s="186">
+      <c r="Q35" s="189">
         <f>L35+M35</f>
         <v>3.291666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="118" t="s">
         <v>2</v>
       </c>
@@ -10621,8 +10687,8 @@
         <v>1</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="188"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -10632,10 +10698,10 @@
         <f>I36+J36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="186"/>
+      <c r="Q36" s="189"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="179"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="118" t="s">
         <v>2</v>
       </c>
@@ -10666,8 +10732,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K37" s="41"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="188"/>
+      <c r="L37" s="190"/>
+      <c r="M37" s="191"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -10677,10 +10743,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="186"/>
+      <c r="Q37" s="189"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="179"/>
+      <c r="A38" s="182"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -10711,8 +10777,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K38" s="41"/>
-      <c r="L38" s="187"/>
-      <c r="M38" s="188"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="191"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -10722,10 +10788,10 @@
         <f>I38+J38</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q38" s="186"/>
+      <c r="Q38" s="189"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
+      <c r="A39" s="182"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -10744,7 +10810,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="179"/>
+      <c r="A40" s="182"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -10774,11 +10840,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K40" s="41"/>
-      <c r="L40" s="187">
+      <c r="L40" s="190">
         <f>I40+I41+I42+I43</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M40" s="188">
+      <c r="M40" s="191">
         <f>J40+J41+J42+J43</f>
         <v>2.5000000000000004</v>
       </c>
@@ -10791,13 +10857,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="186">
+      <c r="Q40" s="189">
         <f>L40+M40</f>
         <v>3.541666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="179"/>
+      <c r="A41" s="182"/>
       <c r="B41" s="118" t="s">
         <v>2</v>
       </c>
@@ -10828,8 +10894,8 @@
         <v>1</v>
       </c>
       <c r="K41" s="41"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="188"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="191"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -10839,10 +10905,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="186"/>
+      <c r="Q41" s="189"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="179"/>
+      <c r="A42" s="182"/>
       <c r="B42" s="118" t="s">
         <v>2</v>
       </c>
@@ -10873,8 +10939,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K42" s="41"/>
-      <c r="L42" s="187"/>
-      <c r="M42" s="188"/>
+      <c r="L42" s="190"/>
+      <c r="M42" s="191"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -10884,10 +10950,10 @@
         <f>I42+J42</f>
         <v>1</v>
       </c>
-      <c r="Q42" s="186"/>
+      <c r="Q42" s="189"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="179"/>
+      <c r="A43" s="182"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
       </c>
@@ -10918,8 +10984,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K43" s="41"/>
-      <c r="L43" s="187"/>
-      <c r="M43" s="188"/>
+      <c r="L43" s="190"/>
+      <c r="M43" s="191"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -10929,10 +10995,10 @@
         <f>I43+J43</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q43" s="186"/>
+      <c r="Q43" s="189"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
+      <c r="A44" s="182"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
       <c r="D44" s="41"/>
@@ -10951,7 +11017,7 @@
       <c r="Q44" s="94"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="179"/>
+      <c r="A45" s="182"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
       </c>
@@ -10981,11 +11047,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K45" s="41"/>
-      <c r="L45" s="187">
+      <c r="L45" s="190">
         <f>I45+I46+I47+I48</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M45" s="188">
+      <c r="M45" s="191">
         <f>J45+J46+J47+J48</f>
         <v>2.604166666666667</v>
       </c>
@@ -10998,13 +11064,13 @@
         <f>I45+J45</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q45" s="186">
+      <c r="Q45" s="189">
         <f>L45+M45</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="179"/>
+      <c r="A46" s="182"/>
       <c r="B46" s="118" t="s">
         <v>2</v>
       </c>
@@ -11035,8 +11101,8 @@
         <v>1</v>
       </c>
       <c r="K46" s="41"/>
-      <c r="L46" s="187"/>
-      <c r="M46" s="188"/>
+      <c r="L46" s="190"/>
+      <c r="M46" s="191"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -11046,10 +11112,10 @@
         <f>I46+J46</f>
         <v>1</v>
       </c>
-      <c r="Q46" s="186"/>
+      <c r="Q46" s="189"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="179"/>
+      <c r="A47" s="182"/>
       <c r="B47" s="118" t="s">
         <v>2</v>
       </c>
@@ -11080,8 +11146,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K47" s="41"/>
-      <c r="L47" s="187"/>
-      <c r="M47" s="188"/>
+      <c r="L47" s="190"/>
+      <c r="M47" s="191"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -11091,10 +11157,10 @@
         <f>I47+J47</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="186"/>
+      <c r="Q47" s="189"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
+      <c r="A48" s="182"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
       </c>
@@ -11125,8 +11191,8 @@
         <v>0.6875</v>
       </c>
       <c r="K48" s="41"/>
-      <c r="L48" s="187"/>
-      <c r="M48" s="188"/>
+      <c r="L48" s="190"/>
+      <c r="M48" s="191"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -11136,10 +11202,10 @@
         <f>I48+J48</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q48" s="186"/>
+      <c r="Q48" s="189"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="180"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="55"/>
@@ -11208,12 +11274,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11223,11 +11289,11 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.5703125" customWidth="1"/>
@@ -11285,7 +11351,7 @@
       <c r="L2" s="88">
         <v>0.99930555555555556</v>
       </c>
-      <c r="M2" s="150"/>
+      <c r="M2" s="149"/>
       <c r="N2" s="2"/>
       <c r="O2" s="13"/>
       <c r="P2" s="91"/>
@@ -11347,7 +11413,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -11365,7 +11431,7 @@
       <c r="P5" s="91"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="156" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -11387,10 +11453,10 @@
       <c r="P6" s="91"/>
     </row>
     <row r="7" spans="1:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="73" t="s">
         <v>0</v>
       </c>
@@ -11413,7 +11479,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O7" s="90" t="s">
         <v>22</v>
@@ -11423,71 +11489,71 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="151"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="153" t="s">
+      <c r="A8" s="150"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="171" t="s">
+      <c r="E8" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="171"/>
+      <c r="F8" s="174"/>
       <c r="G8" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G11" s="172" t="s">
+      <c r="G11" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="174"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="177"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G12" s="175"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="176"/>
-      <c r="M12" s="177"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G13" s="175"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="177"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="180"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G14" s="175"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="177"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="180"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G15" s="175"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="177"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="180"/>
     </row>
     <row r="16" spans="1:25" s="133" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="134"/>
@@ -11497,7 +11563,7 @@
       <c r="I16" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="Q16" s="155" t="s">
+      <c r="Q16" s="154" t="s">
         <v>54</v>
       </c>
       <c r="R16" s="135"/>
@@ -11522,60 +11588,60 @@
       <c r="Y16" s="135"/>
     </row>
     <row r="17" spans="1:24" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="189" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="190"/>
-      <c r="C17" s="191"/>
+      <c r="A17" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="193"/>
+      <c r="C17" s="194"/>
       <c r="D17" s="138">
         <f>G2</f>
         <v>0.5</v>
       </c>
       <c r="E17" s="137">
-        <v>42975.645833333336</v>
+        <v>42975.416666666664</v>
       </c>
       <c r="F17" s="137">
-        <v>42975.6875</v>
+        <v>42975.541666666664</v>
       </c>
       <c r="G17" s="138">
         <f>$G$3</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="H17" s="149">
+      <c r="H17" s="148">
         <f t="shared" ref="H17:I19" si="0">MOD(E17,1)</f>
-        <v>0.64583333333575865</v>
-      </c>
-      <c r="I17" s="149">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="I17" s="148">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
-      </c>
-      <c r="J17" s="143">
-        <f>IF(($A$3-H17)+(I17-$A$2)&gt;$A$4,((Q17-2)*$A$4)+(($A$3-H17)+(I17-$A$2)),($A$3-H17)+(I17-$A$2))</f>
-        <v>4.1666666664241292E-2</v>
+        <v>0.54166666666424135</v>
+      </c>
+      <c r="J17" s="161">
+        <f>((Q17-2)*$A$4)+(($A$3-H17)+(I17-$A$2))</f>
+        <v>0.12499999999999994</v>
       </c>
       <c r="K17" s="143">
-        <f t="shared" ref="K17:K19" si="1">IF(U17&lt;&gt;V17,(D17)+((Q17-2)*$A$5)+(IF(I17&gt;$A$3,I17-$A$3,0))+(G17)+(T17),0)</f>
-        <v>0</v>
+        <f>IF(U17&lt;&gt;V17,(D17)+((Q17-2)*$A$5)+(IF(I17&gt;$A$3,I17-$A$3,0))+(G17)+(T17),IF(I17&gt;$A$3,I17-A3,IF(H17&lt;$A$2,A2-H17,0)))</f>
+        <v>8.3333333335758653E-2</v>
       </c>
       <c r="L17" s="146">
-        <f t="shared" ref="L17:M19" si="2">J17</f>
-        <v>4.1666666664241292E-2</v>
+        <f t="shared" ref="L17:M19" si="1">J17</f>
+        <v>0.12499999999999994</v>
       </c>
       <c r="M17" s="145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="147" t="str">
-        <f>IF(M17&lt;&gt;0,(L17/M17)*100,"100%")</f>
-        <v>100%</v>
+        <f t="shared" si="1"/>
+        <v>8.3333333335758653E-2</v>
+      </c>
+      <c r="N17" s="159">
+        <f>J17/O17 *100</f>
+        <v>99.999999999999957</v>
       </c>
       <c r="O17" s="144">
         <f>F17-E17</f>
-        <v>4.1666666664241347E-2</v>
+        <v>0.125</v>
       </c>
       <c r="P17" s="142">
         <f>F17-E17</f>
-        <v>4.1666666664241347E-2</v>
+        <v>0.125</v>
       </c>
       <c r="Q17" s="141">
         <f>(NETWORKDAYS.INTL(E17,F17,"0000011",Plan2!A2))</f>
@@ -11586,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="139">
-        <f t="shared" ref="S17:S20" si="3">((_xlfn.DAYS(V17,U17)+1)-Q17)</f>
+        <f t="shared" ref="S17:S19" si="2">((_xlfn.DAYS(V17,U17)+1)-Q17)</f>
         <v>0</v>
       </c>
       <c r="T17" s="144">
@@ -11594,22 +11660,22 @@
         <v>0</v>
       </c>
       <c r="U17" s="140">
-        <f t="shared" ref="U17:V19" si="4">DATE(YEAR(E17),MONTH(E17),DAY(E17))</f>
+        <f t="shared" ref="U17:V19" si="3">DATE(YEAR(E17),MONTH(E17),DAY(E17))</f>
         <v>42975</v>
       </c>
       <c r="V17" s="140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42975</v>
       </c>
       <c r="W17" s="140"/>
       <c r="X17" s="140"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="189" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="190"/>
-      <c r="C18" s="191"/>
+      <c r="A18" s="192" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="193"/>
+      <c r="C18" s="194"/>
       <c r="D18" s="138">
         <v>0.5</v>
       </c>
@@ -11623,11 +11689,11 @@
         <f>$G$3</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="H18" s="149">
+      <c r="H18" s="148">
         <f t="shared" si="0"/>
         <v>0.58333333333575865</v>
       </c>
-      <c r="I18" s="149">
+      <c r="I18" s="148">
         <f t="shared" si="0"/>
         <v>0.83333333333575865</v>
       </c>
@@ -11636,20 +11702,19 @@
         <v>0.83333333333333326</v>
       </c>
       <c r="K18" s="143">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L18" s="146">
         <f t="shared" si="1"/>
-        <v>1.4583333333357591</v>
-      </c>
-      <c r="L18" s="146">
-        <f t="shared" si="2"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="M18" s="145">
-        <f t="shared" si="2"/>
-        <v>1.4583333333357591</v>
-      </c>
-      <c r="N18" s="193">
-        <f>(L18/M18)</f>
-        <v>0.57142857142762082</v>
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N18" s="159">
+        <f>J18/O18 *100</f>
+        <v>37.037037037037038</v>
       </c>
       <c r="O18" s="144">
         <f>F18-E18</f>
@@ -11668,7 +11733,7 @@
         <v>3</v>
       </c>
       <c r="S18" s="139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T18" s="144">
@@ -11676,22 +11741,22 @@
         <v>0</v>
       </c>
       <c r="U18" s="140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42975</v>
       </c>
       <c r="V18" s="140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42977</v>
       </c>
       <c r="W18" s="132"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="189" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="190"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="158">
+      <c r="A19" s="192" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="193"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="157">
         <v>0.5</v>
       </c>
       <c r="E19" s="128">
@@ -11704,11 +11769,11 @@
         <f>$G$3</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="H19" s="149">
+      <c r="H19" s="148">
         <f t="shared" si="0"/>
         <v>0.41666666666424135</v>
       </c>
-      <c r="I19" s="149">
+      <c r="I19" s="148">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
@@ -11717,20 +11782,20 @@
         <v>1.0833333333357587</v>
       </c>
       <c r="K19" s="143">
+        <f t="shared" ref="K19:K21" si="4">IF(U19&lt;&gt;V19,(D19)+((Q19-2)*$A$5)+(IF(I19&gt;$A$3,I19-$A$3,0))+(G19)+(T19),IF(I19&gt;$A$3,I19-A5,0))</f>
+        <v>2.125</v>
+      </c>
+      <c r="L19" s="146">
+        <f t="shared" si="1"/>
+        <v>1.0833333333357587</v>
+      </c>
+      <c r="M19" s="145">
         <f t="shared" si="1"/>
         <v>2.125</v>
       </c>
-      <c r="L19" s="146">
-        <f t="shared" si="2"/>
-        <v>1.0833333333357587</v>
-      </c>
-      <c r="M19" s="145">
-        <f t="shared" si="2"/>
-        <v>2.125</v>
-      </c>
-      <c r="N19" s="193">
-        <f t="shared" ref="N19:N21" si="5">(L19/M19)</f>
-        <v>0.50980392156976873</v>
+      <c r="N19" s="159">
+        <f t="shared" ref="N19:N21" si="5">J19/O19 *100</f>
+        <v>33.76623376628384</v>
       </c>
       <c r="O19" s="144">
         <f>F19-E19</f>
@@ -11749,7 +11814,7 @@
         <v>4</v>
       </c>
       <c r="S19" s="139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19" s="144">
@@ -11757,21 +11822,21 @@
         <v>0</v>
       </c>
       <c r="U19" s="140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42975</v>
       </c>
       <c r="V19" s="140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42978</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="189" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="190"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="158">
+      <c r="A20" s="192" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="193"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="157">
         <v>0.5</v>
       </c>
       <c r="E20" s="128">
@@ -11780,14 +11845,14 @@
       <c r="F20" s="128">
         <v>42985.666666666664</v>
       </c>
-      <c r="G20" s="158">
+      <c r="G20" s="157">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H20" s="149">
+      <c r="H20" s="148">
         <f t="shared" ref="H20:H21" si="6">MOD(E20,1)</f>
         <v>0.64583333333575865</v>
       </c>
-      <c r="I20" s="149">
+      <c r="I20" s="148">
         <f t="shared" ref="I20:I21" si="7">MOD(F20,1)</f>
         <v>0.66666666666424135</v>
       </c>
@@ -11796,7 +11861,7 @@
         <v>0.60416666666181595</v>
       </c>
       <c r="K20" s="143">
-        <f>IF(U20&lt;&gt;V20,(D20)+((Q20-2)*$A$5)+(IF(I20&gt;$A$3,I20-$A$3,0))+(G20)+(T20),0)</f>
+        <f t="shared" si="4"/>
         <v>2.416666666666667</v>
       </c>
       <c r="L20" s="146">
@@ -11807,9 +11872,9 @@
         <f t="shared" ref="M20" si="9">K20</f>
         <v>2.416666666666667</v>
       </c>
-      <c r="N20" s="193">
+      <c r="N20" s="159">
         <f t="shared" si="5"/>
-        <v>0.24999999999799277</v>
+        <v>19.999999999871541</v>
       </c>
       <c r="O20" s="144">
         <f>F20-E20</f>
@@ -11836,21 +11901,21 @@
         <v>1</v>
       </c>
       <c r="U20" s="140">
-        <f t="shared" ref="U20:U21" si="10">DATE(YEAR(E20),MONTH(E20),DAY(E20))</f>
+        <f t="shared" ref="U20" si="10">DATE(YEAR(E20),MONTH(E20),DAY(E20))</f>
         <v>42982</v>
       </c>
       <c r="V20" s="140">
-        <f t="shared" ref="V20:V21" si="11">DATE(YEAR(F20),MONTH(F20),DAY(F20))</f>
+        <f t="shared" ref="V20" si="11">DATE(YEAR(F20),MONTH(F20),DAY(F20))</f>
         <v>42985</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="189" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="190"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="158">
+      <c r="A21" s="192" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="193"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="157">
         <v>0.5</v>
       </c>
       <c r="E21" s="128">
@@ -11859,14 +11924,14 @@
       <c r="F21" s="128">
         <v>42989.583333333336</v>
       </c>
-      <c r="G21" s="158">
+      <c r="G21" s="157">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H21" s="192">
+      <c r="H21" s="158">
         <f t="shared" si="6"/>
         <v>0.66666666666424135</v>
       </c>
-      <c r="I21" s="192">
+      <c r="I21" s="158">
         <f t="shared" si="7"/>
         <v>0.58333333333575865</v>
       </c>
@@ -11875,7 +11940,7 @@
         <v>0.20833333333818393</v>
       </c>
       <c r="K21" s="143">
-        <f>IF(U21&lt;&gt;V21,(D21)+((Q21-2)*$A$5)+(IF(I21&gt;$A$3,I21-$A$3,0))+(G21)+(T21),0)</f>
+        <f t="shared" si="4"/>
         <v>2.7083333333333335</v>
       </c>
       <c r="L21" s="146">
@@ -11886,9 +11951,9 @@
         <f t="shared" ref="M21" si="13">K21</f>
         <v>2.7083333333333335</v>
       </c>
-      <c r="N21" s="193">
+      <c r="N21" s="160">
         <f t="shared" si="5"/>
-        <v>7.6923076924867911E-2</v>
+        <v>7.1428571430115699</v>
       </c>
       <c r="O21" s="144">
         <f>F21-E21</f>
@@ -11923,8 +11988,88 @@
         <v>42989</v>
       </c>
     </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="192" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="193"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="157">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="137">
+        <v>42975.5</v>
+      </c>
+      <c r="F22" s="137">
+        <v>42975.833333333336</v>
+      </c>
+      <c r="G22" s="157">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H22" s="158">
+        <f t="shared" ref="H22" si="16">MOD(E22,1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="158">
+        <f t="shared" ref="I22" si="17">MOD(F22,1)</f>
+        <v>0.83333333333575865</v>
+      </c>
+      <c r="J22" s="143">
+        <f>IF(($A$3-H22)+(I22-$A$2)&gt;$A$4,((Q22-2)*$A$4)+(($A$3-H22)+(I22-$A$2)),($A$3-H22)+(I22-$A$2))</f>
+        <v>0.3333333333357586</v>
+      </c>
+      <c r="K22" s="143">
+        <f t="shared" ref="K22" si="18">IF(U22&lt;&gt;V22,(D22)+((Q22-2)*$A$5)+(IF(I22&gt;$A$3,I22-$A$3,0))+(G22)+(T22),IF(I22&gt;$A$3,I22-A8,0))</f>
+        <v>0.83333333333575865</v>
+      </c>
+      <c r="L22" s="146">
+        <f t="shared" ref="L22" si="19">J22</f>
+        <v>0.3333333333357586</v>
+      </c>
+      <c r="M22" s="145">
+        <f t="shared" ref="M22" si="20">K22</f>
+        <v>0.83333333333575865</v>
+      </c>
+      <c r="N22" s="160">
+        <f t="shared" ref="N22" si="21">J22/O22 *100</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="O22" s="144">
+        <f>F22-E22</f>
+        <v>0.33333333333575865</v>
+      </c>
+      <c r="P22" s="142">
+        <f>F22-E22</f>
+        <v>0.33333333333575865</v>
+      </c>
+      <c r="Q22" s="141">
+        <f>(NETWORKDAYS.INTL(E22,F22,"0000011",Plan2!A4))</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="145">
+        <f>Q22</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="139">
+        <f>((_xlfn.DAYS(V22,U22)+1)-Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="144">
+        <f>S22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="140">
+        <f t="shared" ref="U22" si="22">DATE(YEAR(E22),MONTH(E22),DAY(E22))</f>
+        <v>42975</v>
+      </c>
+      <c r="V22" s="140">
+        <f t="shared" ref="V22" si="23">DATE(YEAR(F22),MONTH(F22),DAY(F22))</f>
+        <v>42975</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="G11:M15"/>
@@ -11935,6 +12080,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Banco de Dados de PADS/CALCULOS DE LEADTIME.xlsx
+++ b/Banco de Dados de PADS/CALCULOS DE LEADTIME.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="72">
   <si>
     <t>DT/HR INI</t>
   </si>
@@ -1181,7 +1181,7 @@
     <numFmt numFmtId="168" formatCode="[hh]&quot; h&quot;\ mm&quot; m&quot;\ "/>
     <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,13 +1343,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2093,8 +2086,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2179,12 +2171,12 @@
     <xf numFmtId="164" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2194,6 +2186,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2491,293 +2484,293 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="172"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="165"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="167"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="166"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="165"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="167"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="166"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="165"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="167"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="166"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="165"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="167"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="166"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="165"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="167"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="166"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="165"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="167"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="166"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="165"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="167"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="166"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="165"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="167"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="166"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="165"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="167"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="166"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="167"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="166"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="167"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="166"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="165"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="167"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="166"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="167"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="166"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="167"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="166"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="167"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="166"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="167"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="166"/>
     </row>
     <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="168"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="170"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2797,8 +2790,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,10 +2897,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="174" t="s">
+      <c r="E5" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="174"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -2941,15 +2934,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="176"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
     </row>
@@ -2957,13 +2950,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
     </row>
@@ -2971,13 +2964,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="180"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -2987,13 +2980,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="180"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="179"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -3003,20 +2996,20 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="180" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="85"/>
@@ -3036,7 +3029,7 @@
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -3084,7 +3077,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
+      <c r="A14" s="181"/>
       <c r="B14" s="87"/>
       <c r="C14" s="48"/>
       <c r="D14" s="41"/>
@@ -3102,7 +3095,7 @@
       <c r="P14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
+      <c r="A15" s="181"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -3147,7 +3140,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
+      <c r="A16" s="181"/>
       <c r="B16" s="86"/>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
@@ -3165,7 +3158,7 @@
       <c r="P16" s="53"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
+      <c r="A17" s="181"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
       </c>
@@ -3213,7 +3206,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="183"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="61"/>
       <c r="C18" s="62"/>
       <c r="D18" s="55"/>
@@ -3250,15 +3243,15 @@
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="175" t="s">
+      <c r="F20" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="177"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="176"/>
       <c r="O20" s="12"/>
       <c r="P20" s="13"/>
     </row>
@@ -3266,13 +3259,13 @@
       <c r="B21" s="3"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="180"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="179"/>
       <c r="O21" s="12"/>
       <c r="P21" s="13"/>
     </row>
@@ -3280,13 +3273,13 @@
       <c r="B22" s="3"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="180"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="179"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="12"/>
@@ -3296,13 +3289,13 @@
       <c r="B23" s="3"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="180"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="179"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="12"/>
@@ -3312,20 +3305,20 @@
       <c r="B24" s="3"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="185"/>
-      <c r="K24" s="185"/>
-      <c r="L24" s="186"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="185"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="12"/>
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="180" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="30"/>
@@ -3345,7 +3338,7 @@
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="182"/>
+      <c r="A26" s="181"/>
       <c r="B26" s="39" t="s">
         <v>2</v>
       </c>
@@ -3394,7 +3387,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="182"/>
+      <c r="A27" s="181"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="41"/>
@@ -3412,7 +3405,7 @@
       <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="182"/>
+      <c r="A28" s="181"/>
       <c r="B28" s="39" t="s">
         <v>2</v>
       </c>
@@ -3458,7 +3451,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="182"/>
+      <c r="A29" s="181"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41"/>
@@ -3476,7 +3469,7 @@
       <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="182"/>
+      <c r="A30" s="181"/>
       <c r="B30" s="39" t="s">
         <v>2</v>
       </c>
@@ -3525,7 +3518,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="183"/>
+      <c r="A31" s="182"/>
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
       <c r="D31" s="55"/>
@@ -3714,10 +3707,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="174" t="s">
+      <c r="E5" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="174"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -3753,15 +3746,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="176"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="91"/>
@@ -3770,13 +3763,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="91"/>
@@ -3785,13 +3778,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="180"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -3802,13 +3795,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="180"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="179"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -3819,13 +3812,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -3833,7 +3826,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="180" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="85"/>
@@ -3854,7 +3847,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -3885,11 +3878,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="187">
+      <c r="L13" s="186">
         <f>I13+I14</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="M13" s="188">
+      <c r="M13" s="187">
         <f>J13+J14</f>
         <v>0.70833333333333337</v>
       </c>
@@ -3902,13 +3895,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="189">
+      <c r="Q13" s="188">
         <f>L13+M13</f>
         <v>0.9375</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
+      <c r="A14" s="181"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
       </c>
@@ -3938,8 +3931,8 @@
         <v>0.5</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+      <c r="L14" s="186"/>
+      <c r="M14" s="187"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -3949,10 +3942,10 @@
         <f>I14+J14</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q14" s="189"/>
+      <c r="Q14" s="188"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
+      <c r="A15" s="181"/>
       <c r="B15" s="87"/>
       <c r="C15" s="48"/>
       <c r="D15" s="41"/>
@@ -3971,7 +3964,7 @@
       <c r="Q15" s="94"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
+      <c r="A16" s="181"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -4002,11 +3995,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="187">
+      <c r="L16" s="186">
         <f>I16+I17</f>
         <v>0.49999999999999994</v>
       </c>
-      <c r="M16" s="188">
+      <c r="M16" s="187">
         <f>J16+J17</f>
         <v>0.70833333333333337</v>
       </c>
@@ -4019,13 +4012,13 @@
         <f>I16+J16</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q16" s="189">
+      <c r="Q16" s="188">
         <f>L16+M16</f>
         <v>1.2083333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
+      <c r="A17" s="181"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
       </c>
@@ -4055,8 +4048,8 @@
         <v>0.5</v>
       </c>
       <c r="K17" s="41"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="188"/>
+      <c r="L17" s="186"/>
+      <c r="M17" s="187"/>
       <c r="N17" s="41" t="e">
         <f>L17/M17</f>
         <v>#DIV/0!</v>
@@ -4066,10 +4059,10 @@
         <f>I17+J17</f>
         <v>0.625</v>
       </c>
-      <c r="Q17" s="189"/>
+      <c r="Q17" s="188"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="182"/>
+      <c r="A18" s="181"/>
       <c r="B18" s="87"/>
       <c r="C18" s="48"/>
       <c r="D18" s="41"/>
@@ -4088,7 +4081,7 @@
       <c r="Q18" s="94"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182"/>
+      <c r="A19" s="181"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
       </c>
@@ -4119,11 +4112,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="187">
+      <c r="L19" s="186">
         <f>I19+I20</f>
         <v>0.625</v>
       </c>
-      <c r="M19" s="188">
+      <c r="M19" s="187">
         <f>J19+J20</f>
         <v>0.70833333333333337</v>
       </c>
@@ -4136,13 +4129,13 @@
         <f>I19+J19</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q19" s="189">
+      <c r="Q19" s="188">
         <f>L19+M19</f>
         <v>1.3333333333333335</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
+      <c r="A20" s="181"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
       </c>
@@ -4172,8 +4165,8 @@
         <v>0.5</v>
       </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="188"/>
+      <c r="L20" s="186"/>
+      <c r="M20" s="187"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -4183,10 +4176,10 @@
         <f>I20+J20</f>
         <v>0.75</v>
       </c>
-      <c r="Q20" s="189"/>
+      <c r="Q20" s="188"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="183"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="61"/>
       <c r="C21" s="62"/>
       <c r="D21" s="55"/>
@@ -4225,15 +4218,15 @@
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="175" t="s">
+      <c r="F23" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="177"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="176"/>
       <c r="O23" s="12"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="91"/>
@@ -4242,13 +4235,13 @@
       <c r="B24" s="3"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="180"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="179"/>
       <c r="O24" s="12"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="91"/>
@@ -4257,13 +4250,13 @@
       <c r="B25" s="3"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="180"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="179"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="12"/>
@@ -4274,13 +4267,13 @@
       <c r="B26" s="3"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="180"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="179"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="12"/>
@@ -4291,13 +4284,13 @@
       <c r="B27" s="3"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="185"/>
-      <c r="L27" s="186"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="184"/>
+      <c r="K27" s="184"/>
+      <c r="L27" s="185"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="12"/>
@@ -4305,7 +4298,7 @@
       <c r="Q27" s="91"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="180" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="30"/>
@@ -4326,7 +4319,7 @@
       <c r="Q28" s="93"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="182"/>
+      <c r="A29" s="181"/>
       <c r="B29" s="86" t="s">
         <v>2</v>
       </c>
@@ -4357,11 +4350,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K29" s="41"/>
-      <c r="L29" s="187">
+      <c r="L29" s="186">
         <f>I29+I30</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M29" s="188">
+      <c r="M29" s="187">
         <f>J29+J30</f>
         <v>0.75000000000000011</v>
       </c>
@@ -4374,13 +4367,13 @@
         <f>I29+J29</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q29" s="189">
+      <c r="Q29" s="188">
         <f>L29+M29</f>
         <v>1.2916666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="182"/>
+      <c r="A30" s="181"/>
       <c r="B30" s="86" t="s">
         <v>2</v>
       </c>
@@ -4411,8 +4404,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K30" s="41"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="188"/>
+      <c r="L30" s="186"/>
+      <c r="M30" s="187"/>
       <c r="N30" s="41" t="e">
         <f>L30/M30</f>
         <v>#DIV/0!</v>
@@ -4422,10 +4415,10 @@
         <f>I30+J30</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q30" s="189"/>
+      <c r="Q30" s="188"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="182"/>
+      <c r="A31" s="181"/>
       <c r="B31" s="87"/>
       <c r="C31" s="48"/>
       <c r="D31" s="41"/>
@@ -4444,7 +4437,7 @@
       <c r="Q31" s="94"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
+      <c r="A32" s="181"/>
       <c r="B32" s="86" t="s">
         <v>2</v>
       </c>
@@ -4475,11 +4468,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K32" s="41"/>
-      <c r="L32" s="187">
+      <c r="L32" s="186">
         <f>I32+I33</f>
         <v>0.75</v>
       </c>
-      <c r="M32" s="188">
+      <c r="M32" s="187">
         <f>J32+J33</f>
         <v>0.79166666666666674</v>
       </c>
@@ -4492,13 +4485,13 @@
         <f>I32+J32</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q32" s="189">
+      <c r="Q32" s="188">
         <f>L32+M32</f>
         <v>1.5416666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="182"/>
+      <c r="A33" s="181"/>
       <c r="B33" s="86" t="s">
         <v>2</v>
       </c>
@@ -4529,8 +4522,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K33" s="41"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="188"/>
+      <c r="L33" s="186"/>
+      <c r="M33" s="187"/>
       <c r="N33" s="41" t="e">
         <f>L33/M33</f>
         <v>#DIV/0!</v>
@@ -4540,10 +4533,10 @@
         <f>I33+J33</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q33" s="189"/>
+      <c r="Q33" s="188"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="182"/>
+      <c r="A34" s="181"/>
       <c r="B34" s="87"/>
       <c r="C34" s="48"/>
       <c r="D34" s="41"/>
@@ -4562,7 +4555,7 @@
       <c r="Q34" s="94"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="182"/>
+      <c r="A35" s="181"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -4593,11 +4586,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K35" s="41"/>
-      <c r="L35" s="187">
+      <c r="L35" s="186">
         <f>I35+I36</f>
         <v>0.85416666666666652</v>
       </c>
-      <c r="M35" s="188">
+      <c r="M35" s="187">
         <f>J35+J36</f>
         <v>0.89583333333333337</v>
       </c>
@@ -4610,13 +4603,13 @@
         <f>I35+J35</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q35" s="189">
+      <c r="Q35" s="188">
         <f>L35+M35</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182"/>
+      <c r="A36" s="181"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
       </c>
@@ -4647,8 +4640,8 @@
         <v>0.6875</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="188"/>
+      <c r="L36" s="186"/>
+      <c r="M36" s="187"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -4658,10 +4651,10 @@
         <f>I36+J36</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q36" s="189"/>
+      <c r="Q36" s="188"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="183"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="62"/>
       <c r="C37" s="62"/>
       <c r="D37" s="55"/>
@@ -4700,29 +4693,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F7:L11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="F23:L27"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="Q35:Q36"/>
     <mergeCell ref="A28:A37"/>
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="Q29:Q30"/>
     <mergeCell ref="L32:L33"/>
     <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="F7:L11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="F23:L27"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L19:L20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4872,10 +4865,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="174" t="s">
+      <c r="E5" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="174"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -4912,15 +4905,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="176"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -4930,13 +4923,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -4946,13 +4939,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="180"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -4963,13 +4956,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="180"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="179"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -4980,13 +4973,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -4994,7 +4987,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="180" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="85"/>
@@ -5015,7 +5008,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -5049,7 +5042,7 @@
         <f>I13+I14+I15</f>
         <v>0.52083333333333326</v>
       </c>
-      <c r="M13" s="191">
+      <c r="M13" s="189">
         <f>J13+J14+J15</f>
         <v>1.4166666666666667</v>
       </c>
@@ -5062,13 +5055,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="189">
+      <c r="Q13" s="188">
         <f>L13+M13</f>
         <v>1.9375</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
+      <c r="A14" s="181"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
       </c>
@@ -5100,7 +5093,7 @@
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="190"/>
-      <c r="M14" s="191"/>
+      <c r="M14" s="189"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -5110,10 +5103,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="189"/>
+      <c r="Q14" s="188"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
+      <c r="A15" s="181"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -5144,7 +5137,7 @@
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="190"/>
-      <c r="M15" s="191"/>
+      <c r="M15" s="189"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -5154,10 +5147,10 @@
         <f>I15+J15</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q15" s="189"/>
+      <c r="Q15" s="188"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
+      <c r="A16" s="181"/>
       <c r="B16" s="87"/>
       <c r="C16" s="48"/>
       <c r="D16" s="41"/>
@@ -5176,7 +5169,7 @@
       <c r="Q16" s="94"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
+      <c r="A17" s="181"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
       </c>
@@ -5210,7 +5203,7 @@
         <f>I17+I18+I19</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M17" s="191">
+      <c r="M17" s="189">
         <f>J17+J18+J19</f>
         <v>1.4166666666666667</v>
       </c>
@@ -5223,13 +5216,13 @@
         <f>I17+J17</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q17" s="189">
+      <c r="Q17" s="188">
         <f>L17+M17</f>
         <v>2.208333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="182"/>
+      <c r="A18" s="181"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -5261,7 +5254,7 @@
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="190"/>
-      <c r="M18" s="191"/>
+      <c r="M18" s="189"/>
       <c r="N18" s="41" t="e">
         <f>L18/M18</f>
         <v>#DIV/0!</v>
@@ -5271,10 +5264,10 @@
         <f>I18+J18</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="189"/>
+      <c r="Q18" s="188"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182"/>
+      <c r="A19" s="181"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
       </c>
@@ -5305,7 +5298,7 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="190"/>
-      <c r="M19" s="191"/>
+      <c r="M19" s="189"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -5315,10 +5308,10 @@
         <f>I19+J19</f>
         <v>0.625</v>
       </c>
-      <c r="Q19" s="189"/>
+      <c r="Q19" s="188"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
+      <c r="A20" s="181"/>
       <c r="B20" s="87"/>
       <c r="C20" s="48"/>
       <c r="D20" s="41"/>
@@ -5337,7 +5330,7 @@
       <c r="Q20" s="94"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="182"/>
+      <c r="A21" s="181"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -5371,7 +5364,7 @@
         <f>I21+I22+I23</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M21" s="191">
+      <c r="M21" s="189">
         <f>J21+J22+J23</f>
         <v>1.4166666666666667</v>
       </c>
@@ -5384,13 +5377,13 @@
         <f>I21+J21</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q21" s="189">
+      <c r="Q21" s="188">
         <f>L21+M21</f>
         <v>2.333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="182"/>
+      <c r="A22" s="181"/>
       <c r="B22" s="86" t="s">
         <v>2</v>
       </c>
@@ -5422,7 +5415,7 @@
       </c>
       <c r="K22" s="41"/>
       <c r="L22" s="190"/>
-      <c r="M22" s="191"/>
+      <c r="M22" s="189"/>
       <c r="N22" s="41" t="e">
         <f>L22/M22</f>
         <v>#DIV/0!</v>
@@ -5432,10 +5425,10 @@
         <f>I22+J22</f>
         <v>1</v>
       </c>
-      <c r="Q22" s="189"/>
+      <c r="Q22" s="188"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
+      <c r="A23" s="181"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -5466,7 +5459,7 @@
       </c>
       <c r="K23" s="41"/>
       <c r="L23" s="190"/>
-      <c r="M23" s="191"/>
+      <c r="M23" s="189"/>
       <c r="N23" s="41" t="e">
         <f>L23/M23</f>
         <v>#DIV/0!</v>
@@ -5476,10 +5469,10 @@
         <f>I23+J23</f>
         <v>0.75</v>
       </c>
-      <c r="Q23" s="189"/>
+      <c r="Q23" s="188"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="183"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="61"/>
       <c r="C24" s="62"/>
       <c r="D24" s="55"/>
@@ -5519,15 +5512,15 @@
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="175" t="s">
+      <c r="F26" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="177"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="176"/>
       <c r="M26" s="104"/>
       <c r="O26" s="12"/>
       <c r="P26" s="13"/>
@@ -5537,13 +5530,13 @@
       <c r="B27" s="3"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="180"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="179"/>
       <c r="M27" s="104"/>
       <c r="O27" s="12"/>
       <c r="P27" s="13"/>
@@ -5553,13 +5546,13 @@
       <c r="B28" s="3"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="180"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="179"/>
       <c r="M28" s="109"/>
       <c r="N28" s="8"/>
       <c r="O28" s="12"/>
@@ -5570,13 +5563,13 @@
       <c r="B29" s="3"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="180"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="179"/>
       <c r="M29" s="109"/>
       <c r="N29" s="8"/>
       <c r="O29" s="12"/>
@@ -5587,13 +5580,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
-      <c r="L30" s="186"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="185"/>
       <c r="M30" s="109"/>
       <c r="N30" s="8"/>
       <c r="O30" s="12"/>
@@ -5601,7 +5594,7 @@
       <c r="Q30" s="91"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="180" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="30"/>
@@ -5622,7 +5615,7 @@
       <c r="Q31" s="93"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
+      <c r="A32" s="181"/>
       <c r="B32" s="86" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5649,7 @@
         <f>I32+I33+I34</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M32" s="191">
+      <c r="M32" s="189">
         <f>J32+J33+J34</f>
         <v>1.4583333333333335</v>
       </c>
@@ -5669,13 +5662,13 @@
         <f>I32+J32</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q32" s="189">
+      <c r="Q32" s="188">
         <f>L32+M32</f>
         <v>2.291666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="182"/>
+      <c r="A33" s="181"/>
       <c r="B33" s="86" t="s">
         <v>2</v>
       </c>
@@ -5707,7 +5700,7 @@
       </c>
       <c r="K33" s="41"/>
       <c r="L33" s="190"/>
-      <c r="M33" s="191"/>
+      <c r="M33" s="189"/>
       <c r="N33" s="41" t="e">
         <f>L33/M33</f>
         <v>#DIV/0!</v>
@@ -5717,10 +5710,10 @@
         <f>I33+J33</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="189"/>
+      <c r="Q33" s="188"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="182"/>
+      <c r="A34" s="181"/>
       <c r="B34" s="86" t="s">
         <v>2</v>
       </c>
@@ -5752,7 +5745,7 @@
       </c>
       <c r="K34" s="41"/>
       <c r="L34" s="190"/>
-      <c r="M34" s="191"/>
+      <c r="M34" s="189"/>
       <c r="N34" s="41" t="e">
         <f>L34/M34</f>
         <v>#DIV/0!</v>
@@ -5762,10 +5755,10 @@
         <f>I34+J34</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q34" s="189"/>
+      <c r="Q34" s="188"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="182"/>
+      <c r="A35" s="181"/>
       <c r="B35" s="87"/>
       <c r="C35" s="48"/>
       <c r="D35" s="41"/>
@@ -5784,7 +5777,7 @@
       <c r="Q35" s="94"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182"/>
+      <c r="A36" s="181"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
       </c>
@@ -5818,7 +5811,7 @@
         <f>I36+I37+I38</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M36" s="191">
+      <c r="M36" s="189">
         <f>J36+J37+J38</f>
         <v>1.5</v>
       </c>
@@ -5831,13 +5824,13 @@
         <f>I36+J36</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q36" s="189">
+      <c r="Q36" s="188">
         <f>L36+M36</f>
         <v>2.5416666666666665</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="182"/>
+      <c r="A37" s="181"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
       </c>
@@ -5869,7 +5862,7 @@
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="190"/>
-      <c r="M37" s="191"/>
+      <c r="M37" s="189"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -5879,10 +5872,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="189"/>
+      <c r="Q37" s="188"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="182"/>
+      <c r="A38" s="181"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -5914,7 +5907,7 @@
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="190"/>
-      <c r="M38" s="191"/>
+      <c r="M38" s="189"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -5924,10 +5917,10 @@
         <f>I38+J38</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q38" s="189"/>
+      <c r="Q38" s="188"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="182"/>
+      <c r="A39" s="181"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -5946,7 +5939,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
+      <c r="A40" s="181"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -5980,7 +5973,7 @@
         <f>I40+I41+I42</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M40" s="191">
+      <c r="M40" s="189">
         <f>J40+J41+J42</f>
         <v>1.6041666666666667</v>
       </c>
@@ -5993,13 +5986,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="189">
+      <c r="Q40" s="188">
         <f>L40+M40</f>
         <v>2.75</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="182"/>
+      <c r="A41" s="181"/>
       <c r="B41" s="86" t="s">
         <v>2</v>
       </c>
@@ -6031,7 +6024,7 @@
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="190"/>
-      <c r="M41" s="191"/>
+      <c r="M41" s="189"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -6041,10 +6034,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="189"/>
+      <c r="Q41" s="188"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="182"/>
+      <c r="A42" s="181"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
       </c>
@@ -6076,7 +6069,7 @@
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="190"/>
-      <c r="M42" s="191"/>
+      <c r="M42" s="189"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -6086,10 +6079,10 @@
         <f>I42+J42</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q42" s="189"/>
+      <c r="Q42" s="188"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="183"/>
+      <c r="A43" s="182"/>
       <c r="B43" s="62"/>
       <c r="C43" s="62"/>
       <c r="D43" s="55"/>
@@ -6128,22 +6121,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="M36:M38"/>
-    <mergeCell ref="Q36:Q38"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="F26:L30"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="Q17:Q19"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="F7:L11"/>
     <mergeCell ref="A12:A24"/>
@@ -6151,6 +6128,22 @@
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="L40:L42"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="F26:L30"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="Q36:Q38"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6300,10 +6293,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="174" t="s">
+      <c r="E5" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="174"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -6340,15 +6333,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="176"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -6358,13 +6351,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -6374,13 +6367,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="180"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -6391,13 +6384,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="180"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="179"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -6408,13 +6401,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -6422,7 +6415,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="180" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="85"/>
@@ -6443,7 +6436,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -6477,7 +6470,7 @@
         <f>I13+I14+I15+I16</f>
         <v>0.89583333333333315</v>
       </c>
-      <c r="M13" s="191">
+      <c r="M13" s="189">
         <f>J13+J14+J15+J16</f>
         <v>2.125</v>
       </c>
@@ -6490,13 +6483,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="189">
+      <c r="Q13" s="188">
         <f>L13+M13</f>
         <v>3.020833333333333</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
+      <c r="A14" s="181"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
       </c>
@@ -6528,7 +6521,7 @@
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="190"/>
-      <c r="M14" s="191"/>
+      <c r="M14" s="189"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -6538,10 +6531,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="189"/>
+      <c r="Q14" s="188"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
+      <c r="A15" s="181"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -6573,7 +6566,7 @@
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="190"/>
-      <c r="M15" s="191"/>
+      <c r="M15" s="189"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -6583,10 +6576,10 @@
         <f>I15+J15</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="189"/>
+      <c r="Q15" s="188"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
+      <c r="A16" s="181"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -6617,7 +6610,7 @@
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="190"/>
-      <c r="M16" s="191"/>
+      <c r="M16" s="189"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -6627,10 +6620,10 @@
         <f>I16+J16</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q16" s="189"/>
+      <c r="Q16" s="188"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
+      <c r="A17" s="181"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
       <c r="D17" s="41"/>
@@ -6649,7 +6642,7 @@
       <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="182"/>
+      <c r="A18" s="181"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -6683,7 +6676,7 @@
         <f>I18+I19+I20+I21</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="M18" s="191">
+      <c r="M18" s="189">
         <f>J18+J19+J20+J21</f>
         <v>2.125</v>
       </c>
@@ -6696,13 +6689,13 @@
         <f>I18+J18</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q18" s="189">
+      <c r="Q18" s="188">
         <f>L18+M18</f>
         <v>3.208333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182"/>
+      <c r="A19" s="181"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
       </c>
@@ -6734,7 +6727,7 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="190"/>
-      <c r="M19" s="191"/>
+      <c r="M19" s="189"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -6744,10 +6737,10 @@
         <f>I19+J19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="189"/>
+      <c r="Q19" s="188"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
+      <c r="A20" s="181"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
       </c>
@@ -6779,7 +6772,7 @@
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="190"/>
-      <c r="M20" s="191"/>
+      <c r="M20" s="189"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -6789,10 +6782,10 @@
         <f>I20+J20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="189"/>
+      <c r="Q20" s="188"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="182"/>
+      <c r="A21" s="181"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -6823,7 +6816,7 @@
       </c>
       <c r="K21" s="41"/>
       <c r="L21" s="190"/>
-      <c r="M21" s="191"/>
+      <c r="M21" s="189"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -6833,10 +6826,10 @@
         <f>I21+J21</f>
         <v>0.625</v>
       </c>
-      <c r="Q21" s="189"/>
+      <c r="Q21" s="188"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="182"/>
+      <c r="A22" s="181"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
       <c r="D22" s="41"/>
@@ -6855,7 +6848,7 @@
       <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
+      <c r="A23" s="181"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -6889,7 +6882,7 @@
         <f>I23+I24+I25+I26</f>
         <v>1.208333333333333</v>
       </c>
-      <c r="M23" s="191">
+      <c r="M23" s="189">
         <f>J23+J24+J25+J26</f>
         <v>2.125</v>
       </c>
@@ -6902,13 +6895,13 @@
         <f>I23+J23</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q23" s="189">
+      <c r="Q23" s="188">
         <f>L23+M23</f>
         <v>3.333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182"/>
+      <c r="A24" s="181"/>
       <c r="B24" s="86" t="s">
         <v>2</v>
       </c>
@@ -6940,7 +6933,7 @@
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="190"/>
-      <c r="M24" s="191"/>
+      <c r="M24" s="189"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -6950,10 +6943,10 @@
         <f>I24+J24</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="189"/>
+      <c r="Q24" s="188"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="182"/>
+      <c r="A25" s="181"/>
       <c r="B25" s="86" t="s">
         <v>2</v>
       </c>
@@ -6985,7 +6978,7 @@
       </c>
       <c r="K25" s="41"/>
       <c r="L25" s="190"/>
-      <c r="M25" s="191"/>
+      <c r="M25" s="189"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -6995,10 +6988,10 @@
         <f>I25+J25</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="189"/>
+      <c r="Q25" s="188"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="182"/>
+      <c r="A26" s="181"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
       </c>
@@ -7029,7 +7022,7 @@
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="190"/>
-      <c r="M26" s="191"/>
+      <c r="M26" s="189"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -7039,10 +7032,10 @@
         <f>I26+J26</f>
         <v>0.75</v>
       </c>
-      <c r="Q26" s="189"/>
+      <c r="Q26" s="188"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="183"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
       <c r="D27" s="55"/>
@@ -7082,15 +7075,15 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="175" t="s">
+      <c r="F29" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="177"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="176"/>
       <c r="M29" s="104"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
@@ -7100,13 +7093,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="180"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="179"/>
       <c r="M30" s="104"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
@@ -7116,13 +7109,13 @@
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="180"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="179"/>
       <c r="M31" s="109"/>
       <c r="N31" s="8"/>
       <c r="O31" s="12"/>
@@ -7133,13 +7126,13 @@
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="180"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="179"/>
       <c r="M32" s="109"/>
       <c r="N32" s="8"/>
       <c r="O32" s="12"/>
@@ -7150,13 +7143,13 @@
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="186"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="185"/>
       <c r="M33" s="109"/>
       <c r="N33" s="8"/>
       <c r="O33" s="12"/>
@@ -7164,7 +7157,7 @@
       <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="180" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="30"/>
@@ -7185,7 +7178,7 @@
       <c r="Q34" s="93"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="182"/>
+      <c r="A35" s="181"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -7219,7 +7212,7 @@
         <f>I35+I36+I37+I38</f>
         <v>1.125</v>
       </c>
-      <c r="M35" s="191">
+      <c r="M35" s="189">
         <f>J35+J36+J37+J38</f>
         <v>2.166666666666667</v>
       </c>
@@ -7232,13 +7225,13 @@
         <f>I35+J35</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q35" s="189">
+      <c r="Q35" s="188">
         <f>L35+M35</f>
         <v>3.291666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182"/>
+      <c r="A36" s="181"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
       </c>
@@ -7270,7 +7263,7 @@
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="190"/>
-      <c r="M36" s="191"/>
+      <c r="M36" s="189"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -7280,10 +7273,10 @@
         <f>I36+J36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="189"/>
+      <c r="Q36" s="188"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="182"/>
+      <c r="A37" s="181"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
       </c>
@@ -7315,7 +7308,7 @@
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="190"/>
-      <c r="M37" s="191"/>
+      <c r="M37" s="189"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -7325,10 +7318,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="189"/>
+      <c r="Q37" s="188"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="182"/>
+      <c r="A38" s="181"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -7360,7 +7353,7 @@
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="190"/>
-      <c r="M38" s="191"/>
+      <c r="M38" s="189"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -7370,10 +7363,10 @@
         <f>I38+J38</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q38" s="189"/>
+      <c r="Q38" s="188"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="182"/>
+      <c r="A39" s="181"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -7392,7 +7385,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
+      <c r="A40" s="181"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -7426,7 +7419,7 @@
         <f>I40+I41+I42+I43</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="M40" s="191">
+      <c r="M40" s="189">
         <f>J40+J41+J42+J43</f>
         <v>2.2083333333333335</v>
       </c>
@@ -7439,13 +7432,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="189">
+      <c r="Q40" s="188">
         <f>L40+M40</f>
         <v>3.5416666666666665</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="182"/>
+      <c r="A41" s="181"/>
       <c r="B41" s="86" t="s">
         <v>2</v>
       </c>
@@ -7477,7 +7470,7 @@
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="190"/>
-      <c r="M41" s="191"/>
+      <c r="M41" s="189"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -7487,10 +7480,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="189"/>
+      <c r="Q41" s="188"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="182"/>
+      <c r="A42" s="181"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
       </c>
@@ -7522,7 +7515,7 @@
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="190"/>
-      <c r="M42" s="191"/>
+      <c r="M42" s="189"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -7532,10 +7525,10 @@
         <f>I42+J42</f>
         <v>1</v>
       </c>
-      <c r="Q42" s="189"/>
+      <c r="Q42" s="188"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="182"/>
+      <c r="A43" s="181"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
       </c>
@@ -7567,7 +7560,7 @@
       </c>
       <c r="K43" s="41"/>
       <c r="L43" s="190"/>
-      <c r="M43" s="191"/>
+      <c r="M43" s="189"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -7577,10 +7570,10 @@
         <f>I43+J43</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q43" s="189"/>
+      <c r="Q43" s="188"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="182"/>
+      <c r="A44" s="181"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
       <c r="D44" s="41"/>
@@ -7599,7 +7592,7 @@
       <c r="Q44" s="94"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
+      <c r="A45" s="181"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
       </c>
@@ -7633,7 +7626,7 @@
         <f>I45+I46+I47+I48</f>
         <v>1.4374999999999998</v>
       </c>
-      <c r="M45" s="191">
+      <c r="M45" s="189">
         <f>J45+J46+J47+J48</f>
         <v>2.3125</v>
       </c>
@@ -7646,13 +7639,13 @@
         <f>I45+J45</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q45" s="189">
+      <c r="Q45" s="188">
         <f>L45+M45</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="182"/>
+      <c r="A46" s="181"/>
       <c r="B46" s="86" t="s">
         <v>2</v>
       </c>
@@ -7684,7 +7677,7 @@
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="190"/>
-      <c r="M46" s="191"/>
+      <c r="M46" s="189"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -7694,10 +7687,10 @@
         <f>I46+J46</f>
         <v>1</v>
       </c>
-      <c r="Q46" s="189"/>
+      <c r="Q46" s="188"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="182"/>
+      <c r="A47" s="181"/>
       <c r="B47" s="86" t="s">
         <v>2</v>
       </c>
@@ -7729,7 +7722,7 @@
       </c>
       <c r="K47" s="41"/>
       <c r="L47" s="190"/>
-      <c r="M47" s="191"/>
+      <c r="M47" s="189"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -7739,10 +7732,10 @@
         <f>I47+J47</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="189"/>
+      <c r="Q47" s="188"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182"/>
+      <c r="A48" s="181"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
       </c>
@@ -7774,7 +7767,7 @@
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="190"/>
-      <c r="M48" s="191"/>
+      <c r="M48" s="189"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -7784,10 +7777,10 @@
         <f>I48+J48</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q48" s="189"/>
+      <c r="Q48" s="188"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="183"/>
+      <c r="A49" s="182"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="55"/>
@@ -7826,6 +7819,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="Q23:Q26"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F7:L11"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="M23:M26"/>
     <mergeCell ref="F29:L33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="L35:L38"/>
@@ -7837,18 +7842,6 @@
     <mergeCell ref="L45:L48"/>
     <mergeCell ref="M45:M48"/>
     <mergeCell ref="Q45:Q48"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="F7:L11"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="Q23:Q26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7863,7 +7856,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -8004,10 +7997,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="174" t="s">
+      <c r="E5" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="174"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -8044,15 +8037,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="176"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -8062,13 +8055,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -8078,13 +8071,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="180"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -8095,13 +8088,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="180"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="179"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -8112,13 +8105,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -8126,7 +8119,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="180" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="85"/>
@@ -8147,7 +8140,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -8181,7 +8174,7 @@
         <f>I13+I14+I15+I16</f>
         <v>0.60416666666666652</v>
       </c>
-      <c r="M13" s="191">
+      <c r="M13" s="189">
         <f>J13+J14+J15+J16</f>
         <v>2.416666666666667</v>
       </c>
@@ -8194,13 +8187,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="189">
+      <c r="Q13" s="188">
         <f>L13+M13</f>
         <v>3.0208333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
+      <c r="A14" s="181"/>
       <c r="B14" s="118" t="s">
         <v>2</v>
       </c>
@@ -8232,7 +8225,7 @@
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="190"/>
-      <c r="M14" s="191"/>
+      <c r="M14" s="189"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -8242,10 +8235,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="189"/>
+      <c r="Q14" s="188"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
+      <c r="A15" s="181"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -8277,7 +8270,7 @@
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="190"/>
-      <c r="M15" s="191"/>
+      <c r="M15" s="189"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -8287,10 +8280,10 @@
         <f>I15+J15</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="189"/>
+      <c r="Q15" s="188"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
+      <c r="A16" s="181"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -8321,7 +8314,7 @@
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="190"/>
-      <c r="M16" s="191"/>
+      <c r="M16" s="189"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -8331,10 +8324,10 @@
         <f>I16+J16</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q16" s="189"/>
+      <c r="Q16" s="188"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
+      <c r="A17" s="181"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
       <c r="D17" s="41"/>
@@ -8353,7 +8346,7 @@
       <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="182"/>
+      <c r="A18" s="181"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -8387,7 +8380,7 @@
         <f>I18+I19+I20+I21</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M18" s="191">
+      <c r="M18" s="189">
         <f>J18+J19+J20+J21</f>
         <v>2.416666666666667</v>
       </c>
@@ -8400,13 +8393,13 @@
         <f>I18+J18</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q18" s="189">
+      <c r="Q18" s="188">
         <f>L18+M18</f>
         <v>3.2083333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182"/>
+      <c r="A19" s="181"/>
       <c r="B19" s="118" t="s">
         <v>2</v>
       </c>
@@ -8438,7 +8431,7 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="190"/>
-      <c r="M19" s="191"/>
+      <c r="M19" s="189"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -8448,10 +8441,10 @@
         <f>I19+J19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="189"/>
+      <c r="Q19" s="188"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
+      <c r="A20" s="181"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
       </c>
@@ -8483,7 +8476,7 @@
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="190"/>
-      <c r="M20" s="191"/>
+      <c r="M20" s="189"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -8493,10 +8486,10 @@
         <f>I20+J20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="189"/>
+      <c r="Q20" s="188"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="182"/>
+      <c r="A21" s="181"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -8527,7 +8520,7 @@
       </c>
       <c r="K21" s="41"/>
       <c r="L21" s="190"/>
-      <c r="M21" s="191"/>
+      <c r="M21" s="189"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -8537,10 +8530,10 @@
         <f>I21+J21</f>
         <v>0.625</v>
       </c>
-      <c r="Q21" s="189"/>
+      <c r="Q21" s="188"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="182"/>
+      <c r="A22" s="181"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
       <c r="D22" s="41"/>
@@ -8559,7 +8552,7 @@
       <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
+      <c r="A23" s="181"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -8593,7 +8586,7 @@
         <f>I23+I24+I25+I26</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M23" s="191">
+      <c r="M23" s="189">
         <f>J23+J24+J25+J26</f>
         <v>2.416666666666667</v>
       </c>
@@ -8606,13 +8599,13 @@
         <f>I23+J23</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q23" s="189">
+      <c r="Q23" s="188">
         <f>L23+M23</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182"/>
+      <c r="A24" s="181"/>
       <c r="B24" s="118" t="s">
         <v>2</v>
       </c>
@@ -8644,7 +8637,7 @@
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="190"/>
-      <c r="M24" s="191"/>
+      <c r="M24" s="189"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -8654,10 +8647,10 @@
         <f>I24+J24</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="189"/>
+      <c r="Q24" s="188"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="182"/>
+      <c r="A25" s="181"/>
       <c r="B25" s="86" t="s">
         <v>2</v>
       </c>
@@ -8689,7 +8682,7 @@
       </c>
       <c r="K25" s="41"/>
       <c r="L25" s="190"/>
-      <c r="M25" s="191"/>
+      <c r="M25" s="189"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -8699,10 +8692,10 @@
         <f>I25+J25</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="189"/>
+      <c r="Q25" s="188"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="182"/>
+      <c r="A26" s="181"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
       </c>
@@ -8733,7 +8726,7 @@
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="190"/>
-      <c r="M26" s="191"/>
+      <c r="M26" s="189"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -8743,10 +8736,10 @@
         <f>I26+J26</f>
         <v>0.75</v>
       </c>
-      <c r="Q26" s="189"/>
+      <c r="Q26" s="188"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="183"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
       <c r="D27" s="55"/>
@@ -8786,15 +8779,15 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="175" t="s">
+      <c r="F29" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="177"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="176"/>
       <c r="M29" s="104"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
@@ -8804,13 +8797,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="180"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="179"/>
       <c r="M30" s="104"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
@@ -8820,13 +8813,13 @@
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="180"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="179"/>
       <c r="M31" s="109"/>
       <c r="N31" s="8"/>
       <c r="O31" s="12"/>
@@ -8837,13 +8830,13 @@
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="180"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="179"/>
       <c r="M32" s="109"/>
       <c r="N32" s="8"/>
       <c r="O32" s="12"/>
@@ -8854,13 +8847,13 @@
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="186"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="185"/>
       <c r="M33" s="109"/>
       <c r="N33" s="8"/>
       <c r="O33" s="12"/>
@@ -8868,7 +8861,7 @@
       <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="180" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="30"/>
@@ -8889,7 +8882,7 @@
       <c r="Q34" s="93"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="182"/>
+      <c r="A35" s="181"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -8923,7 +8916,7 @@
         <f>I35+I36+I37+I38</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M35" s="191">
+      <c r="M35" s="189">
         <f>J35+J36+J37+J38</f>
         <v>2.4583333333333339</v>
       </c>
@@ -8936,13 +8929,13 @@
         <f>I35+J35</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q35" s="189">
+      <c r="Q35" s="188">
         <f>L35+M35</f>
         <v>3.291666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182"/>
+      <c r="A36" s="181"/>
       <c r="B36" s="118" t="s">
         <v>2</v>
       </c>
@@ -8974,7 +8967,7 @@
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="190"/>
-      <c r="M36" s="191"/>
+      <c r="M36" s="189"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -8984,10 +8977,10 @@
         <f>I36+J36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="189"/>
+      <c r="Q36" s="188"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="182"/>
+      <c r="A37" s="181"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
       </c>
@@ -9019,7 +9012,7 @@
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="190"/>
-      <c r="M37" s="191"/>
+      <c r="M37" s="189"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -9029,10 +9022,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="189"/>
+      <c r="Q37" s="188"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="182"/>
+      <c r="A38" s="181"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -9064,7 +9057,7 @@
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="190"/>
-      <c r="M38" s="191"/>
+      <c r="M38" s="189"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -9074,10 +9067,10 @@
         <f>I38+J38</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q38" s="189"/>
+      <c r="Q38" s="188"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="182"/>
+      <c r="A39" s="181"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -9096,7 +9089,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
+      <c r="A40" s="181"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -9130,7 +9123,7 @@
         <f>I40+I41+I42+I43</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M40" s="191">
+      <c r="M40" s="189">
         <f>J40+J41+J42+J43</f>
         <v>2.5000000000000004</v>
       </c>
@@ -9143,13 +9136,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="189">
+      <c r="Q40" s="188">
         <f>L40+M40</f>
         <v>3.541666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="182"/>
+      <c r="A41" s="181"/>
       <c r="B41" s="118" t="s">
         <v>2</v>
       </c>
@@ -9181,7 +9174,7 @@
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="190"/>
-      <c r="M41" s="191"/>
+      <c r="M41" s="189"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -9191,10 +9184,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="189"/>
+      <c r="Q41" s="188"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="182"/>
+      <c r="A42" s="181"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
       </c>
@@ -9226,7 +9219,7 @@
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="190"/>
-      <c r="M42" s="191"/>
+      <c r="M42" s="189"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -9236,10 +9229,10 @@
         <f>I42+J42</f>
         <v>1</v>
       </c>
-      <c r="Q42" s="189"/>
+      <c r="Q42" s="188"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="182"/>
+      <c r="A43" s="181"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
       </c>
@@ -9271,7 +9264,7 @@
       </c>
       <c r="K43" s="41"/>
       <c r="L43" s="190"/>
-      <c r="M43" s="191"/>
+      <c r="M43" s="189"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -9281,10 +9274,10 @@
         <f>I43+J43</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q43" s="189"/>
+      <c r="Q43" s="188"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="182"/>
+      <c r="A44" s="181"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
       <c r="D44" s="41"/>
@@ -9303,7 +9296,7 @@
       <c r="Q44" s="94"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
+      <c r="A45" s="181"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
       </c>
@@ -9337,7 +9330,7 @@
         <f>I45+I46+I47+I48</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M45" s="191">
+      <c r="M45" s="189">
         <f>J45+J46+J47+J48</f>
         <v>2.604166666666667</v>
       </c>
@@ -9350,13 +9343,13 @@
         <f>I45+J45</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q45" s="189">
+      <c r="Q45" s="188">
         <f>L45+M45</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="182"/>
+      <c r="A46" s="181"/>
       <c r="B46" s="118" t="s">
         <v>2</v>
       </c>
@@ -9388,7 +9381,7 @@
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="190"/>
-      <c r="M46" s="191"/>
+      <c r="M46" s="189"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -9398,10 +9391,10 @@
         <f>I46+J46</f>
         <v>1</v>
       </c>
-      <c r="Q46" s="189"/>
+      <c r="Q46" s="188"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="182"/>
+      <c r="A47" s="181"/>
       <c r="B47" s="86" t="s">
         <v>2</v>
       </c>
@@ -9433,7 +9426,7 @@
       </c>
       <c r="K47" s="41"/>
       <c r="L47" s="190"/>
-      <c r="M47" s="191"/>
+      <c r="M47" s="189"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -9443,10 +9436,10 @@
         <f>I47+J47</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="189"/>
+      <c r="Q47" s="188"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182"/>
+      <c r="A48" s="181"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
       </c>
@@ -9478,7 +9471,7 @@
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="190"/>
-      <c r="M48" s="191"/>
+      <c r="M48" s="189"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -9488,10 +9481,10 @@
         <f>I48+J48</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q48" s="189"/>
+      <c r="Q48" s="188"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="183"/>
+      <c r="A49" s="182"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="55"/>
@@ -9530,17 +9523,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F29:L33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="Q35:Q38"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="M45:M48"/>
-    <mergeCell ref="Q45:Q48"/>
     <mergeCell ref="Q13:Q16"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="F7:L11"/>
@@ -9553,6 +9535,17 @@
     <mergeCell ref="L23:L26"/>
     <mergeCell ref="M23:M26"/>
     <mergeCell ref="Q23:Q26"/>
+    <mergeCell ref="F29:L33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="Q35:Q38"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="M45:M48"/>
+    <mergeCell ref="Q45:Q48"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9567,8 +9560,8 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9712,10 +9705,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="174" t="s">
+      <c r="E5" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="174"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -9752,15 +9745,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="176"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -9770,13 +9763,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -9786,13 +9779,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="180"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -9803,13 +9796,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="180"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="179"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -9820,13 +9813,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -9834,7 +9827,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="180" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="85"/>
@@ -9855,7 +9848,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -9889,7 +9882,7 @@
         <f>I13+I14+I15+I16</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="M13" s="191">
+      <c r="M13" s="189">
         <f>J13+J14+J15+J16</f>
         <v>2.7083333333333335</v>
       </c>
@@ -9902,7 +9895,7 @@
         <f>I13+J13</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="Q13" s="189">
+      <c r="Q13" s="188">
         <f>L13+M13</f>
         <v>2.916666666666667</v>
       </c>
@@ -9914,7 +9907,7 @@
       <c r="Y13" s="131"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
+      <c r="A14" s="181"/>
       <c r="B14" s="118" t="s">
         <v>2</v>
       </c>
@@ -9946,7 +9939,7 @@
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="190"/>
-      <c r="M14" s="191"/>
+      <c r="M14" s="189"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -9956,10 +9949,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="189"/>
+      <c r="Q14" s="188"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
+      <c r="A15" s="181"/>
       <c r="B15" s="118" t="s">
         <v>2</v>
       </c>
@@ -9991,7 +9984,7 @@
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="190"/>
-      <c r="M15" s="191"/>
+      <c r="M15" s="189"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -10001,10 +9994,10 @@
         <f>I15+J15</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="189"/>
+      <c r="Q15" s="188"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
+      <c r="A16" s="181"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -10035,7 +10028,7 @@
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="190"/>
-      <c r="M16" s="191"/>
+      <c r="M16" s="189"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -10045,10 +10038,10 @@
         <f>I16+J16</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q16" s="189"/>
+      <c r="Q16" s="188"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
+      <c r="A17" s="181"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
       <c r="D17" s="41"/>
@@ -10067,7 +10060,7 @@
       <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="182"/>
+      <c r="A18" s="181"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -10101,7 +10094,7 @@
         <f>I18+I19+I20+I21</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M18" s="191">
+      <c r="M18" s="189">
         <f>J18+J19+J20+J21</f>
         <v>2.416666666666667</v>
       </c>
@@ -10114,13 +10107,13 @@
         <f>I18+J18</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q18" s="189">
+      <c r="Q18" s="188">
         <f>L18+M18</f>
         <v>3.2083333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182"/>
+      <c r="A19" s="181"/>
       <c r="B19" s="118" t="s">
         <v>2</v>
       </c>
@@ -10152,7 +10145,7 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="190"/>
-      <c r="M19" s="191"/>
+      <c r="M19" s="189"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -10162,10 +10155,10 @@
         <f>I19+J19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="189"/>
+      <c r="Q19" s="188"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
+      <c r="A20" s="181"/>
       <c r="B20" s="118" t="s">
         <v>2</v>
       </c>
@@ -10197,7 +10190,7 @@
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="190"/>
-      <c r="M20" s="191"/>
+      <c r="M20" s="189"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -10207,10 +10200,10 @@
         <f>I20+J20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="189"/>
+      <c r="Q20" s="188"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="182"/>
+      <c r="A21" s="181"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -10241,7 +10234,7 @@
       </c>
       <c r="K21" s="41"/>
       <c r="L21" s="190"/>
-      <c r="M21" s="191"/>
+      <c r="M21" s="189"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -10251,10 +10244,10 @@
         <f>I21+J21</f>
         <v>0.625</v>
       </c>
-      <c r="Q21" s="189"/>
+      <c r="Q21" s="188"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="182"/>
+      <c r="A22" s="181"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
       <c r="D22" s="41"/>
@@ -10273,7 +10266,7 @@
       <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
+      <c r="A23" s="181"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -10307,7 +10300,7 @@
         <f>I23+I24+I25+I26</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M23" s="191">
+      <c r="M23" s="189">
         <f>J23+J24+J25+J26</f>
         <v>2.416666666666667</v>
       </c>
@@ -10320,13 +10313,13 @@
         <f>I23+J23</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q23" s="189">
+      <c r="Q23" s="188">
         <f>L23+M23</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182"/>
+      <c r="A24" s="181"/>
       <c r="B24" s="118" t="s">
         <v>2</v>
       </c>
@@ -10358,7 +10351,7 @@
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="190"/>
-      <c r="M24" s="191"/>
+      <c r="M24" s="189"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -10368,10 +10361,10 @@
         <f>I24+J24</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="189"/>
+      <c r="Q24" s="188"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="182"/>
+      <c r="A25" s="181"/>
       <c r="B25" s="118" t="s">
         <v>2</v>
       </c>
@@ -10403,7 +10396,7 @@
       </c>
       <c r="K25" s="41"/>
       <c r="L25" s="190"/>
-      <c r="M25" s="191"/>
+      <c r="M25" s="189"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -10413,10 +10406,10 @@
         <f>I25+J25</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="189"/>
+      <c r="Q25" s="188"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="182"/>
+      <c r="A26" s="181"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
       </c>
@@ -10447,7 +10440,7 @@
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="190"/>
-      <c r="M26" s="191"/>
+      <c r="M26" s="189"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -10457,10 +10450,10 @@
         <f>I26+J26</f>
         <v>0.75</v>
       </c>
-      <c r="Q26" s="189"/>
+      <c r="Q26" s="188"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="183"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
       <c r="D27" s="55"/>
@@ -10500,15 +10493,15 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="175" t="s">
+      <c r="F29" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="177"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="176"/>
       <c r="M29" s="104"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
@@ -10518,13 +10511,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="180"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="179"/>
       <c r="M30" s="104"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
@@ -10534,13 +10527,13 @@
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="180"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="179"/>
       <c r="M31" s="109"/>
       <c r="N31" s="8"/>
       <c r="O31" s="12"/>
@@ -10551,13 +10544,13 @@
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="180"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="179"/>
       <c r="M32" s="109"/>
       <c r="N32" s="8"/>
       <c r="O32" s="12"/>
@@ -10568,13 +10561,13 @@
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="186"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="185"/>
       <c r="M33" s="109"/>
       <c r="N33" s="8"/>
       <c r="O33" s="12"/>
@@ -10582,7 +10575,7 @@
       <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="180" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="30"/>
@@ -10603,7 +10596,7 @@
       <c r="Q34" s="93"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="182"/>
+      <c r="A35" s="181"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -10637,7 +10630,7 @@
         <f>I35+I36+I37+I38</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M35" s="191">
+      <c r="M35" s="189">
         <f>J35+J36+J37+J38</f>
         <v>2.4583333333333339</v>
       </c>
@@ -10650,13 +10643,13 @@
         <f>I35+J35</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q35" s="189">
+      <c r="Q35" s="188">
         <f>L35+M35</f>
         <v>3.291666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182"/>
+      <c r="A36" s="181"/>
       <c r="B36" s="118" t="s">
         <v>2</v>
       </c>
@@ -10688,7 +10681,7 @@
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="190"/>
-      <c r="M36" s="191"/>
+      <c r="M36" s="189"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -10698,10 +10691,10 @@
         <f>I36+J36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="189"/>
+      <c r="Q36" s="188"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="182"/>
+      <c r="A37" s="181"/>
       <c r="B37" s="118" t="s">
         <v>2</v>
       </c>
@@ -10733,7 +10726,7 @@
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="190"/>
-      <c r="M37" s="191"/>
+      <c r="M37" s="189"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -10743,10 +10736,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="189"/>
+      <c r="Q37" s="188"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="182"/>
+      <c r="A38" s="181"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -10778,7 +10771,7 @@
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="190"/>
-      <c r="M38" s="191"/>
+      <c r="M38" s="189"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -10788,10 +10781,10 @@
         <f>I38+J38</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q38" s="189"/>
+      <c r="Q38" s="188"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="182"/>
+      <c r="A39" s="181"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -10810,7 +10803,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
+      <c r="A40" s="181"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -10844,7 +10837,7 @@
         <f>I40+I41+I42+I43</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M40" s="191">
+      <c r="M40" s="189">
         <f>J40+J41+J42+J43</f>
         <v>2.5000000000000004</v>
       </c>
@@ -10857,13 +10850,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="189">
+      <c r="Q40" s="188">
         <f>L40+M40</f>
         <v>3.541666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="182"/>
+      <c r="A41" s="181"/>
       <c r="B41" s="118" t="s">
         <v>2</v>
       </c>
@@ -10895,7 +10888,7 @@
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="190"/>
-      <c r="M41" s="191"/>
+      <c r="M41" s="189"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -10905,10 +10898,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="189"/>
+      <c r="Q41" s="188"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="182"/>
+      <c r="A42" s="181"/>
       <c r="B42" s="118" t="s">
         <v>2</v>
       </c>
@@ -10940,7 +10933,7 @@
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="190"/>
-      <c r="M42" s="191"/>
+      <c r="M42" s="189"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -10950,10 +10943,10 @@
         <f>I42+J42</f>
         <v>1</v>
       </c>
-      <c r="Q42" s="189"/>
+      <c r="Q42" s="188"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="182"/>
+      <c r="A43" s="181"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
       </c>
@@ -10985,7 +10978,7 @@
       </c>
       <c r="K43" s="41"/>
       <c r="L43" s="190"/>
-      <c r="M43" s="191"/>
+      <c r="M43" s="189"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -10995,10 +10988,10 @@
         <f>I43+J43</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q43" s="189"/>
+      <c r="Q43" s="188"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="182"/>
+      <c r="A44" s="181"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
       <c r="D44" s="41"/>
@@ -11017,7 +11010,7 @@
       <c r="Q44" s="94"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
+      <c r="A45" s="181"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
       </c>
@@ -11051,7 +11044,7 @@
         <f>I45+I46+I47+I48</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M45" s="191">
+      <c r="M45" s="189">
         <f>J45+J46+J47+J48</f>
         <v>2.604166666666667</v>
       </c>
@@ -11064,13 +11057,13 @@
         <f>I45+J45</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q45" s="189">
+      <c r="Q45" s="188">
         <f>L45+M45</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="182"/>
+      <c r="A46" s="181"/>
       <c r="B46" s="118" t="s">
         <v>2</v>
       </c>
@@ -11102,7 +11095,7 @@
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="190"/>
-      <c r="M46" s="191"/>
+      <c r="M46" s="189"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -11112,10 +11105,10 @@
         <f>I46+J46</f>
         <v>1</v>
       </c>
-      <c r="Q46" s="189"/>
+      <c r="Q46" s="188"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="182"/>
+      <c r="A47" s="181"/>
       <c r="B47" s="118" t="s">
         <v>2</v>
       </c>
@@ -11147,7 +11140,7 @@
       </c>
       <c r="K47" s="41"/>
       <c r="L47" s="190"/>
-      <c r="M47" s="191"/>
+      <c r="M47" s="189"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -11157,10 +11150,10 @@
         <f>I47+J47</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="189"/>
+      <c r="Q47" s="188"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182"/>
+      <c r="A48" s="181"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
       </c>
@@ -11192,7 +11185,7 @@
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="190"/>
-      <c r="M48" s="191"/>
+      <c r="M48" s="189"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -11202,10 +11195,10 @@
         <f>I48+J48</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q48" s="189"/>
+      <c r="Q48" s="188"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="183"/>
+      <c r="A49" s="182"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="55"/>
@@ -11244,6 +11237,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="Q23:Q26"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F7:L11"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="M23:M26"/>
     <mergeCell ref="F29:L33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="L35:L38"/>
@@ -11255,18 +11260,6 @@
     <mergeCell ref="L45:L48"/>
     <mergeCell ref="M45:M48"/>
     <mergeCell ref="Q45:Q48"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="F7:L11"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="Q23:Q26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11275,11 +11268,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22:G22"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11497,10 +11490,10 @@
       <c r="D8" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="174"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="68" t="s">
         <v>17</v>
       </c>
@@ -11509,51 +11502,51 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G11" s="175" t="s">
+      <c r="G11" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="177"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="176"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G12" s="178"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="180"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="179"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G13" s="178"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="180"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="179"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G14" s="178"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="180"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="179"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G15" s="178"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="180"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="179"/>
     </row>
     <row r="16" spans="1:25" s="133" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="134"/>
@@ -11588,11 +11581,11 @@
       <c r="Y16" s="135"/>
     </row>
     <row r="17" spans="1:24" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="193"/>
-      <c r="C17" s="194"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="193"/>
       <c r="D17" s="138">
         <f>G2</f>
         <v>0.5</v>
@@ -11615,17 +11608,17 @@
         <f t="shared" si="0"/>
         <v>0.54166666666424135</v>
       </c>
-      <c r="J17" s="161">
-        <f>((Q17-2)*$A$4)+(($A$3-H17)+(I17-$A$2))</f>
-        <v>0.12499999999999994</v>
+      <c r="J17" s="194">
+        <f>IF(H17&gt;$A$2,((Q17-2)*$A$4)+($A$3-H17)+(I17-$A$2),((Q17-2)*$A$4)+(($A$3-H17)+(I17-$A$2))-($A$2-H17))</f>
+        <v>4.1666666664241292E-2</v>
       </c>
       <c r="K17" s="143">
-        <f>IF(U17&lt;&gt;V17,(D17)+((Q17-2)*$A$5)+(IF(I17&gt;$A$3,I17-$A$3,0))+(G17)+(T17),IF(I17&gt;$A$3,I17-A3,IF(H17&lt;$A$2,A2-H17,0)))</f>
+        <f>IF(U17&lt;&gt;V17,(D17)+((Q17-2)*$A$5)+(IF(I17&gt;$A$3,I17-$A$3,0))+(G17)+(T17),IF(I17&gt;$A$3,I17-$A$3,IF(H17&lt;$A$2,$A$2-H17,0)))</f>
         <v>8.3333333335758653E-2</v>
       </c>
       <c r="L17" s="146">
         <f t="shared" ref="L17:M19" si="1">J17</f>
-        <v>0.12499999999999994</v>
+        <v>4.1666666664241292E-2</v>
       </c>
       <c r="M17" s="145">
         <f t="shared" si="1"/>
@@ -11633,14 +11626,14 @@
       </c>
       <c r="N17" s="159">
         <f>J17/O17 *100</f>
-        <v>99.999999999999957</v>
+        <v>33.333333331393035</v>
       </c>
       <c r="O17" s="144">
-        <f>F17-E17</f>
+        <f t="shared" ref="O17:O23" si="2">F17-E17</f>
         <v>0.125</v>
       </c>
       <c r="P17" s="142">
-        <f>F17-E17</f>
+        <f t="shared" ref="P17:P23" si="3">F17-E17</f>
         <v>0.125</v>
       </c>
       <c r="Q17" s="141">
@@ -11648,34 +11641,34 @@
         <v>1</v>
       </c>
       <c r="R17" s="145">
-        <f>Q17</f>
+        <f t="shared" ref="R17:R23" si="4">Q17</f>
         <v>1</v>
       </c>
       <c r="S17" s="139">
-        <f t="shared" ref="S17:S19" si="2">((_xlfn.DAYS(V17,U17)+1)-Q17)</f>
+        <f t="shared" ref="S17:S19" si="5">((_xlfn.DAYS(V17,U17)+1)-Q17)</f>
         <v>0</v>
       </c>
       <c r="T17" s="144">
-        <f>S17</f>
+        <f t="shared" ref="T17:T23" si="6">S17</f>
         <v>0</v>
       </c>
       <c r="U17" s="140">
-        <f t="shared" ref="U17:V19" si="3">DATE(YEAR(E17),MONTH(E17),DAY(E17))</f>
+        <f t="shared" ref="U17:V19" si="7">DATE(YEAR(E17),MONTH(E17),DAY(E17))</f>
         <v>42975</v>
       </c>
       <c r="V17" s="140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42975</v>
       </c>
       <c r="W17" s="140"/>
       <c r="X17" s="140"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="193"/>
-      <c r="C18" s="194"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="193"/>
       <c r="D18" s="138">
         <v>0.5</v>
       </c>
@@ -11697,12 +11690,13 @@
         <f t="shared" si="0"/>
         <v>0.83333333333575865</v>
       </c>
-      <c r="J18" s="143">
-        <f>IF(($A$3-H18)+(I18-$A$2)&gt;$A$4,((Q18-2)*$A$4)+(($A$3-H18)+(I18-$A$2)),($A$3-H18)+(I18-$A$2))</f>
+      <c r="J18" s="194">
+        <f>IF(H18&gt;$A$2,((Q18-2)*$A$4)+($A$3-H18)+(I18-$A$2),((Q18-2)*$A$4)+(($A$3-H18)+(I18-$A$2))-($A$2-H18))</f>
         <v>0.83333333333333326</v>
       </c>
       <c r="K18" s="143">
-        <v>0.41666666666666669</v>
+        <f t="shared" ref="K18:K23" si="8">IF(U18&lt;&gt;V18,(D18)+((Q18-2)*$A$5)+(IF(I18&gt;$A$3,I18-$A$3,0))+(G18)+(T18),IF(I18&gt;$A$3,I18-$A$3,IF(H18&lt;$A$2,$A$2-H18,0)))</f>
+        <v>1.4583333333357591</v>
       </c>
       <c r="L18" s="146">
         <f t="shared" si="1"/>
@@ -11710,18 +11704,18 @@
       </c>
       <c r="M18" s="145">
         <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
+        <v>1.4583333333357591</v>
       </c>
       <c r="N18" s="159">
         <f>J18/O18 *100</f>
         <v>37.037037037037038</v>
       </c>
       <c r="O18" s="144">
-        <f>F18-E18</f>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="P18" s="142">
-        <f>F18-E18</f>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
       <c r="Q18" s="141">
@@ -11729,33 +11723,33 @@
         <v>3</v>
       </c>
       <c r="R18" s="145">
-        <f>Q18</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S18" s="139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T18" s="144">
-        <f>S18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U18" s="140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42975</v>
       </c>
       <c r="V18" s="140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42977</v>
       </c>
       <c r="W18" s="132"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="192" t="s">
+      <c r="A19" s="191" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="193"/>
-      <c r="C19" s="194"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="193"/>
       <c r="D19" s="157">
         <v>0.5</v>
       </c>
@@ -11777,32 +11771,32 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="J19" s="143">
-        <f>IF(($A$3-H19)+(I19-$A$2)&gt;$A$4,((Q19-2)*$A$4)+(($A$3-H19)+(I19-$A$2)),($A$3-H19)+(I19-$A$2))</f>
-        <v>1.0833333333357587</v>
+      <c r="J19" s="194">
+        <f>IF(H19&gt;$A$2,((Q19-2)*$A$4)+($A$3-H19)+(I19-$A$2),((Q19-2)*$A$4)+(($A$3-H19)+(I19-$A$2))-($A$2-H19))</f>
+        <v>1</v>
       </c>
       <c r="K19" s="143">
-        <f t="shared" ref="K19:K21" si="4">IF(U19&lt;&gt;V19,(D19)+((Q19-2)*$A$5)+(IF(I19&gt;$A$3,I19-$A$3,0))+(G19)+(T19),IF(I19&gt;$A$3,I19-A5,0))</f>
+        <f t="shared" si="8"/>
         <v>2.125</v>
       </c>
       <c r="L19" s="146">
         <f t="shared" si="1"/>
-        <v>1.0833333333357587</v>
+        <v>1</v>
       </c>
       <c r="M19" s="145">
         <f t="shared" si="1"/>
         <v>2.125</v>
       </c>
       <c r="N19" s="159">
-        <f t="shared" ref="N19:N21" si="5">J19/O19 *100</f>
-        <v>33.76623376628384</v>
+        <f t="shared" ref="N19:N21" si="9">J19/O19 *100</f>
+        <v>31.168831168807611</v>
       </c>
       <c r="O19" s="144">
-        <f>F19-E19</f>
+        <f t="shared" si="2"/>
         <v>3.2083333333357587</v>
       </c>
       <c r="P19" s="142">
-        <f>F19-E19</f>
+        <f t="shared" si="3"/>
         <v>3.2083333333357587</v>
       </c>
       <c r="Q19" s="141">
@@ -11810,32 +11804,32 @@
         <v>4</v>
       </c>
       <c r="R19" s="145">
-        <f>Q19</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="S19" s="139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T19" s="144">
-        <f>S19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U19" s="140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42975</v>
       </c>
       <c r="V19" s="140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42978</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="192" t="s">
+      <c r="A20" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="193"/>
-      <c r="C20" s="194"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="193"/>
       <c r="D20" s="157">
         <v>0.5</v>
       </c>
@@ -11849,39 +11843,39 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="H20" s="148">
-        <f t="shared" ref="H20:H21" si="6">MOD(E20,1)</f>
+        <f t="shared" ref="H20:H21" si="10">MOD(E20,1)</f>
         <v>0.64583333333575865</v>
       </c>
       <c r="I20" s="148">
-        <f t="shared" ref="I20:I21" si="7">MOD(F20,1)</f>
+        <f t="shared" ref="I20:I21" si="11">MOD(F20,1)</f>
         <v>0.66666666666424135</v>
       </c>
-      <c r="J20" s="143">
-        <f>IF(($A$3-H20)+(I20-$A$2)&gt;$A$4,((Q20-2)*$A$4)+(($A$3-H20)+(I20-$A$2)),($A$3-H20)+(I20-$A$2))</f>
+      <c r="J20" s="194">
+        <f>IF(H20&gt;$A$2,((Q20-2)*$A$4)+($A$3-H20)+(I20-$A$2),((Q20-2)*$A$4)+(($A$3-H20)+(I20-$A$2))-($A$2-H20))</f>
         <v>0.60416666666181595</v>
       </c>
       <c r="K20" s="143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.416666666666667</v>
       </c>
       <c r="L20" s="146">
-        <f t="shared" ref="L20" si="8">J20</f>
+        <f t="shared" ref="L20" si="12">J20</f>
         <v>0.60416666666181595</v>
       </c>
       <c r="M20" s="145">
-        <f t="shared" ref="M20" si="9">K20</f>
+        <f t="shared" ref="M20" si="13">K20</f>
         <v>2.416666666666667</v>
       </c>
       <c r="N20" s="159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>19.999999999871541</v>
       </c>
       <c r="O20" s="144">
-        <f>F20-E20</f>
+        <f t="shared" si="2"/>
         <v>3.0208333333284827</v>
       </c>
       <c r="P20" s="142">
-        <f>F20-E20</f>
+        <f t="shared" si="3"/>
         <v>3.0208333333284827</v>
       </c>
       <c r="Q20" s="141">
@@ -11889,7 +11883,7 @@
         <v>3</v>
       </c>
       <c r="R20" s="145">
-        <f>Q20</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S20" s="139">
@@ -11897,24 +11891,24 @@
         <v>1</v>
       </c>
       <c r="T20" s="144">
-        <f>S20</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U20" s="140">
-        <f t="shared" ref="U20" si="10">DATE(YEAR(E20),MONTH(E20),DAY(E20))</f>
+        <f t="shared" ref="U20" si="14">DATE(YEAR(E20),MONTH(E20),DAY(E20))</f>
         <v>42982</v>
       </c>
       <c r="V20" s="140">
-        <f t="shared" ref="V20" si="11">DATE(YEAR(F20),MONTH(F20),DAY(F20))</f>
+        <f t="shared" ref="V20" si="15">DATE(YEAR(F20),MONTH(F20),DAY(F20))</f>
         <v>42985</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="194"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="193"/>
       <c r="D21" s="157">
         <v>0.5</v>
       </c>
@@ -11928,39 +11922,39 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="H21" s="158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.66666666666424135</v>
       </c>
       <c r="I21" s="158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.58333333333575865</v>
       </c>
-      <c r="J21" s="143">
-        <f>IF(($A$3-H21)+(I21-$A$2)&gt;$A$4,((Q21-2)*$A$4)+(($A$3-H21)+(I21-$A$2)),($A$3-H21)+(I21-$A$2))</f>
+      <c r="J21" s="194">
+        <f>IF(H21&gt;$A$2,((Q21-2)*$A$4)+($A$3-H21)+(I21-$A$2),((Q21-2)*$A$4)+(($A$3-H21)+(I21-$A$2))-($A$2-H21))</f>
         <v>0.20833333333818393</v>
       </c>
       <c r="K21" s="143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7083333333333335</v>
       </c>
       <c r="L21" s="146">
-        <f t="shared" ref="L21" si="12">J21</f>
+        <f t="shared" ref="L21" si="16">J21</f>
         <v>0.20833333333818393</v>
       </c>
       <c r="M21" s="145">
-        <f t="shared" ref="M21" si="13">K21</f>
+        <f t="shared" ref="M21" si="17">K21</f>
         <v>2.7083333333333335</v>
       </c>
       <c r="N21" s="160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1428571430115699</v>
       </c>
       <c r="O21" s="144">
-        <f>F21-E21</f>
+        <f t="shared" si="2"/>
         <v>2.9166666666715173</v>
       </c>
       <c r="P21" s="142">
-        <f>F21-E21</f>
+        <f t="shared" si="3"/>
         <v>2.9166666666715173</v>
       </c>
       <c r="Q21" s="141">
@@ -11968,7 +11962,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="145">
-        <f>Q21</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S21" s="139">
@@ -11976,24 +11970,24 @@
         <v>2</v>
       </c>
       <c r="T21" s="144">
-        <f>S21</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U21" s="140">
-        <f t="shared" ref="U21" si="14">DATE(YEAR(E21),MONTH(E21),DAY(E21))</f>
+        <f t="shared" ref="U21" si="18">DATE(YEAR(E21),MONTH(E21),DAY(E21))</f>
         <v>42986</v>
       </c>
       <c r="V21" s="140">
-        <f t="shared" ref="V21" si="15">DATE(YEAR(F21),MONTH(F21),DAY(F21))</f>
+        <f t="shared" ref="V21" si="19">DATE(YEAR(F21),MONTH(F21),DAY(F21))</f>
         <v>42989</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="194"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
       <c r="D22" s="157">
         <v>0.5</v>
       </c>
@@ -12007,39 +12001,39 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="H22" s="158">
-        <f t="shared" ref="H22" si="16">MOD(E22,1)</f>
+        <f t="shared" ref="H22:H23" si="20">MOD(E22,1)</f>
         <v>0.5</v>
       </c>
       <c r="I22" s="158">
-        <f t="shared" ref="I22" si="17">MOD(F22,1)</f>
+        <f t="shared" ref="I22:I23" si="21">MOD(F22,1)</f>
         <v>0.83333333333575865</v>
       </c>
-      <c r="J22" s="143">
-        <f>IF(($A$3-H22)+(I22-$A$2)&gt;$A$4,((Q22-2)*$A$4)+(($A$3-H22)+(I22-$A$2)),($A$3-H22)+(I22-$A$2))</f>
+      <c r="J22" s="194">
+        <f>IF(H22&gt;$A$2,((Q22-2)*$A$4)+($A$3-H22)+(I22-$A$2),((Q22-2)*$A$4)+(($A$3-H22)+(I22-$A$2))-($A$2-H22))</f>
         <v>0.3333333333357586</v>
       </c>
       <c r="K22" s="143">
-        <f t="shared" ref="K22" si="18">IF(U22&lt;&gt;V22,(D22)+((Q22-2)*$A$5)+(IF(I22&gt;$A$3,I22-$A$3,0))+(G22)+(T22),IF(I22&gt;$A$3,I22-A8,0))</f>
-        <v>0.83333333333575865</v>
+        <f t="shared" si="8"/>
+        <v>4.1666666669092023E-2</v>
       </c>
       <c r="L22" s="146">
-        <f t="shared" ref="L22" si="19">J22</f>
+        <f t="shared" ref="L22" si="22">J22</f>
         <v>0.3333333333357586</v>
       </c>
       <c r="M22" s="145">
-        <f t="shared" ref="M22" si="20">K22</f>
-        <v>0.83333333333575865</v>
+        <f t="shared" ref="M22" si="23">K22</f>
+        <v>4.1666666669092023E-2</v>
       </c>
       <c r="N22" s="160">
-        <f t="shared" ref="N22" si="21">J22/O22 *100</f>
+        <f t="shared" ref="N22" si="24">J22/O22 *100</f>
         <v>99.999999999999986</v>
       </c>
       <c r="O22" s="144">
-        <f>F22-E22</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333575865</v>
       </c>
       <c r="P22" s="142">
-        <f>F22-E22</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333575865</v>
       </c>
       <c r="Q22" s="141">
@@ -12047,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="145">
-        <f>Q22</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S22" s="139">
@@ -12055,20 +12049,100 @@
         <v>0</v>
       </c>
       <c r="T22" s="144">
-        <f>S22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U22" s="140">
-        <f t="shared" ref="U22" si="22">DATE(YEAR(E22),MONTH(E22),DAY(E22))</f>
+        <f t="shared" ref="U22:U23" si="25">DATE(YEAR(E22),MONTH(E22),DAY(E22))</f>
         <v>42975</v>
       </c>
       <c r="V22" s="140">
-        <f t="shared" ref="V22" si="23">DATE(YEAR(F22),MONTH(F22),DAY(F22))</f>
+        <f t="shared" ref="V22:V23" si="26">DATE(YEAR(F22),MONTH(F22),DAY(F22))</f>
         <v>42975</v>
       </c>
     </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="191" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="192"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="128">
+        <v>42975.416666666664</v>
+      </c>
+      <c r="F23" s="128">
+        <v>42975.979166666664</v>
+      </c>
+      <c r="G23" s="157">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H23" s="158">
+        <f t="shared" si="20"/>
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="I23" s="158">
+        <f t="shared" si="21"/>
+        <v>0.97916666666424135</v>
+      </c>
+      <c r="J23" s="194">
+        <f>IF(H23&gt;$A$2,((Q23-2)*$A$4)+($A$3-H23)+(I23-$A$2),((Q23-2)*$A$4)+(($A$3-H23)+(I23-$A$2))-($A$2-H23))</f>
+        <v>0.47916666666424135</v>
+      </c>
+      <c r="K23" s="143">
+        <f t="shared" si="8"/>
+        <v>0.18749999999757472</v>
+      </c>
+      <c r="L23" s="146">
+        <f t="shared" ref="L23" si="27">J23</f>
+        <v>0.47916666666424135</v>
+      </c>
+      <c r="M23" s="145">
+        <f t="shared" ref="M23" si="28">K23</f>
+        <v>0.18749999999757472</v>
+      </c>
+      <c r="N23" s="160">
+        <f t="shared" ref="N23" si="29">J23/O23 *100</f>
+        <v>85.185185184754019</v>
+      </c>
+      <c r="O23" s="144">
+        <f t="shared" ref="O23" si="30">F23-E23</f>
+        <v>0.5625</v>
+      </c>
+      <c r="P23" s="142">
+        <f t="shared" ref="P23" si="31">F23-E23</f>
+        <v>0.5625</v>
+      </c>
+      <c r="Q23" s="141">
+        <f>(NETWORKDAYS.INTL(E23,F23,"0000011",Plan2!A5))</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="145">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="139">
+        <f>((_xlfn.DAYS(V23,U23)+1)-Q23)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="144">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="140">
+        <f t="shared" ref="U23" si="32">DATE(YEAR(E23),MONTH(E23),DAY(E23))</f>
+        <v>42975</v>
+      </c>
+      <c r="V23" s="140">
+        <f t="shared" ref="V23" si="33">DATE(YEAR(F23),MONTH(F23),DAY(F23))</f>
+        <v>42975</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>

--- a/Banco de Dados de PADS/CALCULOS DE LEADTIME.xlsx
+++ b/Banco de Dados de PADS/CALCULOS DE LEADTIME.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7395" tabRatio="819" firstSheet="3" activeTab="7"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7395" tabRatio="819" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PREMISSAS" sheetId="5" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="CENARIOS C - D1-D3" sheetId="7" r:id="rId4"/>
     <sheet name="CENARIOS D - D1-D4" sheetId="8" r:id="rId5"/>
     <sheet name="CENARIOS E - D1-D4 FERIADO" sheetId="9" r:id="rId6"/>
-    <sheet name="CENARIOS F - D1-D4 FDS" sheetId="10" r:id="rId7"/>
-    <sheet name="CALCULO CT_LT" sheetId="11" r:id="rId8"/>
+    <sheet name="CALCULO CT_LT" sheetId="11" r:id="rId7"/>
+    <sheet name="CENARIOS F - D1-D4 FDS" sheetId="10" r:id="rId8"/>
     <sheet name="Plan2" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -2087,6 +2087,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="22" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2171,12 +2172,12 @@
     <xf numFmtId="164" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2186,7 +2187,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2484,293 +2484,293 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="173"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="164"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="166"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="167"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="164"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="166"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="167"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="164"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="166"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="164"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="166"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="167"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="164"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="166"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="167"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="164"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="166"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="167"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="164"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="166"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="167"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="164"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="166"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="167"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="164"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="166"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="167"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="166"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="167"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="166"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="166"/>
+      <c r="N14" s="167"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="164"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="166"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="167"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="164"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="166"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="167"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="166"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="167"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="166"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="167"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="164"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="166"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="167"/>
     </row>
     <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="167"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="169"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2897,10 +2897,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -2934,15 +2934,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
     </row>
@@ -2950,13 +2950,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
     </row>
@@ -2964,13 +2964,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -2980,13 +2980,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -2996,20 +2996,20 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="181" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="85"/>
@@ -3029,7 +3029,7 @@
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -3077,7 +3077,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="87"/>
       <c r="C14" s="48"/>
       <c r="D14" s="41"/>
@@ -3095,7 +3095,7 @@
       <c r="P14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="86"/>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
@@ -3158,7 +3158,7 @@
       <c r="P16" s="53"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
       </c>
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="61"/>
       <c r="C18" s="62"/>
       <c r="D18" s="55"/>
@@ -3243,15 +3243,15 @@
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="174" t="s">
+      <c r="F20" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="177"/>
       <c r="O20" s="12"/>
       <c r="P20" s="13"/>
     </row>
@@ -3259,13 +3259,13 @@
       <c r="B21" s="3"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="179"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="180"/>
       <c r="O21" s="12"/>
       <c r="P21" s="13"/>
     </row>
@@ -3273,13 +3273,13 @@
       <c r="B22" s="3"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="179"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="180"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="12"/>
@@ -3289,13 +3289,13 @@
       <c r="B23" s="3"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="179"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="180"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="12"/>
@@ -3305,20 +3305,20 @@
       <c r="B24" s="3"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="185"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="186"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="12"/>
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="180" t="s">
+      <c r="A25" s="181" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="30"/>
@@ -3338,7 +3338,7 @@
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="39" t="s">
         <v>2</v>
       </c>
@@ -3387,7 +3387,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="181"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="41"/>
@@ -3405,7 +3405,7 @@
       <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="181"/>
+      <c r="A28" s="182"/>
       <c r="B28" s="39" t="s">
         <v>2</v>
       </c>
@@ -3451,7 +3451,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="181"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41"/>
@@ -3469,7 +3469,7 @@
       <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
+      <c r="A30" s="182"/>
       <c r="B30" s="39" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3518,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="182"/>
+      <c r="A31" s="183"/>
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
       <c r="D31" s="55"/>
@@ -3707,10 +3707,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -3746,15 +3746,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="91"/>
@@ -3763,13 +3763,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="91"/>
@@ -3778,13 +3778,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -3795,13 +3795,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -3812,13 +3812,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -3826,7 +3826,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="181" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="85"/>
@@ -3847,7 +3847,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -3878,11 +3878,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="186">
+      <c r="L13" s="187">
         <f>I13+I14</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="M13" s="187">
+      <c r="M13" s="188">
         <f>J13+J14</f>
         <v>0.70833333333333337</v>
       </c>
@@ -3895,13 +3895,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="188">
+      <c r="Q13" s="189">
         <f>L13+M13</f>
         <v>0.9375</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
       </c>
@@ -3931,8 +3931,8 @@
         <v>0.5</v>
       </c>
       <c r="K14" s="41"/>
-      <c r="L14" s="186"/>
-      <c r="M14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -3942,10 +3942,10 @@
         <f>I14+J14</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q14" s="188"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="87"/>
       <c r="C15" s="48"/>
       <c r="D15" s="41"/>
@@ -3964,7 +3964,7 @@
       <c r="Q15" s="94"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -3995,11 +3995,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="186">
+      <c r="L16" s="187">
         <f>I16+I17</f>
         <v>0.49999999999999994</v>
       </c>
-      <c r="M16" s="187">
+      <c r="M16" s="188">
         <f>J16+J17</f>
         <v>0.70833333333333337</v>
       </c>
@@ -4012,13 +4012,13 @@
         <f>I16+J16</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q16" s="188">
+      <c r="Q16" s="189">
         <f>L16+M16</f>
         <v>1.2083333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
       </c>
@@ -4048,8 +4048,8 @@
         <v>0.5</v>
       </c>
       <c r="K17" s="41"/>
-      <c r="L17" s="186"/>
-      <c r="M17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="188"/>
       <c r="N17" s="41" t="e">
         <f>L17/M17</f>
         <v>#DIV/0!</v>
@@ -4059,10 +4059,10 @@
         <f>I17+J17</f>
         <v>0.625</v>
       </c>
-      <c r="Q17" s="188"/>
+      <c r="Q17" s="189"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="87"/>
       <c r="C18" s="48"/>
       <c r="D18" s="41"/>
@@ -4081,7 +4081,7 @@
       <c r="Q18" s="94"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
       </c>
@@ -4112,11 +4112,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="186">
+      <c r="L19" s="187">
         <f>I19+I20</f>
         <v>0.625</v>
       </c>
-      <c r="M19" s="187">
+      <c r="M19" s="188">
         <f>J19+J20</f>
         <v>0.70833333333333337</v>
       </c>
@@ -4129,13 +4129,13 @@
         <f>I19+J19</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q19" s="188">
+      <c r="Q19" s="189">
         <f>L19+M19</f>
         <v>1.3333333333333335</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
       </c>
@@ -4165,8 +4165,8 @@
         <v>0.5</v>
       </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="186"/>
-      <c r="M20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="188"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -4176,10 +4176,10 @@
         <f>I20+J20</f>
         <v>0.75</v>
       </c>
-      <c r="Q20" s="188"/>
+      <c r="Q20" s="189"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="61"/>
       <c r="C21" s="62"/>
       <c r="D21" s="55"/>
@@ -4218,15 +4218,15 @@
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="174" t="s">
+      <c r="F23" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="176"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="176"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
       <c r="O23" s="12"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="91"/>
@@ -4235,13 +4235,13 @@
       <c r="B24" s="3"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="179"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="180"/>
       <c r="O24" s="12"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="91"/>
@@ -4250,13 +4250,13 @@
       <c r="B25" s="3"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="179"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="180"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="12"/>
@@ -4267,13 +4267,13 @@
       <c r="B26" s="3"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="179"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="180"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="12"/>
@@ -4284,13 +4284,13 @@
       <c r="B27" s="3"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="185"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="186"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="12"/>
@@ -4298,7 +4298,7 @@
       <c r="Q27" s="91"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="180" t="s">
+      <c r="A28" s="181" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="30"/>
@@ -4319,7 +4319,7 @@
       <c r="Q28" s="93"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="181"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="86" t="s">
         <v>2</v>
       </c>
@@ -4350,11 +4350,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K29" s="41"/>
-      <c r="L29" s="186">
+      <c r="L29" s="187">
         <f>I29+I30</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M29" s="187">
+      <c r="M29" s="188">
         <f>J29+J30</f>
         <v>0.75000000000000011</v>
       </c>
@@ -4367,13 +4367,13 @@
         <f>I29+J29</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q29" s="188">
+      <c r="Q29" s="189">
         <f>L29+M29</f>
         <v>1.2916666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
+      <c r="A30" s="182"/>
       <c r="B30" s="86" t="s">
         <v>2</v>
       </c>
@@ -4404,8 +4404,8 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="K30" s="41"/>
-      <c r="L30" s="186"/>
-      <c r="M30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="188"/>
       <c r="N30" s="41" t="e">
         <f>L30/M30</f>
         <v>#DIV/0!</v>
@@ -4415,10 +4415,10 @@
         <f>I30+J30</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q30" s="188"/>
+      <c r="Q30" s="189"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="181"/>
+      <c r="A31" s="182"/>
       <c r="B31" s="87"/>
       <c r="C31" s="48"/>
       <c r="D31" s="41"/>
@@ -4437,7 +4437,7 @@
       <c r="Q31" s="94"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
+      <c r="A32" s="182"/>
       <c r="B32" s="86" t="s">
         <v>2</v>
       </c>
@@ -4468,11 +4468,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K32" s="41"/>
-      <c r="L32" s="186">
+      <c r="L32" s="187">
         <f>I32+I33</f>
         <v>0.75</v>
       </c>
-      <c r="M32" s="187">
+      <c r="M32" s="188">
         <f>J32+J33</f>
         <v>0.79166666666666674</v>
       </c>
@@ -4485,13 +4485,13 @@
         <f>I32+J32</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q32" s="188">
+      <c r="Q32" s="189">
         <f>L32+M32</f>
         <v>1.5416666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
+      <c r="A33" s="182"/>
       <c r="B33" s="86" t="s">
         <v>2</v>
       </c>
@@ -4522,8 +4522,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K33" s="41"/>
-      <c r="L33" s="186"/>
-      <c r="M33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="188"/>
       <c r="N33" s="41" t="e">
         <f>L33/M33</f>
         <v>#DIV/0!</v>
@@ -4533,10 +4533,10 @@
         <f>I33+J33</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q33" s="188"/>
+      <c r="Q33" s="189"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
+      <c r="A34" s="182"/>
       <c r="B34" s="87"/>
       <c r="C34" s="48"/>
       <c r="D34" s="41"/>
@@ -4555,7 +4555,7 @@
       <c r="Q34" s="94"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="181"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -4586,11 +4586,11 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="K35" s="41"/>
-      <c r="L35" s="186">
+      <c r="L35" s="187">
         <f>I35+I36</f>
         <v>0.85416666666666652</v>
       </c>
-      <c r="M35" s="187">
+      <c r="M35" s="188">
         <f>J35+J36</f>
         <v>0.89583333333333337</v>
       </c>
@@ -4603,13 +4603,13 @@
         <f>I35+J35</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q35" s="188">
+      <c r="Q35" s="189">
         <f>L35+M35</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
       </c>
@@ -4640,8 +4640,8 @@
         <v>0.6875</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="186"/>
-      <c r="M36" s="187"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="188"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -4651,10 +4651,10 @@
         <f>I36+J36</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q36" s="188"/>
+      <c r="Q36" s="189"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="182"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="62"/>
       <c r="C37" s="62"/>
       <c r="D37" s="55"/>
@@ -4693,29 +4693,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="F7:L11"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="F23:L27"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4730,8 +4730,8 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32:J34"/>
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4865,10 +4865,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -4905,15 +4905,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -4923,13 +4923,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -4939,13 +4939,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -4956,13 +4956,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -4973,13 +4973,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -4987,7 +4987,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="181" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="85"/>
@@ -5008,7 +5008,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -5042,7 +5042,7 @@
         <f>I13+I14+I15</f>
         <v>0.52083333333333326</v>
       </c>
-      <c r="M13" s="189">
+      <c r="M13" s="191">
         <f>J13+J14+J15</f>
         <v>1.4166666666666667</v>
       </c>
@@ -5055,13 +5055,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="188">
+      <c r="Q13" s="189">
         <f>L13+M13</f>
         <v>1.9375</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
       </c>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="190"/>
-      <c r="M14" s="189"/>
+      <c r="M14" s="191"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -5103,10 +5103,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="188"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="190"/>
-      <c r="M15" s="189"/>
+      <c r="M15" s="191"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -5147,10 +5147,10 @@
         <f>I15+J15</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q15" s="188"/>
+      <c r="Q15" s="189"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="87"/>
       <c r="C16" s="48"/>
       <c r="D16" s="41"/>
@@ -5169,7 +5169,7 @@
       <c r="Q16" s="94"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="86" t="s">
         <v>2</v>
       </c>
@@ -5203,7 +5203,7 @@
         <f>I17+I18+I19</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M17" s="189">
+      <c r="M17" s="191">
         <f>J17+J18+J19</f>
         <v>1.4166666666666667</v>
       </c>
@@ -5216,13 +5216,13 @@
         <f>I17+J17</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q17" s="188">
+      <c r="Q17" s="189">
         <f>L17+M17</f>
         <v>2.208333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="190"/>
-      <c r="M18" s="189"/>
+      <c r="M18" s="191"/>
       <c r="N18" s="41" t="e">
         <f>L18/M18</f>
         <v>#DIV/0!</v>
@@ -5264,10 +5264,10 @@
         <f>I18+J18</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="188"/>
+      <c r="Q18" s="189"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
       </c>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="190"/>
-      <c r="M19" s="189"/>
+      <c r="M19" s="191"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -5308,10 +5308,10 @@
         <f>I19+J19</f>
         <v>0.625</v>
       </c>
-      <c r="Q19" s="188"/>
+      <c r="Q19" s="189"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="87"/>
       <c r="C20" s="48"/>
       <c r="D20" s="41"/>
@@ -5330,7 +5330,7 @@
       <c r="Q20" s="94"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -5364,7 +5364,7 @@
         <f>I21+I22+I23</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M21" s="189">
+      <c r="M21" s="191">
         <f>J21+J22+J23</f>
         <v>1.4166666666666667</v>
       </c>
@@ -5377,13 +5377,13 @@
         <f>I21+J21</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q21" s="188">
+      <c r="Q21" s="189">
         <f>L21+M21</f>
         <v>2.333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="86" t="s">
         <v>2</v>
       </c>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="K22" s="41"/>
       <c r="L22" s="190"/>
-      <c r="M22" s="189"/>
+      <c r="M22" s="191"/>
       <c r="N22" s="41" t="e">
         <f>L22/M22</f>
         <v>#DIV/0!</v>
@@ -5425,10 +5425,10 @@
         <f>I22+J22</f>
         <v>1</v>
       </c>
-      <c r="Q22" s="188"/>
+      <c r="Q22" s="189"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="K23" s="41"/>
       <c r="L23" s="190"/>
-      <c r="M23" s="189"/>
+      <c r="M23" s="191"/>
       <c r="N23" s="41" t="e">
         <f>L23/M23</f>
         <v>#DIV/0!</v>
@@ -5469,10 +5469,10 @@
         <f>I23+J23</f>
         <v>0.75</v>
       </c>
-      <c r="Q23" s="188"/>
+      <c r="Q23" s="189"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="182"/>
+      <c r="A24" s="183"/>
       <c r="B24" s="61"/>
       <c r="C24" s="62"/>
       <c r="D24" s="55"/>
@@ -5512,15 +5512,15 @@
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="174" t="s">
+      <c r="F26" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="177"/>
       <c r="M26" s="104"/>
       <c r="O26" s="12"/>
       <c r="P26" s="13"/>
@@ -5530,13 +5530,13 @@
       <c r="B27" s="3"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="179"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="180"/>
       <c r="M27" s="104"/>
       <c r="O27" s="12"/>
       <c r="P27" s="13"/>
@@ -5546,13 +5546,13 @@
       <c r="B28" s="3"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="179"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="180"/>
       <c r="M28" s="109"/>
       <c r="N28" s="8"/>
       <c r="O28" s="12"/>
@@ -5563,13 +5563,13 @@
       <c r="B29" s="3"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="179"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="180"/>
       <c r="M29" s="109"/>
       <c r="N29" s="8"/>
       <c r="O29" s="12"/>
@@ -5580,13 +5580,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="185"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="186"/>
       <c r="M30" s="109"/>
       <c r="N30" s="8"/>
       <c r="O30" s="12"/>
@@ -5594,7 +5594,7 @@
       <c r="Q30" s="91"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="181" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="30"/>
@@ -5615,7 +5615,7 @@
       <c r="Q31" s="93"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
+      <c r="A32" s="182"/>
       <c r="B32" s="86" t="s">
         <v>2</v>
       </c>
@@ -5649,7 +5649,7 @@
         <f>I32+I33+I34</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M32" s="189">
+      <c r="M32" s="191">
         <f>J32+J33+J34</f>
         <v>1.4583333333333335</v>
       </c>
@@ -5662,13 +5662,13 @@
         <f>I32+J32</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q32" s="188">
+      <c r="Q32" s="189">
         <f>L32+M32</f>
         <v>2.291666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
+      <c r="A33" s="182"/>
       <c r="B33" s="86" t="s">
         <v>2</v>
       </c>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="K33" s="41"/>
       <c r="L33" s="190"/>
-      <c r="M33" s="189"/>
+      <c r="M33" s="191"/>
       <c r="N33" s="41" t="e">
         <f>L33/M33</f>
         <v>#DIV/0!</v>
@@ -5710,10 +5710,10 @@
         <f>I33+J33</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="188"/>
+      <c r="Q33" s="189"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
+      <c r="A34" s="182"/>
       <c r="B34" s="86" t="s">
         <v>2</v>
       </c>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="K34" s="41"/>
       <c r="L34" s="190"/>
-      <c r="M34" s="189"/>
+      <c r="M34" s="191"/>
       <c r="N34" s="41" t="e">
         <f>L34/M34</f>
         <v>#DIV/0!</v>
@@ -5755,10 +5755,10 @@
         <f>I34+J34</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q34" s="188"/>
+      <c r="Q34" s="189"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="181"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="87"/>
       <c r="C35" s="48"/>
       <c r="D35" s="41"/>
@@ -5777,7 +5777,7 @@
       <c r="Q35" s="94"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
       </c>
@@ -5811,7 +5811,7 @@
         <f>I36+I37+I38</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M36" s="189">
+      <c r="M36" s="191">
         <f>J36+J37+J38</f>
         <v>1.5</v>
       </c>
@@ -5824,13 +5824,13 @@
         <f>I36+J36</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q36" s="188">
+      <c r="Q36" s="189">
         <f>L36+M36</f>
         <v>2.5416666666666665</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="181"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
       </c>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="190"/>
-      <c r="M37" s="189"/>
+      <c r="M37" s="191"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -5872,10 +5872,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="188"/>
+      <c r="Q37" s="189"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
+      <c r="A38" s="182"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="190"/>
-      <c r="M38" s="189"/>
+      <c r="M38" s="191"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -5917,10 +5917,10 @@
         <f>I38+J38</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q38" s="188"/>
+      <c r="Q38" s="189"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
+      <c r="A39" s="182"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -5939,7 +5939,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
+      <c r="A40" s="182"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -5973,7 +5973,7 @@
         <f>I40+I41+I42</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M40" s="189">
+      <c r="M40" s="191">
         <f>J40+J41+J42</f>
         <v>1.6041666666666667</v>
       </c>
@@ -5986,13 +5986,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="188">
+      <c r="Q40" s="189">
         <f>L40+M40</f>
         <v>2.75</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
+      <c r="A41" s="182"/>
       <c r="B41" s="86" t="s">
         <v>2</v>
       </c>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="190"/>
-      <c r="M41" s="189"/>
+      <c r="M41" s="191"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -6034,10 +6034,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="188"/>
+      <c r="Q41" s="189"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
+      <c r="A42" s="182"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
       </c>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="190"/>
-      <c r="M42" s="189"/>
+      <c r="M42" s="191"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -6079,10 +6079,10 @@
         <f>I42+J42</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q42" s="188"/>
+      <c r="Q42" s="189"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="182"/>
+      <c r="A43" s="183"/>
       <c r="B43" s="62"/>
       <c r="C43" s="62"/>
       <c r="D43" s="55"/>
@@ -6121,6 +6121,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="Q36:Q38"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="F26:L30"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="Q17:Q19"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="F7:L11"/>
     <mergeCell ref="A12:A24"/>
@@ -6128,22 +6144,6 @@
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="L40:L42"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="F26:L30"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="M36:M38"/>
-    <mergeCell ref="Q36:Q38"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6158,8 +6158,8 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13:L16"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6293,10 +6293,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -6333,15 +6333,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -6351,13 +6351,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -6367,13 +6367,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -6384,13 +6384,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -6401,13 +6401,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -6415,7 +6415,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="181" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="85"/>
@@ -6436,7 +6436,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -6470,7 +6470,7 @@
         <f>I13+I14+I15+I16</f>
         <v>0.89583333333333315</v>
       </c>
-      <c r="M13" s="189">
+      <c r="M13" s="191">
         <f>J13+J14+J15+J16</f>
         <v>2.125</v>
       </c>
@@ -6483,13 +6483,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="188">
+      <c r="Q13" s="189">
         <f>L13+M13</f>
         <v>3.020833333333333</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="86" t="s">
         <v>2</v>
       </c>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="190"/>
-      <c r="M14" s="189"/>
+      <c r="M14" s="191"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -6531,10 +6531,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="188"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="190"/>
-      <c r="M15" s="189"/>
+      <c r="M15" s="191"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -6576,10 +6576,10 @@
         <f>I15+J15</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="188"/>
+      <c r="Q15" s="189"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="190"/>
-      <c r="M16" s="189"/>
+      <c r="M16" s="191"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -6620,10 +6620,10 @@
         <f>I16+J16</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q16" s="188"/>
+      <c r="Q16" s="189"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
       <c r="D17" s="41"/>
@@ -6642,7 +6642,7 @@
       <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -6676,7 +6676,7 @@
         <f>I18+I19+I20+I21</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="M18" s="189">
+      <c r="M18" s="191">
         <f>J18+J19+J20+J21</f>
         <v>2.125</v>
       </c>
@@ -6689,13 +6689,13 @@
         <f>I18+J18</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q18" s="188">
+      <c r="Q18" s="189">
         <f>L18+M18</f>
         <v>3.208333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="86" t="s">
         <v>2</v>
       </c>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="190"/>
-      <c r="M19" s="189"/>
+      <c r="M19" s="191"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -6737,10 +6737,10 @@
         <f>I19+J19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="188"/>
+      <c r="Q19" s="189"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
       </c>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="190"/>
-      <c r="M20" s="189"/>
+      <c r="M20" s="191"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -6782,10 +6782,10 @@
         <f>I20+J20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="188"/>
+      <c r="Q20" s="189"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="K21" s="41"/>
       <c r="L21" s="190"/>
-      <c r="M21" s="189"/>
+      <c r="M21" s="191"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -6826,10 +6826,10 @@
         <f>I21+J21</f>
         <v>0.625</v>
       </c>
-      <c r="Q21" s="188"/>
+      <c r="Q21" s="189"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
       <c r="D22" s="41"/>
@@ -6848,7 +6848,7 @@
       <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -6882,7 +6882,7 @@
         <f>I23+I24+I25+I26</f>
         <v>1.208333333333333</v>
       </c>
-      <c r="M23" s="189">
+      <c r="M23" s="191">
         <f>J23+J24+J25+J26</f>
         <v>2.125</v>
       </c>
@@ -6895,13 +6895,13 @@
         <f>I23+J23</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q23" s="188">
+      <c r="Q23" s="189">
         <f>L23+M23</f>
         <v>3.333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="86" t="s">
         <v>2</v>
       </c>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="190"/>
-      <c r="M24" s="189"/>
+      <c r="M24" s="191"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -6943,10 +6943,10 @@
         <f>I24+J24</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="188"/>
+      <c r="Q24" s="189"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
+      <c r="A25" s="182"/>
       <c r="B25" s="86" t="s">
         <v>2</v>
       </c>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="K25" s="41"/>
       <c r="L25" s="190"/>
-      <c r="M25" s="189"/>
+      <c r="M25" s="191"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -6988,10 +6988,10 @@
         <f>I25+J25</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="188"/>
+      <c r="Q25" s="189"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
       </c>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="190"/>
-      <c r="M26" s="189"/>
+      <c r="M26" s="191"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -7032,10 +7032,10 @@
         <f>I26+J26</f>
         <v>0.75</v>
       </c>
-      <c r="Q26" s="188"/>
+      <c r="Q26" s="189"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="182"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
       <c r="D27" s="55"/>
@@ -7075,15 +7075,15 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="174" t="s">
+      <c r="F29" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="177"/>
       <c r="M29" s="104"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
@@ -7093,13 +7093,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="179"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
       <c r="M30" s="104"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
@@ -7109,13 +7109,13 @@
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="179"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="180"/>
       <c r="M31" s="109"/>
       <c r="N31" s="8"/>
       <c r="O31" s="12"/>
@@ -7126,13 +7126,13 @@
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="179"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
       <c r="M32" s="109"/>
       <c r="N32" s="8"/>
       <c r="O32" s="12"/>
@@ -7143,13 +7143,13 @@
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="185"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="186"/>
       <c r="M33" s="109"/>
       <c r="N33" s="8"/>
       <c r="O33" s="12"/>
@@ -7157,7 +7157,7 @@
       <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="180" t="s">
+      <c r="A34" s="181" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="30"/>
@@ -7178,7 +7178,7 @@
       <c r="Q34" s="93"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="181"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -7212,7 +7212,7 @@
         <f>I35+I36+I37+I38</f>
         <v>1.125</v>
       </c>
-      <c r="M35" s="189">
+      <c r="M35" s="191">
         <f>J35+J36+J37+J38</f>
         <v>2.166666666666667</v>
       </c>
@@ -7225,13 +7225,13 @@
         <f>I35+J35</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q35" s="188">
+      <c r="Q35" s="189">
         <f>L35+M35</f>
         <v>3.291666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="86" t="s">
         <v>2</v>
       </c>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="190"/>
-      <c r="M36" s="189"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -7273,10 +7273,10 @@
         <f>I36+J36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="188"/>
+      <c r="Q36" s="189"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="181"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
       </c>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="190"/>
-      <c r="M37" s="189"/>
+      <c r="M37" s="191"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -7318,10 +7318,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="188"/>
+      <c r="Q37" s="189"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
+      <c r="A38" s="182"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="190"/>
-      <c r="M38" s="189"/>
+      <c r="M38" s="191"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -7363,10 +7363,10 @@
         <f>I38+J38</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q38" s="188"/>
+      <c r="Q38" s="189"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
+      <c r="A39" s="182"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -7385,7 +7385,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
+      <c r="A40" s="182"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -7419,7 +7419,7 @@
         <f>I40+I41+I42+I43</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="M40" s="189">
+      <c r="M40" s="191">
         <f>J40+J41+J42+J43</f>
         <v>2.2083333333333335</v>
       </c>
@@ -7432,13 +7432,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="188">
+      <c r="Q40" s="189">
         <f>L40+M40</f>
         <v>3.5416666666666665</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
+      <c r="A41" s="182"/>
       <c r="B41" s="86" t="s">
         <v>2</v>
       </c>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="190"/>
-      <c r="M41" s="189"/>
+      <c r="M41" s="191"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -7480,10 +7480,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="188"/>
+      <c r="Q41" s="189"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
+      <c r="A42" s="182"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
       </c>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="190"/>
-      <c r="M42" s="189"/>
+      <c r="M42" s="191"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -7525,10 +7525,10 @@
         <f>I42+J42</f>
         <v>1</v>
       </c>
-      <c r="Q42" s="188"/>
+      <c r="Q42" s="189"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
+      <c r="A43" s="182"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
       </c>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="K43" s="41"/>
       <c r="L43" s="190"/>
-      <c r="M43" s="189"/>
+      <c r="M43" s="191"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -7570,10 +7570,10 @@
         <f>I43+J43</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q43" s="188"/>
+      <c r="Q43" s="189"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
+      <c r="A44" s="182"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
       <c r="D44" s="41"/>
@@ -7592,7 +7592,7 @@
       <c r="Q44" s="94"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="181"/>
+      <c r="A45" s="182"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
       </c>
@@ -7626,7 +7626,7 @@
         <f>I45+I46+I47+I48</f>
         <v>1.4374999999999998</v>
       </c>
-      <c r="M45" s="189">
+      <c r="M45" s="191">
         <f>J45+J46+J47+J48</f>
         <v>2.3125</v>
       </c>
@@ -7639,13 +7639,13 @@
         <f>I45+J45</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q45" s="188">
+      <c r="Q45" s="189">
         <f>L45+M45</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="181"/>
+      <c r="A46" s="182"/>
       <c r="B46" s="86" t="s">
         <v>2</v>
       </c>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="190"/>
-      <c r="M46" s="189"/>
+      <c r="M46" s="191"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -7687,10 +7687,10 @@
         <f>I46+J46</f>
         <v>1</v>
       </c>
-      <c r="Q46" s="188"/>
+      <c r="Q46" s="189"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="181"/>
+      <c r="A47" s="182"/>
       <c r="B47" s="86" t="s">
         <v>2</v>
       </c>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="K47" s="41"/>
       <c r="L47" s="190"/>
-      <c r="M47" s="189"/>
+      <c r="M47" s="191"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -7732,10 +7732,10 @@
         <f>I47+J47</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="188"/>
+      <c r="Q47" s="189"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="181"/>
+      <c r="A48" s="182"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
       </c>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="190"/>
-      <c r="M48" s="189"/>
+      <c r="M48" s="191"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -7777,10 +7777,10 @@
         <f>I48+J48</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q48" s="188"/>
+      <c r="Q48" s="189"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="182"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="55"/>
@@ -7819,18 +7819,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="Q23:Q26"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="F7:L11"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="M23:M26"/>
     <mergeCell ref="F29:L33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="L35:L38"/>
@@ -7842,6 +7830,18 @@
     <mergeCell ref="L45:L48"/>
     <mergeCell ref="M45:M48"/>
     <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F7:L11"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="Q23:Q26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7997,10 +7997,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -8037,15 +8037,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -8055,13 +8055,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -8071,13 +8071,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -8088,13 +8088,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -8105,13 +8105,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -8119,7 +8119,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="181" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="85"/>
@@ -8140,7 +8140,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -8174,7 +8174,7 @@
         <f>I13+I14+I15+I16</f>
         <v>0.60416666666666652</v>
       </c>
-      <c r="M13" s="189">
+      <c r="M13" s="191">
         <f>J13+J14+J15+J16</f>
         <v>2.416666666666667</v>
       </c>
@@ -8187,13 +8187,13 @@
         <f>I13+J13</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="Q13" s="188">
+      <c r="Q13" s="189">
         <f>L13+M13</f>
         <v>3.0208333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="118" t="s">
         <v>2</v>
       </c>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="190"/>
-      <c r="M14" s="189"/>
+      <c r="M14" s="191"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -8235,10 +8235,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="188"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="190"/>
-      <c r="M15" s="189"/>
+      <c r="M15" s="191"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -8280,10 +8280,10 @@
         <f>I15+J15</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="188"/>
+      <c r="Q15" s="189"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="190"/>
-      <c r="M16" s="189"/>
+      <c r="M16" s="191"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -8324,10 +8324,10 @@
         <f>I16+J16</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q16" s="188"/>
+      <c r="Q16" s="189"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
       <c r="D17" s="41"/>
@@ -8346,7 +8346,7 @@
       <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -8380,7 +8380,7 @@
         <f>I18+I19+I20+I21</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M18" s="189">
+      <c r="M18" s="191">
         <f>J18+J19+J20+J21</f>
         <v>2.416666666666667</v>
       </c>
@@ -8393,13 +8393,13 @@
         <f>I18+J18</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q18" s="188">
+      <c r="Q18" s="189">
         <f>L18+M18</f>
         <v>3.2083333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="118" t="s">
         <v>2</v>
       </c>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="190"/>
-      <c r="M19" s="189"/>
+      <c r="M19" s="191"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -8441,10 +8441,10 @@
         <f>I19+J19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="188"/>
+      <c r="Q19" s="189"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="86" t="s">
         <v>2</v>
       </c>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="190"/>
-      <c r="M20" s="189"/>
+      <c r="M20" s="191"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -8486,10 +8486,10 @@
         <f>I20+J20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="188"/>
+      <c r="Q20" s="189"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="K21" s="41"/>
       <c r="L21" s="190"/>
-      <c r="M21" s="189"/>
+      <c r="M21" s="191"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -8530,10 +8530,10 @@
         <f>I21+J21</f>
         <v>0.625</v>
       </c>
-      <c r="Q21" s="188"/>
+      <c r="Q21" s="189"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
       <c r="D22" s="41"/>
@@ -8552,7 +8552,7 @@
       <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -8586,7 +8586,7 @@
         <f>I23+I24+I25+I26</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M23" s="189">
+      <c r="M23" s="191">
         <f>J23+J24+J25+J26</f>
         <v>2.416666666666667</v>
       </c>
@@ -8599,13 +8599,13 @@
         <f>I23+J23</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q23" s="188">
+      <c r="Q23" s="189">
         <f>L23+M23</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="118" t="s">
         <v>2</v>
       </c>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="190"/>
-      <c r="M24" s="189"/>
+      <c r="M24" s="191"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -8647,10 +8647,10 @@
         <f>I24+J24</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="188"/>
+      <c r="Q24" s="189"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
+      <c r="A25" s="182"/>
       <c r="B25" s="86" t="s">
         <v>2</v>
       </c>
@@ -8682,7 +8682,7 @@
       </c>
       <c r="K25" s="41"/>
       <c r="L25" s="190"/>
-      <c r="M25" s="189"/>
+      <c r="M25" s="191"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -8692,10 +8692,10 @@
         <f>I25+J25</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="188"/>
+      <c r="Q25" s="189"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
       </c>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="190"/>
-      <c r="M26" s="189"/>
+      <c r="M26" s="191"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -8736,10 +8736,10 @@
         <f>I26+J26</f>
         <v>0.75</v>
       </c>
-      <c r="Q26" s="188"/>
+      <c r="Q26" s="189"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="182"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
       <c r="D27" s="55"/>
@@ -8779,15 +8779,15 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="174" t="s">
+      <c r="F29" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="177"/>
       <c r="M29" s="104"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
@@ -8797,13 +8797,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="179"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
       <c r="M30" s="104"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
@@ -8813,13 +8813,13 @@
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="179"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="180"/>
       <c r="M31" s="109"/>
       <c r="N31" s="8"/>
       <c r="O31" s="12"/>
@@ -8830,13 +8830,13 @@
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="179"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
       <c r="M32" s="109"/>
       <c r="N32" s="8"/>
       <c r="O32" s="12"/>
@@ -8847,13 +8847,13 @@
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="185"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="186"/>
       <c r="M33" s="109"/>
       <c r="N33" s="8"/>
       <c r="O33" s="12"/>
@@ -8861,7 +8861,7 @@
       <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="180" t="s">
+      <c r="A34" s="181" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="30"/>
@@ -8882,7 +8882,7 @@
       <c r="Q34" s="93"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="181"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -8916,7 +8916,7 @@
         <f>I35+I36+I37+I38</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M35" s="189">
+      <c r="M35" s="191">
         <f>J35+J36+J37+J38</f>
         <v>2.4583333333333339</v>
       </c>
@@ -8929,13 +8929,13 @@
         <f>I35+J35</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q35" s="188">
+      <c r="Q35" s="189">
         <f>L35+M35</f>
         <v>3.291666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="118" t="s">
         <v>2</v>
       </c>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="190"/>
-      <c r="M36" s="189"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -8977,10 +8977,10 @@
         <f>I36+J36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="188"/>
+      <c r="Q36" s="189"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="181"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="86" t="s">
         <v>2</v>
       </c>
@@ -9012,7 +9012,7 @@
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="190"/>
-      <c r="M37" s="189"/>
+      <c r="M37" s="191"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -9022,10 +9022,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="188"/>
+      <c r="Q37" s="189"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
+      <c r="A38" s="182"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="190"/>
-      <c r="M38" s="189"/>
+      <c r="M38" s="191"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -9067,10 +9067,10 @@
         <f>I38+J38</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q38" s="188"/>
+      <c r="Q38" s="189"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
+      <c r="A39" s="182"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -9089,7 +9089,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
+      <c r="A40" s="182"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -9123,7 +9123,7 @@
         <f>I40+I41+I42+I43</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M40" s="189">
+      <c r="M40" s="191">
         <f>J40+J41+J42+J43</f>
         <v>2.5000000000000004</v>
       </c>
@@ -9136,13 +9136,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="188">
+      <c r="Q40" s="189">
         <f>L40+M40</f>
         <v>3.541666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
+      <c r="A41" s="182"/>
       <c r="B41" s="118" t="s">
         <v>2</v>
       </c>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="190"/>
-      <c r="M41" s="189"/>
+      <c r="M41" s="191"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -9184,10 +9184,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="188"/>
+      <c r="Q41" s="189"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
+      <c r="A42" s="182"/>
       <c r="B42" s="86" t="s">
         <v>2</v>
       </c>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="190"/>
-      <c r="M42" s="189"/>
+      <c r="M42" s="191"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -9229,10 +9229,10 @@
         <f>I42+J42</f>
         <v>1</v>
       </c>
-      <c r="Q42" s="188"/>
+      <c r="Q42" s="189"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
+      <c r="A43" s="182"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
       </c>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="K43" s="41"/>
       <c r="L43" s="190"/>
-      <c r="M43" s="189"/>
+      <c r="M43" s="191"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -9274,10 +9274,10 @@
         <f>I43+J43</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q43" s="188"/>
+      <c r="Q43" s="189"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
+      <c r="A44" s="182"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
       <c r="D44" s="41"/>
@@ -9296,7 +9296,7 @@
       <c r="Q44" s="94"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="181"/>
+      <c r="A45" s="182"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
       </c>
@@ -9330,7 +9330,7 @@
         <f>I45+I46+I47+I48</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M45" s="189">
+      <c r="M45" s="191">
         <f>J45+J46+J47+J48</f>
         <v>2.604166666666667</v>
       </c>
@@ -9343,13 +9343,13 @@
         <f>I45+J45</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q45" s="188">
+      <c r="Q45" s="189">
         <f>L45+M45</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="181"/>
+      <c r="A46" s="182"/>
       <c r="B46" s="118" t="s">
         <v>2</v>
       </c>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="190"/>
-      <c r="M46" s="189"/>
+      <c r="M46" s="191"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -9391,10 +9391,10 @@
         <f>I46+J46</f>
         <v>1</v>
       </c>
-      <c r="Q46" s="188"/>
+      <c r="Q46" s="189"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="181"/>
+      <c r="A47" s="182"/>
       <c r="B47" s="86" t="s">
         <v>2</v>
       </c>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="K47" s="41"/>
       <c r="L47" s="190"/>
-      <c r="M47" s="189"/>
+      <c r="M47" s="191"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -9436,10 +9436,10 @@
         <f>I47+J47</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="188"/>
+      <c r="Q47" s="189"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="181"/>
+      <c r="A48" s="182"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
       </c>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="190"/>
-      <c r="M48" s="189"/>
+      <c r="M48" s="191"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -9481,10 +9481,10 @@
         <f>I48+J48</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q48" s="188"/>
+      <c r="Q48" s="189"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="182"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="55"/>
@@ -9523,6 +9523,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F29:L33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="Q35:Q38"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="M45:M48"/>
+    <mergeCell ref="Q45:Q48"/>
     <mergeCell ref="Q13:Q16"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="F7:L11"/>
@@ -9535,17 +9546,6 @@
     <mergeCell ref="L23:L26"/>
     <mergeCell ref="M23:M26"/>
     <mergeCell ref="Q23:Q26"/>
-    <mergeCell ref="F29:L33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="Q35:Q38"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="M45:M48"/>
-    <mergeCell ref="Q45:Q48"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9553,6 +9553,898 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="88">
+        <v>0</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="91"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="88">
+        <f>A2-$L$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="88"/>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="88">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="M2" s="149"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="91"/>
+      <c r="V2" s="130"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="100">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="88">
+        <f>L2-A3+L3</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="H3" s="88"/>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="88">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="91"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="100">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="91"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="100">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="91"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="91"/>
+    </row>
+    <row r="7" spans="1:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="153"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="150"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="174"/>
+      <c r="G8" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G11" s="175" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="177"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G12" s="178"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G13" s="178"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="180"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G14" s="178"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="180"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G15" s="178"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="180"/>
+    </row>
+    <row r="16" spans="1:25" s="133" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="134"/>
+      <c r="H16" s="134" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="154" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" s="136" t="s">
+        <v>52</v>
+      </c>
+      <c r="W16" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="135"/>
+    </row>
+    <row r="17" spans="1:24" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="193"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="138">
+        <f>G2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="137">
+        <v>42975.416666666664</v>
+      </c>
+      <c r="F17" s="137">
+        <v>42975.541666666664</v>
+      </c>
+      <c r="G17" s="138">
+        <f>$G$3</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="H17" s="148">
+        <f t="shared" ref="H17:I19" si="0">MOD(E17,1)</f>
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="I17" s="148">
+        <f t="shared" si="0"/>
+        <v>0.54166666666424135</v>
+      </c>
+      <c r="J17" s="161">
+        <f t="shared" ref="J17:J23" si="1">IF(H17&gt;$A$2,((Q17-2)*$A$4)+($A$3-H17)+(I17-$A$2),((Q17-2)*$A$4)+(($A$3-H17)+(I17-$A$2))-($A$2-H17))</f>
+        <v>4.1666666664241292E-2</v>
+      </c>
+      <c r="K17" s="143">
+        <f>IF(U17&lt;&gt;V17,(D17)+((Q17-2)*$A$5)+(IF(I17&gt;$A$3,I17-$A$3,0))+(G17)+(T17),IF(I17&gt;$A$3,I17-$A$3,IF(H17&lt;$A$2,$A$2-H17,0)))</f>
+        <v>8.3333333335758653E-2</v>
+      </c>
+      <c r="L17" s="146">
+        <f t="shared" ref="L17:M19" si="2">J17</f>
+        <v>4.1666666664241292E-2</v>
+      </c>
+      <c r="M17" s="145">
+        <f t="shared" si="2"/>
+        <v>8.3333333335758653E-2</v>
+      </c>
+      <c r="N17" s="159">
+        <f>J17/O17 *100</f>
+        <v>33.333333331393035</v>
+      </c>
+      <c r="O17" s="144">
+        <f t="shared" ref="O17:O22" si="3">F17-E17</f>
+        <v>0.125</v>
+      </c>
+      <c r="P17" s="142">
+        <f t="shared" ref="P17:P22" si="4">F17-E17</f>
+        <v>0.125</v>
+      </c>
+      <c r="Q17" s="141">
+        <f>(NETWORKDAYS.INTL(E17,F17,"0000011",Plan2!A2))</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="145">
+        <f t="shared" ref="R17:R23" si="5">Q17</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="139">
+        <f t="shared" ref="S17:S19" si="6">((_xlfn.DAYS(V17,U17)+1)-Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="144">
+        <f t="shared" ref="T17:T23" si="7">S17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="140">
+        <f t="shared" ref="U17:V19" si="8">DATE(YEAR(E17),MONTH(E17),DAY(E17))</f>
+        <v>42975</v>
+      </c>
+      <c r="V17" s="140">
+        <f t="shared" si="8"/>
+        <v>42975</v>
+      </c>
+      <c r="W17" s="140"/>
+      <c r="X17" s="140"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="192" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="193"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="138">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="137">
+        <v>42975.583333333336</v>
+      </c>
+      <c r="F18" s="137">
+        <v>42977.833333333336</v>
+      </c>
+      <c r="G18" s="138">
+        <f>$G$3</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="H18" s="148">
+        <f t="shared" si="0"/>
+        <v>0.58333333333575865</v>
+      </c>
+      <c r="I18" s="148">
+        <f t="shared" si="0"/>
+        <v>0.83333333333575865</v>
+      </c>
+      <c r="J18" s="161">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K18" s="143">
+        <f t="shared" ref="K18:K23" si="9">IF(U18&lt;&gt;V18,(D18)+((Q18-2)*$A$5)+(IF(I18&gt;$A$3,I18-$A$3,0))+(G18)+(T18),IF(I18&gt;$A$3,I18-$A$3,IF(H18&lt;$A$2,$A$2-H18,0)))</f>
+        <v>1.4583333333357591</v>
+      </c>
+      <c r="L18" s="146">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="M18" s="145">
+        <f t="shared" si="2"/>
+        <v>1.4583333333357591</v>
+      </c>
+      <c r="N18" s="159">
+        <f>J18/O18 *100</f>
+        <v>37.037037037037038</v>
+      </c>
+      <c r="O18" s="144">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="P18" s="142">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="Q18" s="141">
+        <f>(NETWORKDAYS.INTL(E18,F18,"0000011",Plan2!A3))</f>
+        <v>3</v>
+      </c>
+      <c r="R18" s="145">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S18" s="139">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="144">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="140">
+        <f t="shared" si="8"/>
+        <v>42975</v>
+      </c>
+      <c r="V18" s="140">
+        <f t="shared" si="8"/>
+        <v>42977</v>
+      </c>
+      <c r="W18" s="132"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="192" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="193"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="157">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="128">
+        <v>42975.416666666664</v>
+      </c>
+      <c r="F19" s="137">
+        <v>42978.625</v>
+      </c>
+      <c r="G19" s="138">
+        <f>$G$3</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="H19" s="148">
+        <f t="shared" si="0"/>
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="I19" s="148">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="J19" s="161">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="143">
+        <f t="shared" si="9"/>
+        <v>2.125</v>
+      </c>
+      <c r="L19" s="146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="145">
+        <f t="shared" si="2"/>
+        <v>2.125</v>
+      </c>
+      <c r="N19" s="159">
+        <f t="shared" ref="N19:N21" si="10">J19/O19 *100</f>
+        <v>31.168831168807611</v>
+      </c>
+      <c r="O19" s="144">
+        <f t="shared" si="3"/>
+        <v>3.2083333333357587</v>
+      </c>
+      <c r="P19" s="142">
+        <f t="shared" si="4"/>
+        <v>3.2083333333357587</v>
+      </c>
+      <c r="Q19" s="141">
+        <f>(NETWORKDAYS.INTL(E19,F19,"0000011",Plan2!A4))</f>
+        <v>4</v>
+      </c>
+      <c r="R19" s="145">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S19" s="139">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="144">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="140">
+        <f t="shared" si="8"/>
+        <v>42975</v>
+      </c>
+      <c r="V19" s="140">
+        <f t="shared" si="8"/>
+        <v>42978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="192" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="193"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="157">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="128">
+        <v>42982.645833333336</v>
+      </c>
+      <c r="F20" s="128">
+        <v>42985.666666666664</v>
+      </c>
+      <c r="G20" s="157">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H20" s="148">
+        <f t="shared" ref="H20:H21" si="11">MOD(E20,1)</f>
+        <v>0.64583333333575865</v>
+      </c>
+      <c r="I20" s="148">
+        <f t="shared" ref="I20:I21" si="12">MOD(F20,1)</f>
+        <v>0.66666666666424135</v>
+      </c>
+      <c r="J20" s="161">
+        <f t="shared" si="1"/>
+        <v>0.60416666666181595</v>
+      </c>
+      <c r="K20" s="143">
+        <f t="shared" si="9"/>
+        <v>2.416666666666667</v>
+      </c>
+      <c r="L20" s="146">
+        <f t="shared" ref="L20" si="13">J20</f>
+        <v>0.60416666666181595</v>
+      </c>
+      <c r="M20" s="145">
+        <f t="shared" ref="M20" si="14">K20</f>
+        <v>2.416666666666667</v>
+      </c>
+      <c r="N20" s="159">
+        <f t="shared" si="10"/>
+        <v>19.999999999871541</v>
+      </c>
+      <c r="O20" s="144">
+        <f t="shared" si="3"/>
+        <v>3.0208333333284827</v>
+      </c>
+      <c r="P20" s="142">
+        <f t="shared" si="4"/>
+        <v>3.0208333333284827</v>
+      </c>
+      <c r="Q20" s="141">
+        <f>(NETWORKDAYS.INTL(E20,F20,"0000011",Plan2!A2))</f>
+        <v>3</v>
+      </c>
+      <c r="R20" s="145">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S20" s="139">
+        <f>((_xlfn.DAYS(V20,U20)+1)-Q20)</f>
+        <v>1</v>
+      </c>
+      <c r="T20" s="144">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U20" s="140">
+        <f t="shared" ref="U20" si="15">DATE(YEAR(E20),MONTH(E20),DAY(E20))</f>
+        <v>42982</v>
+      </c>
+      <c r="V20" s="140">
+        <f t="shared" ref="V20" si="16">DATE(YEAR(F20),MONTH(F20),DAY(F20))</f>
+        <v>42985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="192" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="193"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="157">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="128">
+        <v>42986.666666666664</v>
+      </c>
+      <c r="F21" s="128">
+        <v>42989.583333333336</v>
+      </c>
+      <c r="G21" s="157">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H21" s="158">
+        <f t="shared" si="11"/>
+        <v>0.66666666666424135</v>
+      </c>
+      <c r="I21" s="158">
+        <f t="shared" si="12"/>
+        <v>0.58333333333575865</v>
+      </c>
+      <c r="J21" s="161">
+        <f t="shared" si="1"/>
+        <v>0.20833333333818393</v>
+      </c>
+      <c r="K21" s="143">
+        <f t="shared" si="9"/>
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="L21" s="146">
+        <f t="shared" ref="L21" si="17">J21</f>
+        <v>0.20833333333818393</v>
+      </c>
+      <c r="M21" s="145">
+        <f t="shared" ref="M21" si="18">K21</f>
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="N21" s="160">
+        <f t="shared" si="10"/>
+        <v>7.1428571430115699</v>
+      </c>
+      <c r="O21" s="144">
+        <f t="shared" si="3"/>
+        <v>2.9166666666715173</v>
+      </c>
+      <c r="P21" s="142">
+        <f t="shared" si="4"/>
+        <v>2.9166666666715173</v>
+      </c>
+      <c r="Q21" s="141">
+        <f>(NETWORKDAYS.INTL(E21,F21,"0000011",Plan2!A3))</f>
+        <v>2</v>
+      </c>
+      <c r="R21" s="145">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S21" s="139">
+        <f>((_xlfn.DAYS(V21,U21)+1)-Q21)</f>
+        <v>2</v>
+      </c>
+      <c r="T21" s="144">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U21" s="140">
+        <f t="shared" ref="U21" si="19">DATE(YEAR(E21),MONTH(E21),DAY(E21))</f>
+        <v>42986</v>
+      </c>
+      <c r="V21" s="140">
+        <f t="shared" ref="V21" si="20">DATE(YEAR(F21),MONTH(F21),DAY(F21))</f>
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="192" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="193"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="157">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="137">
+        <v>42975.5</v>
+      </c>
+      <c r="F22" s="137">
+        <v>42975.833333333336</v>
+      </c>
+      <c r="G22" s="157">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H22" s="158">
+        <f t="shared" ref="H22:H23" si="21">MOD(E22,1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="158">
+        <f t="shared" ref="I22:I23" si="22">MOD(F22,1)</f>
+        <v>0.83333333333575865</v>
+      </c>
+      <c r="J22" s="161">
+        <f t="shared" si="1"/>
+        <v>0.3333333333357586</v>
+      </c>
+      <c r="K22" s="143">
+        <f t="shared" si="9"/>
+        <v>4.1666666669092023E-2</v>
+      </c>
+      <c r="L22" s="146">
+        <f t="shared" ref="L22" si="23">J22</f>
+        <v>0.3333333333357586</v>
+      </c>
+      <c r="M22" s="145">
+        <f t="shared" ref="M22" si="24">K22</f>
+        <v>4.1666666669092023E-2</v>
+      </c>
+      <c r="N22" s="160">
+        <f t="shared" ref="N22" si="25">J22/O22 *100</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="O22" s="144">
+        <f t="shared" si="3"/>
+        <v>0.33333333333575865</v>
+      </c>
+      <c r="P22" s="142">
+        <f t="shared" si="4"/>
+        <v>0.33333333333575865</v>
+      </c>
+      <c r="Q22" s="141">
+        <f>(NETWORKDAYS.INTL(E22,F22,"0000011",Plan2!A4))</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="145">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="139">
+        <f>((_xlfn.DAYS(V22,U22)+1)-Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="144">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="140">
+        <f t="shared" ref="U22" si="26">DATE(YEAR(E22),MONTH(E22),DAY(E22))</f>
+        <v>42975</v>
+      </c>
+      <c r="V22" s="140">
+        <f t="shared" ref="V22" si="27">DATE(YEAR(F22),MONTH(F22),DAY(F22))</f>
+        <v>42975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="192" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="193"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="128">
+        <v>42975.416666666664</v>
+      </c>
+      <c r="F23" s="128">
+        <v>42975.979166666664</v>
+      </c>
+      <c r="G23" s="157">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H23" s="158">
+        <f t="shared" si="21"/>
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="I23" s="158">
+        <f t="shared" si="22"/>
+        <v>0.97916666666424135</v>
+      </c>
+      <c r="J23" s="161">
+        <f t="shared" si="1"/>
+        <v>0.47916666666424135</v>
+      </c>
+      <c r="K23" s="143">
+        <f t="shared" si="9"/>
+        <v>0.18749999999757472</v>
+      </c>
+      <c r="L23" s="146">
+        <f t="shared" ref="L23" si="28">J23</f>
+        <v>0.47916666666424135</v>
+      </c>
+      <c r="M23" s="145">
+        <f t="shared" ref="M23" si="29">K23</f>
+        <v>0.18749999999757472</v>
+      </c>
+      <c r="N23" s="160">
+        <f t="shared" ref="N23" si="30">J23/O23 *100</f>
+        <v>85.185185184754019</v>
+      </c>
+      <c r="O23" s="144">
+        <f t="shared" ref="O23" si="31">F23-E23</f>
+        <v>0.5625</v>
+      </c>
+      <c r="P23" s="142">
+        <f t="shared" ref="P23" si="32">F23-E23</f>
+        <v>0.5625</v>
+      </c>
+      <c r="Q23" s="141">
+        <f>(NETWORKDAYS.INTL(E23,F23,"0000011",Plan2!A5))</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="145">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="139">
+        <f>((_xlfn.DAYS(V23,U23)+1)-Q23)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="144">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="140">
+        <f t="shared" ref="U23" si="33">DATE(YEAR(E23),MONTH(E23),DAY(E23))</f>
+        <v>42975</v>
+      </c>
+      <c r="V23" s="140">
+        <f t="shared" ref="V23" si="34">DATE(YEAR(F23),MONTH(F23),DAY(F23))</f>
+        <v>42975</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="G11:M15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
@@ -9705,10 +10597,10 @@
       <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="66" t="s">
         <v>17</v>
       </c>
@@ -9745,15 +10637,15 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="M7" s="104"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -9763,13 +10655,13 @@
       <c r="B8" s="3"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
       <c r="M8" s="104"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
@@ -9779,13 +10671,13 @@
       <c r="B9" s="3"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="109"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12"/>
@@ -9796,13 +10688,13 @@
       <c r="B10" s="3"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="109"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12"/>
@@ -9813,13 +10705,13 @@
       <c r="B11" s="3"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
       <c r="M11" s="109"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12"/>
@@ -9827,7 +10719,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="181" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="85"/>
@@ -9848,7 +10740,7 @@
       <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -9882,7 +10774,7 @@
         <f>I13+I14+I15+I16</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="M13" s="189">
+      <c r="M13" s="191">
         <f>J13+J14+J15+J16</f>
         <v>2.7083333333333335</v>
       </c>
@@ -9895,7 +10787,7 @@
         <f>I13+J13</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="Q13" s="188">
+      <c r="Q13" s="189">
         <f>L13+M13</f>
         <v>2.916666666666667</v>
       </c>
@@ -9907,7 +10799,7 @@
       <c r="Y13" s="131"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="118" t="s">
         <v>2</v>
       </c>
@@ -9939,7 +10831,7 @@
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="190"/>
-      <c r="M14" s="189"/>
+      <c r="M14" s="191"/>
       <c r="N14" s="41" t="e">
         <f>L14/M14</f>
         <v>#DIV/0!</v>
@@ -9949,10 +10841,10 @@
         <f>I14+J14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="188"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="118" t="s">
         <v>2</v>
       </c>
@@ -9984,7 +10876,7 @@
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="190"/>
-      <c r="M15" s="189"/>
+      <c r="M15" s="191"/>
       <c r="N15" s="41" t="e">
         <f>L15/M15</f>
         <v>#DIV/0!</v>
@@ -9994,10 +10886,10 @@
         <f>I15+J15</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="188"/>
+      <c r="Q15" s="189"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
@@ -10028,7 +10920,7 @@
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="190"/>
-      <c r="M16" s="189"/>
+      <c r="M16" s="191"/>
       <c r="N16" s="41" t="e">
         <f>L16/M16</f>
         <v>#DIV/0!</v>
@@ -10038,10 +10930,10 @@
         <f>I16+J16</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q16" s="188"/>
+      <c r="Q16" s="189"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="87"/>
       <c r="C17" s="48"/>
       <c r="D17" s="41"/>
@@ -10060,7 +10952,7 @@
       <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
@@ -10094,7 +10986,7 @@
         <f>I18+I19+I20+I21</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="M18" s="189">
+      <c r="M18" s="191">
         <f>J18+J19+J20+J21</f>
         <v>2.416666666666667</v>
       </c>
@@ -10107,13 +10999,13 @@
         <f>I18+J18</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q18" s="188">
+      <c r="Q18" s="189">
         <f>L18+M18</f>
         <v>3.2083333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="118" t="s">
         <v>2</v>
       </c>
@@ -10145,7 +11037,7 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="190"/>
-      <c r="M19" s="189"/>
+      <c r="M19" s="191"/>
       <c r="N19" s="41" t="e">
         <f>L19/M19</f>
         <v>#DIV/0!</v>
@@ -10155,10 +11047,10 @@
         <f>I19+J19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="188"/>
+      <c r="Q19" s="189"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="118" t="s">
         <v>2</v>
       </c>
@@ -10190,7 +11082,7 @@
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="190"/>
-      <c r="M20" s="189"/>
+      <c r="M20" s="191"/>
       <c r="N20" s="41" t="e">
         <f>L20/M20</f>
         <v>#DIV/0!</v>
@@ -10200,10 +11092,10 @@
         <f>I20+J20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="188"/>
+      <c r="Q20" s="189"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
@@ -10234,7 +11126,7 @@
       </c>
       <c r="K21" s="41"/>
       <c r="L21" s="190"/>
-      <c r="M21" s="189"/>
+      <c r="M21" s="191"/>
       <c r="N21" s="41" t="e">
         <f>L21/M21</f>
         <v>#DIV/0!</v>
@@ -10244,10 +11136,10 @@
         <f>I21+J21</f>
         <v>0.625</v>
       </c>
-      <c r="Q21" s="188"/>
+      <c r="Q21" s="189"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="87"/>
       <c r="C22" s="48"/>
       <c r="D22" s="41"/>
@@ -10266,7 +11158,7 @@
       <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
@@ -10300,7 +11192,7 @@
         <f>I23+I24+I25+I26</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M23" s="189">
+      <c r="M23" s="191">
         <f>J23+J24+J25+J26</f>
         <v>2.416666666666667</v>
       </c>
@@ -10313,13 +11205,13 @@
         <f>I23+J23</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q23" s="188">
+      <c r="Q23" s="189">
         <f>L23+M23</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="118" t="s">
         <v>2</v>
       </c>
@@ -10351,7 +11243,7 @@
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="190"/>
-      <c r="M24" s="189"/>
+      <c r="M24" s="191"/>
       <c r="N24" s="41" t="e">
         <f>L24/M24</f>
         <v>#DIV/0!</v>
@@ -10361,10 +11253,10 @@
         <f>I24+J24</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="188"/>
+      <c r="Q24" s="189"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
+      <c r="A25" s="182"/>
       <c r="B25" s="118" t="s">
         <v>2</v>
       </c>
@@ -10396,7 +11288,7 @@
       </c>
       <c r="K25" s="41"/>
       <c r="L25" s="190"/>
-      <c r="M25" s="189"/>
+      <c r="M25" s="191"/>
       <c r="N25" s="41" t="e">
         <f>L25/M25</f>
         <v>#DIV/0!</v>
@@ -10406,10 +11298,10 @@
         <f>I25+J25</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="188"/>
+      <c r="Q25" s="189"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="86" t="s">
         <v>2</v>
       </c>
@@ -10440,7 +11332,7 @@
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="190"/>
-      <c r="M26" s="189"/>
+      <c r="M26" s="191"/>
       <c r="N26" s="41" t="e">
         <f>L26/M26</f>
         <v>#DIV/0!</v>
@@ -10450,10 +11342,10 @@
         <f>I26+J26</f>
         <v>0.75</v>
       </c>
-      <c r="Q26" s="188"/>
+      <c r="Q26" s="189"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="182"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
       <c r="D27" s="55"/>
@@ -10493,15 +11385,15 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="174" t="s">
+      <c r="F29" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="177"/>
       <c r="M29" s="104"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
@@ -10511,13 +11403,13 @@
       <c r="B30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="179"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
       <c r="M30" s="104"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
@@ -10527,13 +11419,13 @@
       <c r="B31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="179"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="180"/>
       <c r="M31" s="109"/>
       <c r="N31" s="8"/>
       <c r="O31" s="12"/>
@@ -10544,13 +11436,13 @@
       <c r="B32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="179"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
       <c r="M32" s="109"/>
       <c r="N32" s="8"/>
       <c r="O32" s="12"/>
@@ -10561,13 +11453,13 @@
       <c r="B33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="185"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="186"/>
       <c r="M33" s="109"/>
       <c r="N33" s="8"/>
       <c r="O33" s="12"/>
@@ -10575,7 +11467,7 @@
       <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="180" t="s">
+      <c r="A34" s="181" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="30"/>
@@ -10596,7 +11488,7 @@
       <c r="Q34" s="93"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="181"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="86" t="s">
         <v>2</v>
       </c>
@@ -10630,7 +11522,7 @@
         <f>I35+I36+I37+I38</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="M35" s="189">
+      <c r="M35" s="191">
         <f>J35+J36+J37+J38</f>
         <v>2.4583333333333339</v>
       </c>
@@ -10643,13 +11535,13 @@
         <f>I35+J35</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Q35" s="188">
+      <c r="Q35" s="189">
         <f>L35+M35</f>
         <v>3.291666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="118" t="s">
         <v>2</v>
       </c>
@@ -10681,7 +11573,7 @@
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="190"/>
-      <c r="M36" s="189"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="41" t="e">
         <f>L36/M36</f>
         <v>#DIV/0!</v>
@@ -10691,10 +11583,10 @@
         <f>I36+J36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="188"/>
+      <c r="Q36" s="189"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="181"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="118" t="s">
         <v>2</v>
       </c>
@@ -10726,7 +11618,7 @@
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="190"/>
-      <c r="M37" s="189"/>
+      <c r="M37" s="191"/>
       <c r="N37" s="41" t="e">
         <f>L37/M37</f>
         <v>#DIV/0!</v>
@@ -10736,10 +11628,10 @@
         <f>I37+J37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="188"/>
+      <c r="Q37" s="189"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
+      <c r="A38" s="182"/>
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
@@ -10771,7 +11663,7 @@
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="190"/>
-      <c r="M38" s="189"/>
+      <c r="M38" s="191"/>
       <c r="N38" s="41" t="e">
         <f>L38/M38</f>
         <v>#DIV/0!</v>
@@ -10781,10 +11673,10 @@
         <f>I38+J38</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q38" s="188"/>
+      <c r="Q38" s="189"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
+      <c r="A39" s="182"/>
       <c r="B39" s="87"/>
       <c r="C39" s="48"/>
       <c r="D39" s="41"/>
@@ -10803,7 +11695,7 @@
       <c r="Q39" s="94"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
+      <c r="A40" s="182"/>
       <c r="B40" s="86" t="s">
         <v>2</v>
       </c>
@@ -10837,7 +11729,7 @@
         <f>I40+I41+I42+I43</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M40" s="189">
+      <c r="M40" s="191">
         <f>J40+J41+J42+J43</f>
         <v>2.5000000000000004</v>
       </c>
@@ -10850,13 +11742,13 @@
         <f>I40+J40</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q40" s="188">
+      <c r="Q40" s="189">
         <f>L40+M40</f>
         <v>3.541666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
+      <c r="A41" s="182"/>
       <c r="B41" s="118" t="s">
         <v>2</v>
       </c>
@@ -10888,7 +11780,7 @@
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="190"/>
-      <c r="M41" s="189"/>
+      <c r="M41" s="191"/>
       <c r="N41" s="41" t="e">
         <f>L41/M41</f>
         <v>#DIV/0!</v>
@@ -10898,10 +11790,10 @@
         <f>I41+J41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="188"/>
+      <c r="Q41" s="189"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
+      <c r="A42" s="182"/>
       <c r="B42" s="118" t="s">
         <v>2</v>
       </c>
@@ -10933,7 +11825,7 @@
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="190"/>
-      <c r="M42" s="189"/>
+      <c r="M42" s="191"/>
       <c r="N42" s="41" t="e">
         <f>L42/M42</f>
         <v>#DIV/0!</v>
@@ -10943,10 +11835,10 @@
         <f>I42+J42</f>
         <v>1</v>
       </c>
-      <c r="Q42" s="188"/>
+      <c r="Q42" s="189"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
+      <c r="A43" s="182"/>
       <c r="B43" s="86" t="s">
         <v>2</v>
       </c>
@@ -10978,7 +11870,7 @@
       </c>
       <c r="K43" s="41"/>
       <c r="L43" s="190"/>
-      <c r="M43" s="189"/>
+      <c r="M43" s="191"/>
       <c r="N43" s="41" t="e">
         <f>L43/M43</f>
         <v>#DIV/0!</v>
@@ -10988,10 +11880,10 @@
         <f>I43+J43</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q43" s="188"/>
+      <c r="Q43" s="189"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
+      <c r="A44" s="182"/>
       <c r="B44" s="87"/>
       <c r="C44" s="48"/>
       <c r="D44" s="41"/>
@@ -11010,7 +11902,7 @@
       <c r="Q44" s="94"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="181"/>
+      <c r="A45" s="182"/>
       <c r="B45" s="86" t="s">
         <v>2</v>
       </c>
@@ -11044,7 +11936,7 @@
         <f>I45+I46+I47+I48</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M45" s="189">
+      <c r="M45" s="191">
         <f>J45+J46+J47+J48</f>
         <v>2.604166666666667</v>
       </c>
@@ -11057,13 +11949,13 @@
         <f>I45+J45</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="Q45" s="188">
+      <c r="Q45" s="189">
         <f>L45+M45</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="181"/>
+      <c r="A46" s="182"/>
       <c r="B46" s="118" t="s">
         <v>2</v>
       </c>
@@ -11095,7 +11987,7 @@
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="190"/>
-      <c r="M46" s="189"/>
+      <c r="M46" s="191"/>
       <c r="N46" s="41" t="e">
         <f>L46/M46</f>
         <v>#DIV/0!</v>
@@ -11105,10 +11997,10 @@
         <f>I46+J46</f>
         <v>1</v>
       </c>
-      <c r="Q46" s="188"/>
+      <c r="Q46" s="189"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="181"/>
+      <c r="A47" s="182"/>
       <c r="B47" s="118" t="s">
         <v>2</v>
       </c>
@@ -11140,7 +12032,7 @@
       </c>
       <c r="K47" s="41"/>
       <c r="L47" s="190"/>
-      <c r="M47" s="189"/>
+      <c r="M47" s="191"/>
       <c r="N47" s="41" t="e">
         <f>L47/M47</f>
         <v>#DIV/0!</v>
@@ -11150,10 +12042,10 @@
         <f>I47+J47</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="188"/>
+      <c r="Q47" s="189"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="181"/>
+      <c r="A48" s="182"/>
       <c r="B48" s="86" t="s">
         <v>2</v>
       </c>
@@ -11185,7 +12077,7 @@
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="190"/>
-      <c r="M48" s="189"/>
+      <c r="M48" s="191"/>
       <c r="N48" s="41" t="e">
         <f>L48/M48</f>
         <v>#DIV/0!</v>
@@ -11195,10 +12087,10 @@
         <f>I48+J48</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q48" s="188"/>
+      <c r="Q48" s="189"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="182"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="55"/>
@@ -11237,18 +12129,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="Q23:Q26"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="F7:L11"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="M23:M26"/>
     <mergeCell ref="F29:L33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="L35:L38"/>
@@ -11260,901 +12140,21 @@
     <mergeCell ref="L45:L48"/>
     <mergeCell ref="M45:M48"/>
     <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F7:L11"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="Q23:Q26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="88">
-        <v>0</v>
-      </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="91"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="88">
-        <f>A2-$L$1</f>
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="88">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="M2" s="149"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="91"/>
-      <c r="V2" s="130"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="88">
-        <f>L2-A3+L3</f>
-        <v>0.20833333333333337</v>
-      </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="88">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="91"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="91"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="91"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="91"/>
-    </row>
-    <row r="7" spans="1:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="153"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="152" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="173" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="173"/>
-      <c r="G8" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G11" s="174" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="176"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G12" s="177"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="179"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G13" s="177"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="179"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G14" s="177"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="179"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G15" s="177"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="179"/>
-    </row>
-    <row r="16" spans="1:25" s="133" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="134"/>
-      <c r="H16" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q16" s="154" t="s">
-        <v>54</v>
-      </c>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135" t="s">
-        <v>53</v>
-      </c>
-      <c r="T16" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="U16" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="V16" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="W16" s="136" t="s">
-        <v>56</v>
-      </c>
-      <c r="X16" s="136" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y16" s="135"/>
-    </row>
-    <row r="17" spans="1:24" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="192"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="138">
-        <f>G2</f>
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="137">
-        <v>42975.416666666664</v>
-      </c>
-      <c r="F17" s="137">
-        <v>42975.541666666664</v>
-      </c>
-      <c r="G17" s="138">
-        <f>$G$3</f>
-        <v>0.20833333333333337</v>
-      </c>
-      <c r="H17" s="148">
-        <f t="shared" ref="H17:I19" si="0">MOD(E17,1)</f>
-        <v>0.41666666666424135</v>
-      </c>
-      <c r="I17" s="148">
-        <f t="shared" si="0"/>
-        <v>0.54166666666424135</v>
-      </c>
-      <c r="J17" s="194">
-        <f>IF(H17&gt;$A$2,((Q17-2)*$A$4)+($A$3-H17)+(I17-$A$2),((Q17-2)*$A$4)+(($A$3-H17)+(I17-$A$2))-($A$2-H17))</f>
-        <v>4.1666666664241292E-2</v>
-      </c>
-      <c r="K17" s="143">
-        <f>IF(U17&lt;&gt;V17,(D17)+((Q17-2)*$A$5)+(IF(I17&gt;$A$3,I17-$A$3,0))+(G17)+(T17),IF(I17&gt;$A$3,I17-$A$3,IF(H17&lt;$A$2,$A$2-H17,0)))</f>
-        <v>8.3333333335758653E-2</v>
-      </c>
-      <c r="L17" s="146">
-        <f t="shared" ref="L17:M19" si="1">J17</f>
-        <v>4.1666666664241292E-2</v>
-      </c>
-      <c r="M17" s="145">
-        <f t="shared" si="1"/>
-        <v>8.3333333335758653E-2</v>
-      </c>
-      <c r="N17" s="159">
-        <f>J17/O17 *100</f>
-        <v>33.333333331393035</v>
-      </c>
-      <c r="O17" s="144">
-        <f t="shared" ref="O17:O23" si="2">F17-E17</f>
-        <v>0.125</v>
-      </c>
-      <c r="P17" s="142">
-        <f t="shared" ref="P17:P23" si="3">F17-E17</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q17" s="141">
-        <f>(NETWORKDAYS.INTL(E17,F17,"0000011",Plan2!A2))</f>
-        <v>1</v>
-      </c>
-      <c r="R17" s="145">
-        <f t="shared" ref="R17:R23" si="4">Q17</f>
-        <v>1</v>
-      </c>
-      <c r="S17" s="139">
-        <f t="shared" ref="S17:S19" si="5">((_xlfn.DAYS(V17,U17)+1)-Q17)</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="144">
-        <f t="shared" ref="T17:T23" si="6">S17</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="140">
-        <f t="shared" ref="U17:V19" si="7">DATE(YEAR(E17),MONTH(E17),DAY(E17))</f>
-        <v>42975</v>
-      </c>
-      <c r="V17" s="140">
-        <f t="shared" si="7"/>
-        <v>42975</v>
-      </c>
-      <c r="W17" s="140"/>
-      <c r="X17" s="140"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="191" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="138">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="137">
-        <v>42975.583333333336</v>
-      </c>
-      <c r="F18" s="137">
-        <v>42977.833333333336</v>
-      </c>
-      <c r="G18" s="138">
-        <f>$G$3</f>
-        <v>0.20833333333333337</v>
-      </c>
-      <c r="H18" s="148">
-        <f t="shared" si="0"/>
-        <v>0.58333333333575865</v>
-      </c>
-      <c r="I18" s="148">
-        <f t="shared" si="0"/>
-        <v>0.83333333333575865</v>
-      </c>
-      <c r="J18" s="194">
-        <f>IF(H18&gt;$A$2,((Q18-2)*$A$4)+($A$3-H18)+(I18-$A$2),((Q18-2)*$A$4)+(($A$3-H18)+(I18-$A$2))-($A$2-H18))</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="K18" s="143">
-        <f t="shared" ref="K18:K23" si="8">IF(U18&lt;&gt;V18,(D18)+((Q18-2)*$A$5)+(IF(I18&gt;$A$3,I18-$A$3,0))+(G18)+(T18),IF(I18&gt;$A$3,I18-$A$3,IF(H18&lt;$A$2,$A$2-H18,0)))</f>
-        <v>1.4583333333357591</v>
-      </c>
-      <c r="L18" s="146">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="M18" s="145">
-        <f t="shared" si="1"/>
-        <v>1.4583333333357591</v>
-      </c>
-      <c r="N18" s="159">
-        <f>J18/O18 *100</f>
-        <v>37.037037037037038</v>
-      </c>
-      <c r="O18" s="144">
-        <f t="shared" si="2"/>
-        <v>2.25</v>
-      </c>
-      <c r="P18" s="142">
-        <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-      <c r="Q18" s="141">
-        <f>(NETWORKDAYS.INTL(E18,F18,"0000011",Plan2!A3))</f>
-        <v>3</v>
-      </c>
-      <c r="R18" s="145">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="S18" s="139">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="144">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="140">
-        <f t="shared" si="7"/>
-        <v>42975</v>
-      </c>
-      <c r="V18" s="140">
-        <f t="shared" si="7"/>
-        <v>42977</v>
-      </c>
-      <c r="W18" s="132"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="191" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="192"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="157">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="128">
-        <v>42975.416666666664</v>
-      </c>
-      <c r="F19" s="137">
-        <v>42978.625</v>
-      </c>
-      <c r="G19" s="138">
-        <f>$G$3</f>
-        <v>0.20833333333333337</v>
-      </c>
-      <c r="H19" s="148">
-        <f t="shared" si="0"/>
-        <v>0.41666666666424135</v>
-      </c>
-      <c r="I19" s="148">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="J19" s="194">
-        <f>IF(H19&gt;$A$2,((Q19-2)*$A$4)+($A$3-H19)+(I19-$A$2),((Q19-2)*$A$4)+(($A$3-H19)+(I19-$A$2))-($A$2-H19))</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="143">
-        <f t="shared" si="8"/>
-        <v>2.125</v>
-      </c>
-      <c r="L19" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="145">
-        <f t="shared" si="1"/>
-        <v>2.125</v>
-      </c>
-      <c r="N19" s="159">
-        <f t="shared" ref="N19:N21" si="9">J19/O19 *100</f>
-        <v>31.168831168807611</v>
-      </c>
-      <c r="O19" s="144">
-        <f t="shared" si="2"/>
-        <v>3.2083333333357587</v>
-      </c>
-      <c r="P19" s="142">
-        <f t="shared" si="3"/>
-        <v>3.2083333333357587</v>
-      </c>
-      <c r="Q19" s="141">
-        <f>(NETWORKDAYS.INTL(E19,F19,"0000011",Plan2!A4))</f>
-        <v>4</v>
-      </c>
-      <c r="R19" s="145">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="S19" s="139">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="144">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="140">
-        <f t="shared" si="7"/>
-        <v>42975</v>
-      </c>
-      <c r="V19" s="140">
-        <f t="shared" si="7"/>
-        <v>42978</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="191" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="157">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="128">
-        <v>42982.645833333336</v>
-      </c>
-      <c r="F20" s="128">
-        <v>42985.666666666664</v>
-      </c>
-      <c r="G20" s="157">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="H20" s="148">
-        <f t="shared" ref="H20:H21" si="10">MOD(E20,1)</f>
-        <v>0.64583333333575865</v>
-      </c>
-      <c r="I20" s="148">
-        <f t="shared" ref="I20:I21" si="11">MOD(F20,1)</f>
-        <v>0.66666666666424135</v>
-      </c>
-      <c r="J20" s="194">
-        <f>IF(H20&gt;$A$2,((Q20-2)*$A$4)+($A$3-H20)+(I20-$A$2),((Q20-2)*$A$4)+(($A$3-H20)+(I20-$A$2))-($A$2-H20))</f>
-        <v>0.60416666666181595</v>
-      </c>
-      <c r="K20" s="143">
-        <f t="shared" si="8"/>
-        <v>2.416666666666667</v>
-      </c>
-      <c r="L20" s="146">
-        <f t="shared" ref="L20" si="12">J20</f>
-        <v>0.60416666666181595</v>
-      </c>
-      <c r="M20" s="145">
-        <f t="shared" ref="M20" si="13">K20</f>
-        <v>2.416666666666667</v>
-      </c>
-      <c r="N20" s="159">
-        <f t="shared" si="9"/>
-        <v>19.999999999871541</v>
-      </c>
-      <c r="O20" s="144">
-        <f t="shared" si="2"/>
-        <v>3.0208333333284827</v>
-      </c>
-      <c r="P20" s="142">
-        <f t="shared" si="3"/>
-        <v>3.0208333333284827</v>
-      </c>
-      <c r="Q20" s="141">
-        <f>(NETWORKDAYS.INTL(E20,F20,"0000011",Plan2!A2))</f>
-        <v>3</v>
-      </c>
-      <c r="R20" s="145">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="S20" s="139">
-        <f>((_xlfn.DAYS(V20,U20)+1)-Q20)</f>
-        <v>1</v>
-      </c>
-      <c r="T20" s="144">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="U20" s="140">
-        <f t="shared" ref="U20" si="14">DATE(YEAR(E20),MONTH(E20),DAY(E20))</f>
-        <v>42982</v>
-      </c>
-      <c r="V20" s="140">
-        <f t="shared" ref="V20" si="15">DATE(YEAR(F20),MONTH(F20),DAY(F20))</f>
-        <v>42985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="191" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="192"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="157">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="128">
-        <v>42986.666666666664</v>
-      </c>
-      <c r="F21" s="128">
-        <v>42989.583333333336</v>
-      </c>
-      <c r="G21" s="157">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="H21" s="158">
-        <f t="shared" si="10"/>
-        <v>0.66666666666424135</v>
-      </c>
-      <c r="I21" s="158">
-        <f t="shared" si="11"/>
-        <v>0.58333333333575865</v>
-      </c>
-      <c r="J21" s="194">
-        <f>IF(H21&gt;$A$2,((Q21-2)*$A$4)+($A$3-H21)+(I21-$A$2),((Q21-2)*$A$4)+(($A$3-H21)+(I21-$A$2))-($A$2-H21))</f>
-        <v>0.20833333333818393</v>
-      </c>
-      <c r="K21" s="143">
-        <f t="shared" si="8"/>
-        <v>2.7083333333333335</v>
-      </c>
-      <c r="L21" s="146">
-        <f t="shared" ref="L21" si="16">J21</f>
-        <v>0.20833333333818393</v>
-      </c>
-      <c r="M21" s="145">
-        <f t="shared" ref="M21" si="17">K21</f>
-        <v>2.7083333333333335</v>
-      </c>
-      <c r="N21" s="160">
-        <f t="shared" si="9"/>
-        <v>7.1428571430115699</v>
-      </c>
-      <c r="O21" s="144">
-        <f t="shared" si="2"/>
-        <v>2.9166666666715173</v>
-      </c>
-      <c r="P21" s="142">
-        <f t="shared" si="3"/>
-        <v>2.9166666666715173</v>
-      </c>
-      <c r="Q21" s="141">
-        <f>(NETWORKDAYS.INTL(E21,F21,"0000011",Plan2!A3))</f>
-        <v>2</v>
-      </c>
-      <c r="R21" s="145">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="S21" s="139">
-        <f>((_xlfn.DAYS(V21,U21)+1)-Q21)</f>
-        <v>2</v>
-      </c>
-      <c r="T21" s="144">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="U21" s="140">
-        <f t="shared" ref="U21" si="18">DATE(YEAR(E21),MONTH(E21),DAY(E21))</f>
-        <v>42986</v>
-      </c>
-      <c r="V21" s="140">
-        <f t="shared" ref="V21" si="19">DATE(YEAR(F21),MONTH(F21),DAY(F21))</f>
-        <v>42989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="191" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="157">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="137">
-        <v>42975.5</v>
-      </c>
-      <c r="F22" s="137">
-        <v>42975.833333333336</v>
-      </c>
-      <c r="G22" s="157">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="H22" s="158">
-        <f t="shared" ref="H22:H23" si="20">MOD(E22,1)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="158">
-        <f t="shared" ref="I22:I23" si="21">MOD(F22,1)</f>
-        <v>0.83333333333575865</v>
-      </c>
-      <c r="J22" s="194">
-        <f>IF(H22&gt;$A$2,((Q22-2)*$A$4)+($A$3-H22)+(I22-$A$2),((Q22-2)*$A$4)+(($A$3-H22)+(I22-$A$2))-($A$2-H22))</f>
-        <v>0.3333333333357586</v>
-      </c>
-      <c r="K22" s="143">
-        <f t="shared" si="8"/>
-        <v>4.1666666669092023E-2</v>
-      </c>
-      <c r="L22" s="146">
-        <f t="shared" ref="L22" si="22">J22</f>
-        <v>0.3333333333357586</v>
-      </c>
-      <c r="M22" s="145">
-        <f t="shared" ref="M22" si="23">K22</f>
-        <v>4.1666666669092023E-2</v>
-      </c>
-      <c r="N22" s="160">
-        <f t="shared" ref="N22" si="24">J22/O22 *100</f>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="O22" s="144">
-        <f t="shared" si="2"/>
-        <v>0.33333333333575865</v>
-      </c>
-      <c r="P22" s="142">
-        <f t="shared" si="3"/>
-        <v>0.33333333333575865</v>
-      </c>
-      <c r="Q22" s="141">
-        <f>(NETWORKDAYS.INTL(E22,F22,"0000011",Plan2!A4))</f>
-        <v>1</v>
-      </c>
-      <c r="R22" s="145">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="139">
-        <f>((_xlfn.DAYS(V22,U22)+1)-Q22)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="144">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="140">
-        <f t="shared" ref="U22:U23" si="25">DATE(YEAR(E22),MONTH(E22),DAY(E22))</f>
-        <v>42975</v>
-      </c>
-      <c r="V22" s="140">
-        <f t="shared" ref="V22:V23" si="26">DATE(YEAR(F22),MONTH(F22),DAY(F22))</f>
-        <v>42975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="191" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="192"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="128">
-        <v>42975.416666666664</v>
-      </c>
-      <c r="F23" s="128">
-        <v>42975.979166666664</v>
-      </c>
-      <c r="G23" s="157">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="H23" s="158">
-        <f t="shared" si="20"/>
-        <v>0.41666666666424135</v>
-      </c>
-      <c r="I23" s="158">
-        <f t="shared" si="21"/>
-        <v>0.97916666666424135</v>
-      </c>
-      <c r="J23" s="194">
-        <f>IF(H23&gt;$A$2,((Q23-2)*$A$4)+($A$3-H23)+(I23-$A$2),((Q23-2)*$A$4)+(($A$3-H23)+(I23-$A$2))-($A$2-H23))</f>
-        <v>0.47916666666424135</v>
-      </c>
-      <c r="K23" s="143">
-        <f t="shared" si="8"/>
-        <v>0.18749999999757472</v>
-      </c>
-      <c r="L23" s="146">
-        <f t="shared" ref="L23" si="27">J23</f>
-        <v>0.47916666666424135</v>
-      </c>
-      <c r="M23" s="145">
-        <f t="shared" ref="M23" si="28">K23</f>
-        <v>0.18749999999757472</v>
-      </c>
-      <c r="N23" s="160">
-        <f t="shared" ref="N23" si="29">J23/O23 *100</f>
-        <v>85.185185184754019</v>
-      </c>
-      <c r="O23" s="144">
-        <f t="shared" ref="O23" si="30">F23-E23</f>
-        <v>0.5625</v>
-      </c>
-      <c r="P23" s="142">
-        <f t="shared" ref="P23" si="31">F23-E23</f>
-        <v>0.5625</v>
-      </c>
-      <c r="Q23" s="141">
-        <f>(NETWORKDAYS.INTL(E23,F23,"0000011",Plan2!A5))</f>
-        <v>1</v>
-      </c>
-      <c r="R23" s="145">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S23" s="139">
-        <f>((_xlfn.DAYS(V23,U23)+1)-Q23)</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="144">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="140">
-        <f t="shared" ref="U23" si="32">DATE(YEAR(E23),MONTH(E23),DAY(E23))</f>
-        <v>42975</v>
-      </c>
-      <c r="V23" s="140">
-        <f t="shared" ref="V23" si="33">DATE(YEAR(F23),MONTH(F23),DAY(F23))</f>
-        <v>42975</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="G11:M15"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
